--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BB272C-4678-4612-9016-8A4652F92808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2F56DE-1C90-433F-B694-A683EB9E605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="50" windowWidth="25430" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="170" yWindow="180" windowWidth="25430" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="63">
   <si>
     <t>Start date</t>
   </si>
@@ -815,6 +815,39 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,41 +860,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,10 +1231,10 @@
   <dimension ref="A2:EC39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1250,15 +1250,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
@@ -1292,336 +1292,336 @@
       <c r="AW2" s="19"/>
     </row>
     <row r="3" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="34" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="37" t="s">
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="38"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
-      <c r="BN3" s="38"/>
-      <c r="BO3" s="38"/>
-      <c r="BP3" s="38"/>
-      <c r="BQ3" s="38"/>
-      <c r="BR3" s="38"/>
-      <c r="BS3" s="38"/>
-      <c r="BT3" s="38"/>
-      <c r="BU3" s="38"/>
-      <c r="BV3" s="38"/>
-      <c r="BW3" s="38"/>
-      <c r="BX3" s="38"/>
-      <c r="BY3" s="38"/>
-      <c r="BZ3" s="38"/>
-      <c r="CA3" s="39"/>
-      <c r="CB3" s="37" t="s">
+      <c r="AY3" s="41"/>
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="41"/>
+      <c r="BB3" s="41"/>
+      <c r="BC3" s="41"/>
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="41"/>
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="41"/>
+      <c r="BJ3" s="41"/>
+      <c r="BK3" s="41"/>
+      <c r="BL3" s="41"/>
+      <c r="BM3" s="41"/>
+      <c r="BN3" s="41"/>
+      <c r="BO3" s="41"/>
+      <c r="BP3" s="41"/>
+      <c r="BQ3" s="41"/>
+      <c r="BR3" s="41"/>
+      <c r="BS3" s="41"/>
+      <c r="BT3" s="41"/>
+      <c r="BU3" s="41"/>
+      <c r="BV3" s="41"/>
+      <c r="BW3" s="41"/>
+      <c r="BX3" s="41"/>
+      <c r="BY3" s="41"/>
+      <c r="BZ3" s="41"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="CC3" s="38"/>
-      <c r="CD3" s="38"/>
-      <c r="CE3" s="38"/>
-      <c r="CF3" s="38"/>
-      <c r="CG3" s="38"/>
-      <c r="CH3" s="38"/>
-      <c r="CI3" s="38"/>
-      <c r="CJ3" s="38"/>
-      <c r="CK3" s="38"/>
-      <c r="CL3" s="38"/>
-      <c r="CM3" s="38"/>
-      <c r="CN3" s="38"/>
-      <c r="CO3" s="38"/>
-      <c r="CP3" s="38"/>
-      <c r="CQ3" s="38"/>
-      <c r="CR3" s="38"/>
-      <c r="CS3" s="38"/>
-      <c r="CT3" s="38"/>
-      <c r="CU3" s="38"/>
-      <c r="CV3" s="38"/>
-      <c r="CW3" s="38"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="38"/>
-      <c r="DB3" s="38"/>
-      <c r="DC3" s="38"/>
-      <c r="DD3" s="38"/>
-      <c r="DE3" s="39"/>
-      <c r="DF3" s="45" t="s">
+      <c r="CC3" s="41"/>
+      <c r="CD3" s="41"/>
+      <c r="CE3" s="41"/>
+      <c r="CF3" s="41"/>
+      <c r="CG3" s="41"/>
+      <c r="CH3" s="41"/>
+      <c r="CI3" s="41"/>
+      <c r="CJ3" s="41"/>
+      <c r="CK3" s="41"/>
+      <c r="CL3" s="41"/>
+      <c r="CM3" s="41"/>
+      <c r="CN3" s="41"/>
+      <c r="CO3" s="41"/>
+      <c r="CP3" s="41"/>
+      <c r="CQ3" s="41"/>
+      <c r="CR3" s="41"/>
+      <c r="CS3" s="41"/>
+      <c r="CT3" s="41"/>
+      <c r="CU3" s="41"/>
+      <c r="CV3" s="41"/>
+      <c r="CW3" s="41"/>
+      <c r="CX3" s="41"/>
+      <c r="CY3" s="41"/>
+      <c r="CZ3" s="41"/>
+      <c r="DA3" s="41"/>
+      <c r="DB3" s="41"/>
+      <c r="DC3" s="41"/>
+      <c r="DD3" s="41"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="DG3" s="38"/>
-      <c r="DH3" s="38"/>
-      <c r="DI3" s="38"/>
-      <c r="DJ3" s="38"/>
-      <c r="DK3" s="38"/>
-      <c r="DL3" s="38"/>
-      <c r="DM3" s="38"/>
-      <c r="DN3" s="38"/>
-      <c r="DO3" s="38"/>
-      <c r="DP3" s="38"/>
-      <c r="DQ3" s="38"/>
-      <c r="DR3" s="38"/>
-      <c r="DS3" s="38"/>
-      <c r="DT3" s="38"/>
-      <c r="DU3" s="38"/>
-      <c r="DV3" s="38"/>
-      <c r="DW3" s="38"/>
-      <c r="DX3" s="38"/>
-      <c r="DY3" s="38"/>
-      <c r="DZ3" s="38"/>
-      <c r="EA3" s="38"/>
-      <c r="EB3" s="38"/>
+      <c r="DG3" s="41"/>
+      <c r="DH3" s="41"/>
+      <c r="DI3" s="41"/>
+      <c r="DJ3" s="41"/>
+      <c r="DK3" s="41"/>
+      <c r="DL3" s="41"/>
+      <c r="DM3" s="41"/>
+      <c r="DN3" s="41"/>
+      <c r="DO3" s="41"/>
+      <c r="DP3" s="41"/>
+      <c r="DQ3" s="41"/>
+      <c r="DR3" s="41"/>
+      <c r="DS3" s="41"/>
+      <c r="DT3" s="41"/>
+      <c r="DU3" s="41"/>
+      <c r="DV3" s="41"/>
+      <c r="DW3" s="41"/>
+      <c r="DX3" s="41"/>
+      <c r="DY3" s="41"/>
+      <c r="DZ3" s="41"/>
+      <c r="EA3" s="41"/>
+      <c r="EB3" s="41"/>
     </row>
     <row r="4" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="44" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44" t="s">
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44" t="s">
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44" t="s">
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44" t="s">
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44" t="s">
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="BE4" s="44"/>
-      <c r="BF4" s="44"/>
-      <c r="BG4" s="44"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="44"/>
-      <c r="BK4" s="44" t="s">
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44" t="s">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="44" t="s">
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39"/>
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="BZ4" s="44"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="44"/>
-      <c r="CE4" s="44"/>
-      <c r="CF4" s="44" t="s">
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="CG4" s="44"/>
-      <c r="CH4" s="44"/>
-      <c r="CI4" s="44"/>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="44"/>
-      <c r="CL4" s="44"/>
-      <c r="CM4" s="44" t="s">
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39"/>
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="CN4" s="44"/>
-      <c r="CO4" s="44"/>
-      <c r="CP4" s="44"/>
-      <c r="CQ4" s="44"/>
-      <c r="CR4" s="44"/>
-      <c r="CS4" s="44"/>
-      <c r="CT4" s="44" t="s">
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="CU4" s="44"/>
-      <c r="CV4" s="44"/>
-      <c r="CW4" s="44"/>
-      <c r="CX4" s="44"/>
-      <c r="CY4" s="44"/>
-      <c r="CZ4" s="44"/>
-      <c r="DA4" s="44" t="s">
+      <c r="CU4" s="39"/>
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="DB4" s="44"/>
-      <c r="DC4" s="44"/>
-      <c r="DD4" s="44"/>
-      <c r="DE4" s="44"/>
-      <c r="DF4" s="44"/>
-      <c r="DG4" s="44"/>
-      <c r="DH4" s="44" t="s">
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39"/>
+      <c r="DH4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="DI4" s="44"/>
-      <c r="DJ4" s="44"/>
-      <c r="DK4" s="44"/>
-      <c r="DL4" s="44"/>
-      <c r="DM4" s="44"/>
-      <c r="DN4" s="44"/>
-      <c r="DO4" s="44" t="s">
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="DP4" s="44"/>
-      <c r="DQ4" s="44"/>
-      <c r="DR4" s="44"/>
-      <c r="DS4" s="44"/>
-      <c r="DT4" s="44"/>
-      <c r="DU4" s="44"/>
-      <c r="DV4" s="44" t="s">
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39"/>
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="DW4" s="44"/>
-      <c r="DX4" s="44"/>
-      <c r="DY4" s="44"/>
-      <c r="DZ4" s="44"/>
-      <c r="EA4" s="44"/>
-      <c r="EB4" s="44"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
       <c r="EC4" s="2"/>
     </row>
     <row r="5" spans="1:133" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2002,13 +2002,13 @@
       <c r="EC5" s="7"/>
     </row>
     <row r="6" spans="1:133" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="21">
@@ -2510,191 +2510,191 @@
       <c r="EC6" s="2"/>
     </row>
     <row r="7" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="33">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="44">
         <f>SUM(I6:M6)</f>
         <v>10</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="40">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="36">
         <f>+SUM(N6:T6)</f>
         <v>28</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="40">
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="36">
         <f t="shared" ref="U7" si="4">+SUM(U6:AA6)</f>
         <v>33</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="40">
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36">
         <f t="shared" ref="AB7" si="5">+SUM(AB6:AH6)</f>
         <v>42</v>
       </c>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="40">
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="36">
         <f t="shared" ref="AI7" si="6">+SUM(AI6:AO6)</f>
         <v>45</v>
       </c>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="40">
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="36">
         <f t="shared" ref="AP7" si="7">+SUM(AP6:AV6)</f>
         <v>49</v>
       </c>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="40">
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="36">
         <f t="shared" ref="AW7" si="8">+SUM(AW6:BC6)</f>
         <v>48</v>
       </c>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="40">
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="36">
         <f t="shared" ref="BD7" si="9">+SUM(BD6:BJ6)</f>
         <v>49</v>
       </c>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="41"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="40">
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="37"/>
+      <c r="BH7" s="37"/>
+      <c r="BI7" s="37"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="36">
         <f t="shared" ref="BK7" si="10">+SUM(BK6:BQ6)</f>
         <v>51</v>
       </c>
-      <c r="BL7" s="41"/>
-      <c r="BM7" s="41"/>
-      <c r="BN7" s="41"/>
-      <c r="BO7" s="41"/>
-      <c r="BP7" s="41"/>
-      <c r="BQ7" s="42"/>
-      <c r="BR7" s="40">
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="37"/>
+      <c r="BN7" s="37"/>
+      <c r="BO7" s="37"/>
+      <c r="BP7" s="37"/>
+      <c r="BQ7" s="38"/>
+      <c r="BR7" s="36">
         <f t="shared" ref="BR7" si="11">+SUM(BR6:BX6)</f>
         <v>63</v>
       </c>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="41"/>
-      <c r="BW7" s="41"/>
-      <c r="BX7" s="42"/>
-      <c r="BY7" s="40">
+      <c r="BS7" s="37"/>
+      <c r="BT7" s="37"/>
+      <c r="BU7" s="37"/>
+      <c r="BV7" s="37"/>
+      <c r="BW7" s="37"/>
+      <c r="BX7" s="38"/>
+      <c r="BY7" s="36">
         <f t="shared" ref="BY7" si="12">+SUM(BY6:CE6)</f>
         <v>56</v>
       </c>
-      <c r="BZ7" s="41"/>
-      <c r="CA7" s="41"/>
-      <c r="CB7" s="41"/>
-      <c r="CC7" s="41"/>
-      <c r="CD7" s="41"/>
-      <c r="CE7" s="42"/>
-      <c r="CF7" s="40">
+      <c r="BZ7" s="37"/>
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="37"/>
+      <c r="CC7" s="37"/>
+      <c r="CD7" s="37"/>
+      <c r="CE7" s="38"/>
+      <c r="CF7" s="36">
         <f t="shared" ref="CF7" si="13">+SUM(CF6:CL6)</f>
         <v>49</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="41"/>
-      <c r="CJ7" s="41"/>
-      <c r="CK7" s="41"/>
-      <c r="CL7" s="42"/>
-      <c r="CM7" s="40">
+      <c r="CG7" s="37"/>
+      <c r="CH7" s="37"/>
+      <c r="CI7" s="37"/>
+      <c r="CJ7" s="37"/>
+      <c r="CK7" s="37"/>
+      <c r="CL7" s="38"/>
+      <c r="CM7" s="36">
         <f t="shared" ref="CM7" si="14">+SUM(CM6:CS6)</f>
         <v>59</v>
       </c>
-      <c r="CN7" s="41"/>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="41"/>
-      <c r="CR7" s="41"/>
-      <c r="CS7" s="42"/>
-      <c r="CT7" s="40">
+      <c r="CN7" s="37"/>
+      <c r="CO7" s="37"/>
+      <c r="CP7" s="37"/>
+      <c r="CQ7" s="37"/>
+      <c r="CR7" s="37"/>
+      <c r="CS7" s="38"/>
+      <c r="CT7" s="36">
         <f t="shared" ref="CT7" si="15">+SUM(CT6:CZ6)</f>
         <v>63</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="41"/>
-      <c r="CX7" s="41"/>
-      <c r="CY7" s="41"/>
-      <c r="CZ7" s="42"/>
-      <c r="DA7" s="40">
+      <c r="CU7" s="37"/>
+      <c r="CV7" s="37"/>
+      <c r="CW7" s="37"/>
+      <c r="CX7" s="37"/>
+      <c r="CY7" s="37"/>
+      <c r="CZ7" s="38"/>
+      <c r="DA7" s="36">
         <f t="shared" ref="DA7" si="16">+SUM(DA6:DG6)</f>
         <v>49</v>
       </c>
-      <c r="DB7" s="41"/>
-      <c r="DC7" s="41"/>
-      <c r="DD7" s="41"/>
-      <c r="DE7" s="41"/>
-      <c r="DF7" s="41"/>
-      <c r="DG7" s="42"/>
-      <c r="DH7" s="40">
+      <c r="DB7" s="37"/>
+      <c r="DC7" s="37"/>
+      <c r="DD7" s="37"/>
+      <c r="DE7" s="37"/>
+      <c r="DF7" s="37"/>
+      <c r="DG7" s="38"/>
+      <c r="DH7" s="36">
         <f t="shared" ref="DH7" si="17">+SUM(DH6:DN6)</f>
         <v>28</v>
       </c>
-      <c r="DI7" s="41"/>
-      <c r="DJ7" s="41"/>
-      <c r="DK7" s="41"/>
-      <c r="DL7" s="41"/>
-      <c r="DM7" s="41"/>
-      <c r="DN7" s="42"/>
-      <c r="DO7" s="40">
+      <c r="DI7" s="37"/>
+      <c r="DJ7" s="37"/>
+      <c r="DK7" s="37"/>
+      <c r="DL7" s="37"/>
+      <c r="DM7" s="37"/>
+      <c r="DN7" s="38"/>
+      <c r="DO7" s="36">
         <f t="shared" ref="DO7" si="18">+SUM(DO6:DU6)</f>
         <v>3</v>
       </c>
-      <c r="DP7" s="41"/>
-      <c r="DQ7" s="41"/>
-      <c r="DR7" s="41"/>
-      <c r="DS7" s="41"/>
-      <c r="DT7" s="41"/>
-      <c r="DU7" s="42"/>
-      <c r="DV7" s="40">
+      <c r="DP7" s="37"/>
+      <c r="DQ7" s="37"/>
+      <c r="DR7" s="37"/>
+      <c r="DS7" s="37"/>
+      <c r="DT7" s="37"/>
+      <c r="DU7" s="38"/>
+      <c r="DV7" s="36">
         <f t="shared" ref="DV7" si="19">+SUM(DV6:EB6)</f>
         <v>1</v>
       </c>
-      <c r="DW7" s="41"/>
-      <c r="DX7" s="41"/>
-      <c r="DY7" s="41"/>
-      <c r="DZ7" s="41"/>
-      <c r="EA7" s="41"/>
-      <c r="EB7" s="42"/>
+      <c r="DW7" s="37"/>
+      <c r="DX7" s="37"/>
+      <c r="DY7" s="37"/>
+      <c r="DZ7" s="37"/>
+      <c r="EA7" s="37"/>
+      <c r="EB7" s="38"/>
       <c r="EC7" s="2"/>
     </row>
     <row r="8" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -2704,7 +2704,9 @@
       <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="16" t="str">
         <f t="shared" ref="E8:E38" si="20">B8&amp;" - "&amp;C8</f>
         <v>TFG-Localization Based Systems and Intelligent Space - CAT1</v>
@@ -2717,7 +2719,7 @@
       </c>
       <c r="H8" s="14">
         <f ca="1">IF(F8&gt;TODAY(), "Not Started", IF(TODAY()&gt;G8, "Finished", IF(G8=TODAY(), "Due Today", G8-TODAY())))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>13</v>
@@ -2893,7 +2895,7 @@
       </c>
       <c r="H9" s="14">
         <f ca="1">IF(F9&gt;TODAY(), "Not Started", IF(TODAY()&gt;G9, "Finished", IF(G9=TODAY(), "Due Today", G9-TODAY())))</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3069,7 +3071,7 @@
       </c>
       <c r="H10" s="14">
         <f ca="1">IF(F10&gt;TODAY(), "Not Started", IF(TODAY()&gt;G10, "Finished", IF(G10=TODAY(), "Due Today", G10-TODAY())))</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3259,7 +3261,7 @@
       </c>
       <c r="H11" s="14">
         <f ca="1">IF(F11&gt;TODAY(), "Not Started", IF(TODAY()&gt;G11, "Finished", IF(G11=TODAY(), "Due Today", G11-TODAY())))</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>13</v>
@@ -8896,6 +8898,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="S3:AW3"/>
+    <mergeCell ref="AP7:AV7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="AI7:AO7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="DH4:DN4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AX3:CA3"/>
+    <mergeCell ref="CB3:DE3"/>
+    <mergeCell ref="DF3:EB3"/>
+    <mergeCell ref="DO4:DU4"/>
+    <mergeCell ref="DV4:EB4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="CF4:CL4"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="DV7:EB7"/>
     <mergeCell ref="AW7:BC7"/>
@@ -8912,39 +8947,6 @@
     <mergeCell ref="CM4:CS4"/>
     <mergeCell ref="CT4:CZ4"/>
     <mergeCell ref="DA4:DG4"/>
-    <mergeCell ref="AX3:CA3"/>
-    <mergeCell ref="CB3:DE3"/>
-    <mergeCell ref="DF3:EB3"/>
-    <mergeCell ref="DO4:DU4"/>
-    <mergeCell ref="DV4:EB4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="DH4:DN4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="S3:AW3"/>
-    <mergeCell ref="AP7:AV7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:H38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasdalessandro/Desktop/UOC-2025-01/zz_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2F56DE-1C90-433F-B694-A683EB9E605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760BFAF-C957-B444-B8CC-628AB86A21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="170" yWindow="180" windowWidth="25430" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="25440" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="63">
   <si>
     <t>Start date</t>
   </si>
@@ -815,39 +815,6 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,8 +827,41 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,31 +1234,31 @@
       <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12:H16"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="3"/>
-    <col min="2" max="2" width="32.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
-    <col min="9" max="132" width="3.81640625" style="9" customWidth="1"/>
-    <col min="133" max="16384" width="8.6328125" style="3"/>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="32.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="3" customWidth="1"/>
+    <col min="9" max="132" width="3.83203125" style="9" customWidth="1"/>
+    <col min="133" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
@@ -1291,337 +1291,337 @@
       <c r="AV2" s="19"/>
       <c r="AW2" s="19"/>
     </row>
-    <row r="3" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="45" t="s">
+    <row r="3" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="40" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="40" t="s">
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="41"/>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="41"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="40" t="s">
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="38"/>
+      <c r="BO3" s="38"/>
+      <c r="BP3" s="38"/>
+      <c r="BQ3" s="38"/>
+      <c r="BR3" s="38"/>
+      <c r="BS3" s="38"/>
+      <c r="BT3" s="38"/>
+      <c r="BU3" s="38"/>
+      <c r="BV3" s="38"/>
+      <c r="BW3" s="38"/>
+      <c r="BX3" s="38"/>
+      <c r="BY3" s="38"/>
+      <c r="BZ3" s="38"/>
+      <c r="CA3" s="39"/>
+      <c r="CB3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="CC3" s="41"/>
-      <c r="CD3" s="41"/>
-      <c r="CE3" s="41"/>
-      <c r="CF3" s="41"/>
-      <c r="CG3" s="41"/>
-      <c r="CH3" s="41"/>
-      <c r="CI3" s="41"/>
-      <c r="CJ3" s="41"/>
-      <c r="CK3" s="41"/>
-      <c r="CL3" s="41"/>
-      <c r="CM3" s="41"/>
-      <c r="CN3" s="41"/>
-      <c r="CO3" s="41"/>
-      <c r="CP3" s="41"/>
-      <c r="CQ3" s="41"/>
-      <c r="CR3" s="41"/>
-      <c r="CS3" s="41"/>
-      <c r="CT3" s="41"/>
-      <c r="CU3" s="41"/>
-      <c r="CV3" s="41"/>
-      <c r="CW3" s="41"/>
-      <c r="CX3" s="41"/>
-      <c r="CY3" s="41"/>
-      <c r="CZ3" s="41"/>
-      <c r="DA3" s="41"/>
-      <c r="DB3" s="41"/>
-      <c r="DC3" s="41"/>
-      <c r="DD3" s="41"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="43" t="s">
+      <c r="CC3" s="38"/>
+      <c r="CD3" s="38"/>
+      <c r="CE3" s="38"/>
+      <c r="CF3" s="38"/>
+      <c r="CG3" s="38"/>
+      <c r="CH3" s="38"/>
+      <c r="CI3" s="38"/>
+      <c r="CJ3" s="38"/>
+      <c r="CK3" s="38"/>
+      <c r="CL3" s="38"/>
+      <c r="CM3" s="38"/>
+      <c r="CN3" s="38"/>
+      <c r="CO3" s="38"/>
+      <c r="CP3" s="38"/>
+      <c r="CQ3" s="38"/>
+      <c r="CR3" s="38"/>
+      <c r="CS3" s="38"/>
+      <c r="CT3" s="38"/>
+      <c r="CU3" s="38"/>
+      <c r="CV3" s="38"/>
+      <c r="CW3" s="38"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="38"/>
+      <c r="DB3" s="38"/>
+      <c r="DC3" s="38"/>
+      <c r="DD3" s="38"/>
+      <c r="DE3" s="39"/>
+      <c r="DF3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="DG3" s="41"/>
-      <c r="DH3" s="41"/>
-      <c r="DI3" s="41"/>
-      <c r="DJ3" s="41"/>
-      <c r="DK3" s="41"/>
-      <c r="DL3" s="41"/>
-      <c r="DM3" s="41"/>
-      <c r="DN3" s="41"/>
-      <c r="DO3" s="41"/>
-      <c r="DP3" s="41"/>
-      <c r="DQ3" s="41"/>
-      <c r="DR3" s="41"/>
-      <c r="DS3" s="41"/>
-      <c r="DT3" s="41"/>
-      <c r="DU3" s="41"/>
-      <c r="DV3" s="41"/>
-      <c r="DW3" s="41"/>
-      <c r="DX3" s="41"/>
-      <c r="DY3" s="41"/>
-      <c r="DZ3" s="41"/>
-      <c r="EA3" s="41"/>
-      <c r="EB3" s="41"/>
+      <c r="DG3" s="38"/>
+      <c r="DH3" s="38"/>
+      <c r="DI3" s="38"/>
+      <c r="DJ3" s="38"/>
+      <c r="DK3" s="38"/>
+      <c r="DL3" s="38"/>
+      <c r="DM3" s="38"/>
+      <c r="DN3" s="38"/>
+      <c r="DO3" s="38"/>
+      <c r="DP3" s="38"/>
+      <c r="DQ3" s="38"/>
+      <c r="DR3" s="38"/>
+      <c r="DS3" s="38"/>
+      <c r="DT3" s="38"/>
+      <c r="DU3" s="38"/>
+      <c r="DV3" s="38"/>
+      <c r="DW3" s="38"/>
+      <c r="DX3" s="38"/>
+      <c r="DY3" s="38"/>
+      <c r="DZ3" s="38"/>
+      <c r="EA3" s="38"/>
+      <c r="EB3" s="38"/>
     </row>
-    <row r="4" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="39" t="s">
+    <row r="4" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39" t="s">
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39" t="s">
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39" t="s">
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39" t="s">
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39" t="s">
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39" t="s">
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39" t="s">
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="44"/>
+      <c r="BK4" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39" t="s">
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="44"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="44"/>
+      <c r="BP4" s="44"/>
+      <c r="BQ4" s="44"/>
+      <c r="BR4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39"/>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39" t="s">
+      <c r="BS4" s="44"/>
+      <c r="BT4" s="44"/>
+      <c r="BU4" s="44"/>
+      <c r="BV4" s="44"/>
+      <c r="BW4" s="44"/>
+      <c r="BX4" s="44"/>
+      <c r="BY4" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39" t="s">
+      <c r="BZ4" s="44"/>
+      <c r="CA4" s="44"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="44"/>
+      <c r="CD4" s="44"/>
+      <c r="CE4" s="44"/>
+      <c r="CF4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39" t="s">
+      <c r="CG4" s="44"/>
+      <c r="CH4" s="44"/>
+      <c r="CI4" s="44"/>
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="44"/>
+      <c r="CL4" s="44"/>
+      <c r="CM4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39" t="s">
+      <c r="CN4" s="44"/>
+      <c r="CO4" s="44"/>
+      <c r="CP4" s="44"/>
+      <c r="CQ4" s="44"/>
+      <c r="CR4" s="44"/>
+      <c r="CS4" s="44"/>
+      <c r="CT4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="CU4" s="39"/>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39" t="s">
+      <c r="CU4" s="44"/>
+      <c r="CV4" s="44"/>
+      <c r="CW4" s="44"/>
+      <c r="CX4" s="44"/>
+      <c r="CY4" s="44"/>
+      <c r="CZ4" s="44"/>
+      <c r="DA4" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39"/>
-      <c r="DH4" s="39" t="s">
+      <c r="DB4" s="44"/>
+      <c r="DC4" s="44"/>
+      <c r="DD4" s="44"/>
+      <c r="DE4" s="44"/>
+      <c r="DF4" s="44"/>
+      <c r="DG4" s="44"/>
+      <c r="DH4" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39" t="s">
+      <c r="DI4" s="44"/>
+      <c r="DJ4" s="44"/>
+      <c r="DK4" s="44"/>
+      <c r="DL4" s="44"/>
+      <c r="DM4" s="44"/>
+      <c r="DN4" s="44"/>
+      <c r="DO4" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39"/>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39" t="s">
+      <c r="DP4" s="44"/>
+      <c r="DQ4" s="44"/>
+      <c r="DR4" s="44"/>
+      <c r="DS4" s="44"/>
+      <c r="DT4" s="44"/>
+      <c r="DU4" s="44"/>
+      <c r="DV4" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
+      <c r="DW4" s="44"/>
+      <c r="DX4" s="44"/>
+      <c r="DY4" s="44"/>
+      <c r="DZ4" s="44"/>
+      <c r="EA4" s="44"/>
+      <c r="EB4" s="44"/>
       <c r="EC4" s="2"/>
     </row>
-    <row r="5" spans="1:133" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:133" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="43" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2001,14 +2001,14 @@
       </c>
       <c r="EC5" s="7"/>
     </row>
-    <row r="6" spans="1:133" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+    <row r="6" spans="1:133" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="21">
@@ -2509,195 +2509,195 @@
       </c>
       <c r="EC6" s="2"/>
     </row>
-    <row r="7" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="44">
+    <row r="7" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="33">
         <f>SUM(I6:M6)</f>
         <v>10</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="36">
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="40">
         <f>+SUM(N6:T6)</f>
         <v>28</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="36">
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="40">
         <f t="shared" ref="U7" si="4">+SUM(U6:AA6)</f>
         <v>33</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="40">
         <f t="shared" ref="AB7" si="5">+SUM(AB6:AH6)</f>
         <v>42</v>
       </c>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="36">
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="40">
         <f t="shared" ref="AI7" si="6">+SUM(AI6:AO6)</f>
         <v>45</v>
       </c>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="36">
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="40">
         <f t="shared" ref="AP7" si="7">+SUM(AP6:AV6)</f>
         <v>49</v>
       </c>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="36">
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="40">
         <f t="shared" ref="AW7" si="8">+SUM(AW6:BC6)</f>
         <v>48</v>
       </c>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="36">
+      <c r="AX7" s="41"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="40">
         <f t="shared" ref="BD7" si="9">+SUM(BD6:BJ6)</f>
         <v>49</v>
       </c>
-      <c r="BE7" s="37"/>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="37"/>
-      <c r="BH7" s="37"/>
-      <c r="BI7" s="37"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="36">
+      <c r="BE7" s="41"/>
+      <c r="BF7" s="41"/>
+      <c r="BG7" s="41"/>
+      <c r="BH7" s="41"/>
+      <c r="BI7" s="41"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="40">
         <f t="shared" ref="BK7" si="10">+SUM(BK6:BQ6)</f>
         <v>51</v>
       </c>
-      <c r="BL7" s="37"/>
-      <c r="BM7" s="37"/>
-      <c r="BN7" s="37"/>
-      <c r="BO7" s="37"/>
-      <c r="BP7" s="37"/>
-      <c r="BQ7" s="38"/>
-      <c r="BR7" s="36">
+      <c r="BL7" s="41"/>
+      <c r="BM7" s="41"/>
+      <c r="BN7" s="41"/>
+      <c r="BO7" s="41"/>
+      <c r="BP7" s="41"/>
+      <c r="BQ7" s="42"/>
+      <c r="BR7" s="40">
         <f t="shared" ref="BR7" si="11">+SUM(BR6:BX6)</f>
         <v>63</v>
       </c>
-      <c r="BS7" s="37"/>
-      <c r="BT7" s="37"/>
-      <c r="BU7" s="37"/>
-      <c r="BV7" s="37"/>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="36">
+      <c r="BS7" s="41"/>
+      <c r="BT7" s="41"/>
+      <c r="BU7" s="41"/>
+      <c r="BV7" s="41"/>
+      <c r="BW7" s="41"/>
+      <c r="BX7" s="42"/>
+      <c r="BY7" s="40">
         <f t="shared" ref="BY7" si="12">+SUM(BY6:CE6)</f>
         <v>56</v>
       </c>
-      <c r="BZ7" s="37"/>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="37"/>
-      <c r="CC7" s="37"/>
-      <c r="CD7" s="37"/>
-      <c r="CE7" s="38"/>
-      <c r="CF7" s="36">
+      <c r="BZ7" s="41"/>
+      <c r="CA7" s="41"/>
+      <c r="CB7" s="41"/>
+      <c r="CC7" s="41"/>
+      <c r="CD7" s="41"/>
+      <c r="CE7" s="42"/>
+      <c r="CF7" s="40">
         <f t="shared" ref="CF7" si="13">+SUM(CF6:CL6)</f>
         <v>49</v>
       </c>
-      <c r="CG7" s="37"/>
-      <c r="CH7" s="37"/>
-      <c r="CI7" s="37"/>
-      <c r="CJ7" s="37"/>
-      <c r="CK7" s="37"/>
-      <c r="CL7" s="38"/>
-      <c r="CM7" s="36">
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="41"/>
+      <c r="CJ7" s="41"/>
+      <c r="CK7" s="41"/>
+      <c r="CL7" s="42"/>
+      <c r="CM7" s="40">
         <f t="shared" ref="CM7" si="14">+SUM(CM6:CS6)</f>
         <v>59</v>
       </c>
-      <c r="CN7" s="37"/>
-      <c r="CO7" s="37"/>
-      <c r="CP7" s="37"/>
-      <c r="CQ7" s="37"/>
-      <c r="CR7" s="37"/>
-      <c r="CS7" s="38"/>
-      <c r="CT7" s="36">
+      <c r="CN7" s="41"/>
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="41"/>
+      <c r="CR7" s="41"/>
+      <c r="CS7" s="42"/>
+      <c r="CT7" s="40">
         <f t="shared" ref="CT7" si="15">+SUM(CT6:CZ6)</f>
         <v>63</v>
       </c>
-      <c r="CU7" s="37"/>
-      <c r="CV7" s="37"/>
-      <c r="CW7" s="37"/>
-      <c r="CX7" s="37"/>
-      <c r="CY7" s="37"/>
-      <c r="CZ7" s="38"/>
-      <c r="DA7" s="36">
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="41"/>
+      <c r="CX7" s="41"/>
+      <c r="CY7" s="41"/>
+      <c r="CZ7" s="42"/>
+      <c r="DA7" s="40">
         <f t="shared" ref="DA7" si="16">+SUM(DA6:DG6)</f>
         <v>49</v>
       </c>
-      <c r="DB7" s="37"/>
-      <c r="DC7" s="37"/>
-      <c r="DD7" s="37"/>
-      <c r="DE7" s="37"/>
-      <c r="DF7" s="37"/>
-      <c r="DG7" s="38"/>
-      <c r="DH7" s="36">
+      <c r="DB7" s="41"/>
+      <c r="DC7" s="41"/>
+      <c r="DD7" s="41"/>
+      <c r="DE7" s="41"/>
+      <c r="DF7" s="41"/>
+      <c r="DG7" s="42"/>
+      <c r="DH7" s="40">
         <f t="shared" ref="DH7" si="17">+SUM(DH6:DN6)</f>
         <v>28</v>
       </c>
-      <c r="DI7" s="37"/>
-      <c r="DJ7" s="37"/>
-      <c r="DK7" s="37"/>
-      <c r="DL7" s="37"/>
-      <c r="DM7" s="37"/>
-      <c r="DN7" s="38"/>
-      <c r="DO7" s="36">
+      <c r="DI7" s="41"/>
+      <c r="DJ7" s="41"/>
+      <c r="DK7" s="41"/>
+      <c r="DL7" s="41"/>
+      <c r="DM7" s="41"/>
+      <c r="DN7" s="42"/>
+      <c r="DO7" s="40">
         <f t="shared" ref="DO7" si="18">+SUM(DO6:DU6)</f>
         <v>3</v>
       </c>
-      <c r="DP7" s="37"/>
-      <c r="DQ7" s="37"/>
-      <c r="DR7" s="37"/>
-      <c r="DS7" s="37"/>
-      <c r="DT7" s="37"/>
-      <c r="DU7" s="38"/>
-      <c r="DV7" s="36">
+      <c r="DP7" s="41"/>
+      <c r="DQ7" s="41"/>
+      <c r="DR7" s="41"/>
+      <c r="DS7" s="41"/>
+      <c r="DT7" s="41"/>
+      <c r="DU7" s="42"/>
+      <c r="DV7" s="40">
         <f t="shared" ref="DV7" si="19">+SUM(DV6:EB6)</f>
         <v>1</v>
       </c>
-      <c r="DW7" s="37"/>
-      <c r="DX7" s="37"/>
-      <c r="DY7" s="37"/>
-      <c r="DZ7" s="37"/>
-      <c r="EA7" s="37"/>
-      <c r="EB7" s="38"/>
+      <c r="DW7" s="41"/>
+      <c r="DX7" s="41"/>
+      <c r="DY7" s="41"/>
+      <c r="DZ7" s="41"/>
+      <c r="EA7" s="41"/>
+      <c r="EB7" s="42"/>
       <c r="EC7" s="2"/>
     </row>
-    <row r="8" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
@@ -2717,9 +2717,9 @@
       <c r="G8" s="10">
         <v>45720</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="14" t="str">
         <f ca="1">IF(F8&gt;TODAY(), "Not Started", IF(TODAY()&gt;G8, "Finished", IF(G8=TODAY(), "Due Today", G8-TODAY())))</f>
-        <v>1</v>
+        <v>Finished</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>13</v>
@@ -2875,14 +2875,16 @@
       <c r="EB8" s="11"/>
       <c r="EC8" s="2"/>
     </row>
-    <row r="9" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="15" t="str">
         <f>B9&amp;" - "&amp;C9</f>
         <v>Mobile app development - CAA1</v>
@@ -2895,7 +2897,7 @@
       </c>
       <c r="H9" s="14">
         <f ca="1">IF(F9&gt;TODAY(), "Not Started", IF(TODAY()&gt;G9, "Finished", IF(G9=TODAY(), "Due Today", G9-TODAY())))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3051,14 +3053,16 @@
       <c r="EB9" s="12"/>
       <c r="EC9" s="2"/>
     </row>
-    <row r="10" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="16" t="str">
         <f t="shared" si="20"/>
         <v>Networks and Internet Applications - PR1</v>
@@ -3071,7 +3075,7 @@
       </c>
       <c r="H10" s="14">
         <f ca="1">IF(F10&gt;TODAY(), "Not Started", IF(TODAY()&gt;G10, "Finished", IF(G10=TODAY(), "Due Today", G10-TODAY())))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3241,7 +3245,7 @@
       <c r="EB10" s="12"/>
       <c r="EC10" s="2"/>
     </row>
-    <row r="11" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -3261,7 +3265,7 @@
       </c>
       <c r="H11" s="14">
         <f ca="1">IF(F11&gt;TODAY(), "Not Started", IF(TODAY()&gt;G11, "Finished", IF(G11=TODAY(), "Due Today", G11-TODAY())))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>13</v>
@@ -3443,7 +3447,7 @@
       <c r="EB11" s="13"/>
       <c r="EC11" s="2"/>
     </row>
-    <row r="12" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
         <v>28</v>
@@ -3620,7 +3624,7 @@
       <c r="EB12" s="13"/>
       <c r="EC12" s="2"/>
     </row>
-    <row r="13" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>14</v>
@@ -3797,7 +3801,7 @@
       <c r="EB13" s="12"/>
       <c r="EC13" s="2"/>
     </row>
-    <row r="14" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
         <v>20</v>
@@ -3816,9 +3820,9 @@
       <c r="G14" s="10">
         <v>45741</v>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>20</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -3988,7 +3992,7 @@
       <c r="EB14" s="13"/>
       <c r="EC14" s="2"/>
     </row>
-    <row r="15" spans="1:133" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:133" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>25</v>
@@ -4157,7 +4161,7 @@
       <c r="EB15" s="12"/>
       <c r="EC15" s="2"/>
     </row>
-    <row r="16" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
         <v>34</v>
@@ -4176,9 +4180,9 @@
       <c r="G16" s="10">
         <v>45748</v>
       </c>
-      <c r="H16" s="14" t="str">
+      <c r="H16" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>27</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -4360,7 +4364,7 @@
       <c r="EB16" s="13"/>
       <c r="EC16" s="2"/>
     </row>
-    <row r="17" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
         <v>25</v>
@@ -4565,7 +4569,7 @@
       <c r="EB17" s="12"/>
       <c r="EC17" s="2"/>
     </row>
-    <row r="18" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
         <v>28</v>
@@ -4756,7 +4760,7 @@
       <c r="EB18" s="12"/>
       <c r="EC18" s="2"/>
     </row>
-    <row r="19" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="18" t="s">
         <v>8</v>
@@ -4959,7 +4963,7 @@
       <c r="EB19" s="13"/>
       <c r="EC19" s="2"/>
     </row>
-    <row r="20" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>20</v>
@@ -5164,7 +5168,7 @@
       <c r="EB20" s="12"/>
       <c r="EC20" s="2"/>
     </row>
-    <row r="21" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>25</v>
@@ -5333,7 +5337,7 @@
       <c r="EB21" s="13"/>
       <c r="EC21" s="2"/>
     </row>
-    <row r="22" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>14</v>
@@ -5510,7 +5514,7 @@
       <c r="EB22" s="12"/>
       <c r="EC22" s="2"/>
     </row>
-    <row r="23" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
         <v>34</v>
@@ -5729,7 +5733,7 @@
       <c r="EB23" s="13"/>
       <c r="EC23" s="2"/>
     </row>
-    <row r="24" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
         <v>28</v>
@@ -5934,7 +5938,7 @@
       <c r="EB24" s="13"/>
       <c r="EC24" s="2"/>
     </row>
-    <row r="25" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="18" t="s">
         <v>25</v>
@@ -6139,7 +6143,7 @@
       <c r="EB25" s="12"/>
       <c r="EC25" s="2"/>
     </row>
-    <row r="26" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -6344,7 +6348,7 @@
       <c r="EB26" s="13"/>
       <c r="EC26" s="2"/>
     </row>
-    <row r="27" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="s">
         <v>20</v>
@@ -6535,7 +6539,7 @@
       <c r="EB27" s="12"/>
       <c r="EC27" s="2"/>
     </row>
-    <row r="28" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
         <v>14</v>
@@ -6712,7 +6716,7 @@
       <c r="EB28" s="13"/>
       <c r="EC28" s="2"/>
     </row>
-    <row r="29" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="17" t="s">
         <v>25</v>
@@ -6881,7 +6885,7 @@
       <c r="EB29" s="12"/>
       <c r="EC29" s="2"/>
     </row>
-    <row r="30" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="17" t="s">
         <v>14</v>
@@ -7170,7 +7174,7 @@
       <c r="EB30" s="13"/>
       <c r="EC30" s="2"/>
     </row>
-    <row r="31" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
@@ -7445,7 +7449,7 @@
       <c r="EB31" s="12"/>
       <c r="EC31" s="2"/>
     </row>
-    <row r="32" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>28</v>
@@ -7636,7 +7640,7 @@
       <c r="EB32" s="12"/>
       <c r="EC32" s="2"/>
     </row>
-    <row r="33" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="17" t="s">
         <v>34</v>
@@ -7841,7 +7845,7 @@
       <c r="EB33" s="13"/>
       <c r="EC33" s="2"/>
     </row>
-    <row r="34" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
         <v>25</v>
@@ -8046,7 +8050,7 @@
       <c r="EB34" s="12"/>
       <c r="EC34" s="2"/>
     </row>
-    <row r="35" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
@@ -8251,7 +8255,7 @@
       <c r="EB35" s="13"/>
       <c r="EC35" s="2"/>
     </row>
-    <row r="36" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>20</v>
@@ -8454,7 +8458,7 @@
       <c r="EB36" s="12"/>
       <c r="EC36" s="2"/>
     </row>
-    <row r="37" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
         <v>34</v>
@@ -8615,7 +8619,7 @@
       <c r="EB37" s="13"/>
       <c r="EC37" s="2"/>
     </row>
-    <row r="38" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
         <v>34</v>
@@ -8766,7 +8770,7 @@
       <c r="EB38" s="13"/>
       <c r="EC38" s="2"/>
     </row>
-    <row r="39" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:133" x14ac:dyDescent="0.2">
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
@@ -8898,6 +8902,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="DV7:EB7"/>
+    <mergeCell ref="AW7:BC7"/>
+    <mergeCell ref="BD7:BJ7"/>
+    <mergeCell ref="BK7:BQ7"/>
+    <mergeCell ref="BR7:BX7"/>
+    <mergeCell ref="BY7:CE7"/>
+    <mergeCell ref="CF7:CL7"/>
+    <mergeCell ref="CM7:CS7"/>
+    <mergeCell ref="CT7:CZ7"/>
+    <mergeCell ref="DA7:DG7"/>
+    <mergeCell ref="DH7:DN7"/>
+    <mergeCell ref="DO7:DU7"/>
+    <mergeCell ref="CM4:CS4"/>
+    <mergeCell ref="CT4:CZ4"/>
+    <mergeCell ref="DA4:DG4"/>
+    <mergeCell ref="AX3:CA3"/>
+    <mergeCell ref="CB3:DE3"/>
+    <mergeCell ref="DF3:EB3"/>
+    <mergeCell ref="DO4:DU4"/>
+    <mergeCell ref="DV4:EB4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="CF4:CL4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="DH4:DN4"/>
+    <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="I3:R3"/>
@@ -8914,39 +8951,6 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="DH4:DN4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AX3:CA3"/>
-    <mergeCell ref="CB3:DE3"/>
-    <mergeCell ref="DF3:EB3"/>
-    <mergeCell ref="DO4:DU4"/>
-    <mergeCell ref="DV4:EB4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="DV7:EB7"/>
-    <mergeCell ref="AW7:BC7"/>
-    <mergeCell ref="BD7:BJ7"/>
-    <mergeCell ref="BK7:BQ7"/>
-    <mergeCell ref="BR7:BX7"/>
-    <mergeCell ref="BY7:CE7"/>
-    <mergeCell ref="CF7:CL7"/>
-    <mergeCell ref="CM7:CS7"/>
-    <mergeCell ref="CT7:CZ7"/>
-    <mergeCell ref="DA7:DG7"/>
-    <mergeCell ref="DH7:DN7"/>
-    <mergeCell ref="DO7:DU7"/>
-    <mergeCell ref="CM4:CS4"/>
-    <mergeCell ref="CT4:CZ4"/>
-    <mergeCell ref="DA4:DG4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:H38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasdalessandro/Desktop/UOC-2025-01/zz_utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760BFAF-C957-B444-B8CC-628AB86A21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D199FB5-8467-47B1-BC43-BF7EB7FDCCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="25440" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="170" yWindow="180" windowWidth="25430" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="65">
   <si>
     <t>Start date</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>CA3</t>
-  </si>
-  <si>
-    <t>PR</t>
   </si>
   <si>
     <t>Software Design Patterns</t>
@@ -226,6 +223,15 @@
   <si>
     <t>CAT5</t>
   </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Workload</t>
+  </si>
+  <si>
+    <t>Final Project</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -713,11 +719,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -813,6 +830,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,38 +1257,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:EC39"/>
+  <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="32.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="3" customWidth="1"/>
-    <col min="9" max="132" width="3.83203125" style="9" customWidth="1"/>
-    <col min="133" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="8.6328125" style="3"/>
+    <col min="2" max="2" width="32.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="134" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:133" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="S2" s="19"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1290,733 +1319,734 @@
       <c r="AU2" s="19"/>
       <c r="AV2" s="19"/>
       <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
     </row>
-    <row r="3" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="34" t="s">
+    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="J3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37" t="s">
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="37" t="s">
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="38"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
-      <c r="BN3" s="38"/>
-      <c r="BO3" s="38"/>
-      <c r="BP3" s="38"/>
-      <c r="BQ3" s="38"/>
-      <c r="BR3" s="38"/>
-      <c r="BS3" s="38"/>
-      <c r="BT3" s="38"/>
-      <c r="BU3" s="38"/>
-      <c r="BV3" s="38"/>
-      <c r="BW3" s="38"/>
-      <c r="BX3" s="38"/>
-      <c r="BY3" s="38"/>
-      <c r="BZ3" s="38"/>
-      <c r="CA3" s="39"/>
-      <c r="CB3" s="37" t="s">
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="42"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="42"/>
+      <c r="CU3" s="42"/>
+      <c r="CV3" s="42"/>
+      <c r="CW3" s="42"/>
+      <c r="CX3" s="42"/>
+      <c r="CY3" s="42"/>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="42"/>
+      <c r="DB3" s="42"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="CC3" s="38"/>
-      <c r="CD3" s="38"/>
-      <c r="CE3" s="38"/>
-      <c r="CF3" s="38"/>
-      <c r="CG3" s="38"/>
-      <c r="CH3" s="38"/>
-      <c r="CI3" s="38"/>
-      <c r="CJ3" s="38"/>
-      <c r="CK3" s="38"/>
-      <c r="CL3" s="38"/>
-      <c r="CM3" s="38"/>
-      <c r="CN3" s="38"/>
-      <c r="CO3" s="38"/>
-      <c r="CP3" s="38"/>
-      <c r="CQ3" s="38"/>
-      <c r="CR3" s="38"/>
-      <c r="CS3" s="38"/>
-      <c r="CT3" s="38"/>
-      <c r="CU3" s="38"/>
-      <c r="CV3" s="38"/>
-      <c r="CW3" s="38"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="38"/>
-      <c r="DB3" s="38"/>
-      <c r="DC3" s="38"/>
-      <c r="DD3" s="38"/>
-      <c r="DE3" s="39"/>
-      <c r="DF3" s="45" t="s">
+      <c r="DH3" s="42"/>
+      <c r="DI3" s="42"/>
+      <c r="DJ3" s="42"/>
+      <c r="DK3" s="42"/>
+      <c r="DL3" s="42"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="42"/>
+      <c r="DS3" s="42"/>
+      <c r="DT3" s="42"/>
+      <c r="DU3" s="42"/>
+      <c r="DV3" s="42"/>
+      <c r="DW3" s="42"/>
+      <c r="DX3" s="42"/>
+      <c r="DY3" s="42"/>
+      <c r="DZ3" s="42"/>
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="42"/>
+      <c r="EC3" s="42"/>
+    </row>
+    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="DG3" s="38"/>
-      <c r="DH3" s="38"/>
-      <c r="DI3" s="38"/>
-      <c r="DJ3" s="38"/>
-      <c r="DK3" s="38"/>
-      <c r="DL3" s="38"/>
-      <c r="DM3" s="38"/>
-      <c r="DN3" s="38"/>
-      <c r="DO3" s="38"/>
-      <c r="DP3" s="38"/>
-      <c r="DQ3" s="38"/>
-      <c r="DR3" s="38"/>
-      <c r="DS3" s="38"/>
-      <c r="DT3" s="38"/>
-      <c r="DU3" s="38"/>
-      <c r="DV3" s="38"/>
-      <c r="DW3" s="38"/>
-      <c r="DX3" s="38"/>
-      <c r="DY3" s="38"/>
-      <c r="DZ3" s="38"/>
-      <c r="EA3" s="38"/>
-      <c r="EB3" s="38"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="48"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="48"/>
+      <c r="BS4" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="48"/>
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="48"/>
+      <c r="CG4" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="CH4" s="48"/>
+      <c r="CI4" s="48"/>
+      <c r="CJ4" s="48"/>
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="48"/>
+      <c r="CM4" s="48"/>
+      <c r="CN4" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="CO4" s="48"/>
+      <c r="CP4" s="48"/>
+      <c r="CQ4" s="48"/>
+      <c r="CR4" s="48"/>
+      <c r="CS4" s="48"/>
+      <c r="CT4" s="48"/>
+      <c r="CU4" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
+      <c r="CX4" s="48"/>
+      <c r="CY4" s="48"/>
+      <c r="CZ4" s="48"/>
+      <c r="DA4" s="48"/>
+      <c r="DB4" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="DC4" s="48"/>
+      <c r="DD4" s="48"/>
+      <c r="DE4" s="48"/>
+      <c r="DF4" s="48"/>
+      <c r="DG4" s="48"/>
+      <c r="DH4" s="48"/>
+      <c r="DI4" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="DJ4" s="48"/>
+      <c r="DK4" s="48"/>
+      <c r="DL4" s="48"/>
+      <c r="DM4" s="48"/>
+      <c r="DN4" s="48"/>
+      <c r="DO4" s="48"/>
+      <c r="DP4" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="DQ4" s="48"/>
+      <c r="DR4" s="48"/>
+      <c r="DS4" s="48"/>
+      <c r="DT4" s="48"/>
+      <c r="DU4" s="48"/>
+      <c r="DV4" s="48"/>
+      <c r="DW4" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="DX4" s="48"/>
+      <c r="DY4" s="48"/>
+      <c r="DZ4" s="48"/>
+      <c r="EA4" s="48"/>
+      <c r="EB4" s="48"/>
+      <c r="EC4" s="48"/>
+      <c r="ED4" s="2"/>
     </row>
-    <row r="4" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE4" s="44"/>
-      <c r="BF4" s="44"/>
-      <c r="BG4" s="44"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="44"/>
-      <c r="BK4" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="BZ4" s="44"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="44"/>
-      <c r="CE4" s="44"/>
-      <c r="CF4" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="CG4" s="44"/>
-      <c r="CH4" s="44"/>
-      <c r="CI4" s="44"/>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="44"/>
-      <c r="CL4" s="44"/>
-      <c r="CM4" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="CN4" s="44"/>
-      <c r="CO4" s="44"/>
-      <c r="CP4" s="44"/>
-      <c r="CQ4" s="44"/>
-      <c r="CR4" s="44"/>
-      <c r="CS4" s="44"/>
-      <c r="CT4" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="CU4" s="44"/>
-      <c r="CV4" s="44"/>
-      <c r="CW4" s="44"/>
-      <c r="CX4" s="44"/>
-      <c r="CY4" s="44"/>
-      <c r="CZ4" s="44"/>
-      <c r="DA4" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="DB4" s="44"/>
-      <c r="DC4" s="44"/>
-      <c r="DD4" s="44"/>
-      <c r="DE4" s="44"/>
-      <c r="DF4" s="44"/>
-      <c r="DG4" s="44"/>
-      <c r="DH4" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="DI4" s="44"/>
-      <c r="DJ4" s="44"/>
-      <c r="DK4" s="44"/>
-      <c r="DL4" s="44"/>
-      <c r="DM4" s="44"/>
-      <c r="DN4" s="44"/>
-      <c r="DO4" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="DP4" s="44"/>
-      <c r="DQ4" s="44"/>
-      <c r="DR4" s="44"/>
-      <c r="DS4" s="44"/>
-      <c r="DT4" s="44"/>
-      <c r="DU4" s="44"/>
-      <c r="DV4" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="DW4" s="44"/>
-      <c r="DX4" s="44"/>
-      <c r="DY4" s="44"/>
-      <c r="DZ4" s="44"/>
-      <c r="EA4" s="44"/>
-      <c r="EB4" s="44"/>
-      <c r="EC4" s="2"/>
-    </row>
-    <row r="5" spans="1:133" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="31">
         <v>45707</v>
       </c>
-      <c r="J5" s="31">
+      <c r="K5" s="31">
         <v>45708</v>
       </c>
-      <c r="K5" s="31">
+      <c r="L5" s="31">
         <v>45709</v>
       </c>
-      <c r="L5" s="31">
+      <c r="M5" s="31">
         <v>45710</v>
       </c>
-      <c r="M5" s="31">
+      <c r="N5" s="31">
         <v>45711</v>
       </c>
-      <c r="N5" s="31">
+      <c r="O5" s="31">
         <v>45712</v>
       </c>
-      <c r="O5" s="31">
+      <c r="P5" s="31">
         <v>45713</v>
       </c>
-      <c r="P5" s="31">
+      <c r="Q5" s="31">
         <v>45714</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="R5" s="31">
         <v>45715</v>
       </c>
-      <c r="R5" s="32">
+      <c r="S5" s="32">
         <v>45716</v>
       </c>
-      <c r="S5" s="31">
+      <c r="T5" s="31">
         <v>45717</v>
       </c>
-      <c r="T5" s="31">
+      <c r="U5" s="31">
         <v>45718</v>
       </c>
-      <c r="U5" s="31">
+      <c r="V5" s="31">
         <v>45719</v>
       </c>
-      <c r="V5" s="31">
+      <c r="W5" s="31">
         <v>45720</v>
       </c>
-      <c r="W5" s="31">
+      <c r="X5" s="31">
         <v>45721</v>
       </c>
-      <c r="X5" s="31">
+      <c r="Y5" s="31">
         <v>45722</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Z5" s="31">
         <v>45723</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="AA5" s="31">
         <v>45724</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AB5" s="31">
         <v>45725</v>
       </c>
-      <c r="AB5" s="31">
+      <c r="AC5" s="31">
         <v>45726</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AD5" s="31">
         <v>45727</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AE5" s="31">
         <v>45728</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AF5" s="31">
         <v>45729</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AG5" s="31">
         <v>45730</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AH5" s="31">
         <v>45731</v>
       </c>
-      <c r="AH5" s="31">
+      <c r="AI5" s="31">
         <v>45732</v>
       </c>
-      <c r="AI5" s="31">
+      <c r="AJ5" s="31">
         <v>45733</v>
       </c>
-      <c r="AJ5" s="31">
+      <c r="AK5" s="31">
         <v>45734</v>
       </c>
-      <c r="AK5" s="31">
+      <c r="AL5" s="31">
         <v>45735</v>
       </c>
-      <c r="AL5" s="31">
+      <c r="AM5" s="31">
         <v>45736</v>
       </c>
-      <c r="AM5" s="31">
+      <c r="AN5" s="31">
         <v>45737</v>
       </c>
-      <c r="AN5" s="31">
+      <c r="AO5" s="31">
         <v>45738</v>
       </c>
-      <c r="AO5" s="31">
+      <c r="AP5" s="31">
         <v>45739</v>
       </c>
-      <c r="AP5" s="31">
+      <c r="AQ5" s="31">
         <v>45740</v>
       </c>
-      <c r="AQ5" s="31">
+      <c r="AR5" s="31">
         <v>45741</v>
       </c>
-      <c r="AR5" s="31">
+      <c r="AS5" s="31">
         <v>45742</v>
       </c>
-      <c r="AS5" s="31">
+      <c r="AT5" s="31">
         <v>45743</v>
       </c>
-      <c r="AT5" s="31">
+      <c r="AU5" s="31">
         <v>45744</v>
       </c>
-      <c r="AU5" s="31">
+      <c r="AV5" s="31">
         <v>45745</v>
       </c>
-      <c r="AV5" s="31">
+      <c r="AW5" s="31">
         <v>45746</v>
       </c>
-      <c r="AW5" s="31">
+      <c r="AX5" s="31">
         <v>45747</v>
       </c>
-      <c r="AX5" s="31">
+      <c r="AY5" s="31">
         <v>45748</v>
       </c>
-      <c r="AY5" s="31">
+      <c r="AZ5" s="31">
         <v>45749</v>
       </c>
-      <c r="AZ5" s="31">
+      <c r="BA5" s="31">
         <v>45750</v>
       </c>
-      <c r="BA5" s="31">
+      <c r="BB5" s="31">
         <v>45751</v>
       </c>
-      <c r="BB5" s="31">
+      <c r="BC5" s="31">
         <v>45752</v>
       </c>
-      <c r="BC5" s="31">
+      <c r="BD5" s="31">
         <v>45753</v>
       </c>
-      <c r="BD5" s="31">
+      <c r="BE5" s="31">
         <v>45754</v>
       </c>
-      <c r="BE5" s="31">
+      <c r="BF5" s="31">
         <v>45755</v>
       </c>
-      <c r="BF5" s="31">
+      <c r="BG5" s="31">
         <v>45756</v>
       </c>
-      <c r="BG5" s="31">
+      <c r="BH5" s="31">
         <v>45757</v>
       </c>
-      <c r="BH5" s="31">
+      <c r="BI5" s="31">
         <v>45758</v>
       </c>
-      <c r="BI5" s="31">
+      <c r="BJ5" s="31">
         <v>45759</v>
       </c>
-      <c r="BJ5" s="31">
+      <c r="BK5" s="31">
         <v>45760</v>
       </c>
-      <c r="BK5" s="31">
+      <c r="BL5" s="31">
         <v>45761</v>
       </c>
-      <c r="BL5" s="31">
+      <c r="BM5" s="31">
         <v>45762</v>
       </c>
-      <c r="BM5" s="31">
+      <c r="BN5" s="31">
         <v>45763</v>
       </c>
-      <c r="BN5" s="31">
+      <c r="BO5" s="31">
         <v>45764</v>
       </c>
-      <c r="BO5" s="31">
+      <c r="BP5" s="31">
         <v>45765</v>
       </c>
-      <c r="BP5" s="31">
+      <c r="BQ5" s="31">
         <v>45766</v>
       </c>
-      <c r="BQ5" s="31">
+      <c r="BR5" s="31">
         <v>45767</v>
       </c>
-      <c r="BR5" s="31">
+      <c r="BS5" s="31">
         <v>45768</v>
       </c>
-      <c r="BS5" s="31">
+      <c r="BT5" s="31">
         <v>45769</v>
       </c>
-      <c r="BT5" s="31">
+      <c r="BU5" s="31">
         <v>45770</v>
       </c>
-      <c r="BU5" s="31">
+      <c r="BV5" s="31">
         <v>45771</v>
       </c>
-      <c r="BV5" s="31">
+      <c r="BW5" s="31">
         <v>45772</v>
       </c>
-      <c r="BW5" s="31">
+      <c r="BX5" s="31">
         <v>45773</v>
       </c>
-      <c r="BX5" s="31">
+      <c r="BY5" s="31">
         <v>45774</v>
       </c>
-      <c r="BY5" s="31">
+      <c r="BZ5" s="31">
         <v>45775</v>
       </c>
-      <c r="BZ5" s="31">
+      <c r="CA5" s="31">
         <v>45776</v>
       </c>
-      <c r="CA5" s="31">
+      <c r="CB5" s="31">
         <v>45777</v>
       </c>
-      <c r="CB5" s="31">
+      <c r="CC5" s="31">
         <v>45778</v>
       </c>
-      <c r="CC5" s="31">
+      <c r="CD5" s="31">
         <v>45779</v>
       </c>
-      <c r="CD5" s="31">
+      <c r="CE5" s="31">
         <v>45780</v>
       </c>
-      <c r="CE5" s="31">
+      <c r="CF5" s="31">
         <v>45781</v>
       </c>
-      <c r="CF5" s="31">
+      <c r="CG5" s="31">
         <v>45782</v>
       </c>
-      <c r="CG5" s="31">
+      <c r="CH5" s="31">
         <v>45783</v>
       </c>
-      <c r="CH5" s="31">
+      <c r="CI5" s="31">
         <v>45784</v>
       </c>
-      <c r="CI5" s="31">
+      <c r="CJ5" s="31">
         <v>45785</v>
       </c>
-      <c r="CJ5" s="31">
+      <c r="CK5" s="31">
         <v>45786</v>
       </c>
-      <c r="CK5" s="31">
+      <c r="CL5" s="31">
         <v>45787</v>
       </c>
-      <c r="CL5" s="31">
+      <c r="CM5" s="31">
         <v>45788</v>
       </c>
-      <c r="CM5" s="31">
+      <c r="CN5" s="31">
         <v>45789</v>
       </c>
-      <c r="CN5" s="31">
+      <c r="CO5" s="31">
         <v>45790</v>
       </c>
-      <c r="CO5" s="31">
+      <c r="CP5" s="31">
         <v>45791</v>
       </c>
-      <c r="CP5" s="31">
+      <c r="CQ5" s="31">
         <v>45792</v>
       </c>
-      <c r="CQ5" s="31">
+      <c r="CR5" s="31">
         <v>45793</v>
       </c>
-      <c r="CR5" s="31">
+      <c r="CS5" s="31">
         <v>45794</v>
       </c>
-      <c r="CS5" s="31">
+      <c r="CT5" s="31">
         <v>45795</v>
       </c>
-      <c r="CT5" s="31">
+      <c r="CU5" s="31">
         <v>45796</v>
       </c>
-      <c r="CU5" s="31">
+      <c r="CV5" s="31">
         <v>45797</v>
       </c>
-      <c r="CV5" s="31">
+      <c r="CW5" s="31">
         <v>45798</v>
       </c>
-      <c r="CW5" s="31">
+      <c r="CX5" s="31">
         <v>45799</v>
       </c>
-      <c r="CX5" s="31">
+      <c r="CY5" s="31">
         <v>45800</v>
       </c>
-      <c r="CY5" s="31">
+      <c r="CZ5" s="31">
         <v>45801</v>
       </c>
-      <c r="CZ5" s="31">
+      <c r="DA5" s="31">
         <v>45802</v>
       </c>
-      <c r="DA5" s="31">
+      <c r="DB5" s="31">
         <v>45803</v>
       </c>
-      <c r="DB5" s="31">
+      <c r="DC5" s="31">
         <v>45804</v>
       </c>
-      <c r="DC5" s="31">
+      <c r="DD5" s="31">
         <v>45805</v>
       </c>
-      <c r="DD5" s="31">
+      <c r="DE5" s="31">
         <v>45806</v>
       </c>
-      <c r="DE5" s="31">
+      <c r="DF5" s="31">
         <v>45807</v>
       </c>
-      <c r="DF5" s="31">
+      <c r="DG5" s="31">
         <v>45808</v>
       </c>
-      <c r="DG5" s="31">
+      <c r="DH5" s="31">
         <v>45809</v>
       </c>
-      <c r="DH5" s="31">
+      <c r="DI5" s="31">
         <v>45810</v>
       </c>
-      <c r="DI5" s="31">
+      <c r="DJ5" s="31">
         <v>45811</v>
       </c>
-      <c r="DJ5" s="31">
+      <c r="DK5" s="31">
         <v>45812</v>
       </c>
-      <c r="DK5" s="31">
+      <c r="DL5" s="31">
         <v>45813</v>
       </c>
-      <c r="DL5" s="31">
+      <c r="DM5" s="31">
         <v>45814</v>
       </c>
-      <c r="DM5" s="31">
+      <c r="DN5" s="31">
         <v>45815</v>
       </c>
-      <c r="DN5" s="31">
+      <c r="DO5" s="31">
         <v>45816</v>
       </c>
-      <c r="DO5" s="31">
+      <c r="DP5" s="31">
         <v>45817</v>
       </c>
-      <c r="DP5" s="31">
+      <c r="DQ5" s="31">
         <v>45818</v>
       </c>
-      <c r="DQ5" s="31">
+      <c r="DR5" s="31">
         <v>45819</v>
       </c>
-      <c r="DR5" s="31">
+      <c r="DS5" s="31">
         <v>45820</v>
       </c>
-      <c r="DS5" s="31">
+      <c r="DT5" s="31">
         <v>45821</v>
       </c>
-      <c r="DT5" s="31">
+      <c r="DU5" s="31">
         <v>45822</v>
       </c>
-      <c r="DU5" s="31">
+      <c r="DV5" s="31">
         <v>45823</v>
       </c>
-      <c r="DV5" s="31">
+      <c r="DW5" s="31">
         <v>45824</v>
       </c>
-      <c r="DW5" s="31">
+      <c r="DX5" s="31">
         <v>45825</v>
       </c>
-      <c r="DX5" s="31">
+      <c r="DY5" s="31">
         <v>45826</v>
       </c>
-      <c r="DY5" s="31">
+      <c r="DZ5" s="31">
         <v>45827</v>
       </c>
-      <c r="DZ5" s="31">
+      <c r="EA5" s="31">
         <v>45828</v>
       </c>
-      <c r="EA5" s="31">
+      <c r="EB5" s="31">
         <v>45829</v>
       </c>
-      <c r="EB5" s="31">
+      <c r="EC5" s="31">
         <v>45830</v>
       </c>
-      <c r="EC5" s="7"/>
+      <c r="ED5" s="7"/>
     </row>
-    <row r="6" spans="1:133" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="21">
-        <f t="shared" ref="I6:AN6" si="0">COUNTIF(I8:I38, ".")</f>
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="33"/>
       <c r="J6" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J6:AO6" si="0">COUNTIF(J8:J38, ".")</f>
         <v>2</v>
       </c>
       <c r="K6" s="21">
@@ -2033,7 +2063,7 @@
       </c>
       <c r="N6" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O6" s="21">
         <f t="shared" si="0"/>
@@ -2069,7 +2099,7 @@
       </c>
       <c r="W6" s="21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X6" s="21">
         <f t="shared" si="0"/>
@@ -2089,7 +2119,7 @@
       </c>
       <c r="AB6" s="21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="21">
         <f t="shared" si="0"/>
@@ -2133,18 +2163,18 @@
       </c>
       <c r="AM6" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN6" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AO6" s="21">
-        <f t="shared" ref="AO6:BT6" si="1">COUNTIF(AO8:AO38, ".")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AP6" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AP6:BU6" si="1">COUNTIF(AP8:AP38, ".")</f>
         <v>7</v>
       </c>
       <c r="AQ6" s="21">
@@ -2177,11 +2207,11 @@
       </c>
       <c r="AX6" s="21">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ6" s="21">
         <f t="shared" si="1"/>
@@ -2229,11 +2259,11 @@
       </c>
       <c r="BK6" s="21">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL6" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM6" s="21">
         <f t="shared" si="1"/>
@@ -2245,7 +2275,7 @@
       </c>
       <c r="BO6" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP6" s="21">
         <f t="shared" si="1"/>
@@ -2257,7 +2287,7 @@
       </c>
       <c r="BR6" s="21">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS6" s="21">
         <f t="shared" si="1"/>
@@ -2268,11 +2298,11 @@
         <v>9</v>
       </c>
       <c r="BU6" s="21">
-        <f t="shared" ref="BU6:CZ6" si="2">COUNTIF(BU8:BU38, ".")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BV6" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="BV6:DA6" si="2">COUNTIF(BV8:BV38, ".")</f>
         <v>9</v>
       </c>
       <c r="BW6" s="21">
@@ -2285,7 +2315,7 @@
       </c>
       <c r="BY6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ6" s="21">
         <f t="shared" si="2"/>
@@ -2313,7 +2343,7 @@
       </c>
       <c r="CF6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CG6" s="21">
         <f t="shared" si="2"/>
@@ -2341,7 +2371,7 @@
       </c>
       <c r="CM6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN6" s="21">
         <f t="shared" si="2"/>
@@ -2357,7 +2387,7 @@
       </c>
       <c r="CQ6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR6" s="21">
         <f t="shared" si="2"/>
@@ -2396,11 +2426,11 @@
         <v>9</v>
       </c>
       <c r="DA6" s="21">
-        <f t="shared" ref="DA6:EB6" si="3">COUNTIF(DA8:DA38, ".")</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="DB6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="DB6:EC6" si="3">COUNTIF(DB8:DB38, ".")</f>
         <v>7</v>
       </c>
       <c r="DC6" s="21">
@@ -2425,7 +2455,7 @@
       </c>
       <c r="DH6" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DI6" s="21">
         <f t="shared" si="3"/>
@@ -2453,11 +2483,11 @@
       </c>
       <c r="DO6" s="21">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DP6" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ6" s="21">
         <f t="shared" si="3"/>
@@ -2485,11 +2515,11 @@
       </c>
       <c r="DW6" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX6" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY6" s="21">
         <f t="shared" si="3"/>
@@ -2507,202 +2537,209 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="EC6" s="2"/>
+      <c r="EC6" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ED6" s="2"/>
     </row>
-    <row r="7" spans="1:133" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="33">
-        <f>SUM(I6:M6)</f>
+    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37">
+        <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="40">
-        <f>+SUM(N6:T6)</f>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="44">
+        <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="40">
-        <f t="shared" ref="U7" si="4">+SUM(U6:AA6)</f>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="44">
+        <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="40">
-        <f t="shared" ref="AB7" si="5">+SUM(AB6:AH6)</f>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="44">
+        <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="40">
-        <f t="shared" ref="AI7" si="6">+SUM(AI6:AO6)</f>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="44">
+        <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="40">
-        <f t="shared" ref="AP7" si="7">+SUM(AP6:AV6)</f>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="44">
+        <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="40">
-        <f t="shared" ref="AW7" si="8">+SUM(AW6:BC6)</f>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="44">
+        <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="40">
-        <f t="shared" ref="BD7" si="9">+SUM(BD6:BJ6)</f>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="44">
+        <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="41"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="40">
-        <f t="shared" ref="BK7" si="10">+SUM(BK6:BQ6)</f>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="44">
+        <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BL7" s="41"/>
-      <c r="BM7" s="41"/>
-      <c r="BN7" s="41"/>
-      <c r="BO7" s="41"/>
-      <c r="BP7" s="41"/>
-      <c r="BQ7" s="42"/>
-      <c r="BR7" s="40">
-        <f t="shared" ref="BR7" si="11">+SUM(BR6:BX6)</f>
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BR7" s="46"/>
+      <c r="BS7" s="44">
+        <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>63</v>
       </c>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="41"/>
-      <c r="BW7" s="41"/>
-      <c r="BX7" s="42"/>
-      <c r="BY7" s="40">
-        <f t="shared" ref="BY7" si="12">+SUM(BY6:CE6)</f>
+      <c r="BT7" s="45"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="45"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="45"/>
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="44">
+        <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>56</v>
       </c>
-      <c r="BZ7" s="41"/>
-      <c r="CA7" s="41"/>
-      <c r="CB7" s="41"/>
-      <c r="CC7" s="41"/>
-      <c r="CD7" s="41"/>
-      <c r="CE7" s="42"/>
-      <c r="CF7" s="40">
-        <f t="shared" ref="CF7" si="13">+SUM(CF6:CL6)</f>
+      <c r="CA7" s="45"/>
+      <c r="CB7" s="45"/>
+      <c r="CC7" s="45"/>
+      <c r="CD7" s="45"/>
+      <c r="CE7" s="45"/>
+      <c r="CF7" s="46"/>
+      <c r="CG7" s="44">
+        <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>49</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="41"/>
-      <c r="CJ7" s="41"/>
-      <c r="CK7" s="41"/>
-      <c r="CL7" s="42"/>
-      <c r="CM7" s="40">
-        <f t="shared" ref="CM7" si="14">+SUM(CM6:CS6)</f>
+      <c r="CH7" s="45"/>
+      <c r="CI7" s="45"/>
+      <c r="CJ7" s="45"/>
+      <c r="CK7" s="45"/>
+      <c r="CL7" s="45"/>
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="44">
+        <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>59</v>
       </c>
-      <c r="CN7" s="41"/>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="41"/>
-      <c r="CR7" s="41"/>
-      <c r="CS7" s="42"/>
-      <c r="CT7" s="40">
-        <f t="shared" ref="CT7" si="15">+SUM(CT6:CZ6)</f>
+      <c r="CO7" s="45"/>
+      <c r="CP7" s="45"/>
+      <c r="CQ7" s="45"/>
+      <c r="CR7" s="45"/>
+      <c r="CS7" s="45"/>
+      <c r="CT7" s="46"/>
+      <c r="CU7" s="44">
+        <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="41"/>
-      <c r="CX7" s="41"/>
-      <c r="CY7" s="41"/>
-      <c r="CZ7" s="42"/>
-      <c r="DA7" s="40">
-        <f t="shared" ref="DA7" si="16">+SUM(DA6:DG6)</f>
+      <c r="CV7" s="45"/>
+      <c r="CW7" s="45"/>
+      <c r="CX7" s="45"/>
+      <c r="CY7" s="45"/>
+      <c r="CZ7" s="45"/>
+      <c r="DA7" s="46"/>
+      <c r="DB7" s="44">
+        <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DB7" s="41"/>
-      <c r="DC7" s="41"/>
-      <c r="DD7" s="41"/>
-      <c r="DE7" s="41"/>
-      <c r="DF7" s="41"/>
-      <c r="DG7" s="42"/>
-      <c r="DH7" s="40">
-        <f t="shared" ref="DH7" si="17">+SUM(DH6:DN6)</f>
+      <c r="DC7" s="45"/>
+      <c r="DD7" s="45"/>
+      <c r="DE7" s="45"/>
+      <c r="DF7" s="45"/>
+      <c r="DG7" s="45"/>
+      <c r="DH7" s="46"/>
+      <c r="DI7" s="44">
+        <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DI7" s="41"/>
-      <c r="DJ7" s="41"/>
-      <c r="DK7" s="41"/>
-      <c r="DL7" s="41"/>
-      <c r="DM7" s="41"/>
-      <c r="DN7" s="42"/>
-      <c r="DO7" s="40">
-        <f t="shared" ref="DO7" si="18">+SUM(DO6:DU6)</f>
+      <c r="DJ7" s="45"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="46"/>
+      <c r="DP7" s="44">
+        <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DP7" s="41"/>
-      <c r="DQ7" s="41"/>
-      <c r="DR7" s="41"/>
-      <c r="DS7" s="41"/>
-      <c r="DT7" s="41"/>
-      <c r="DU7" s="42"/>
-      <c r="DV7" s="40">
-        <f t="shared" ref="DV7" si="19">+SUM(DV6:EB6)</f>
+      <c r="DQ7" s="45"/>
+      <c r="DR7" s="45"/>
+      <c r="DS7" s="45"/>
+      <c r="DT7" s="45"/>
+      <c r="DU7" s="45"/>
+      <c r="DV7" s="46"/>
+      <c r="DW7" s="44">
+        <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DW7" s="41"/>
-      <c r="DX7" s="41"/>
-      <c r="DY7" s="41"/>
-      <c r="DZ7" s="41"/>
-      <c r="EA7" s="41"/>
-      <c r="EB7" s="42"/>
-      <c r="EC7" s="2"/>
+      <c r="DX7" s="45"/>
+      <c r="DY7" s="45"/>
+      <c r="DZ7" s="45"/>
+      <c r="EA7" s="45"/>
+      <c r="EB7" s="45"/>
+      <c r="EC7" s="46"/>
+      <c r="ED7" s="2"/>
     </row>
-    <row r="8" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -2721,9 +2758,7 @@
         <f ca="1">IF(F8&gt;TODAY(), "Not Started", IF(TODAY()&gt;G8, "Finished", IF(G8=TODAY(), "Due Today", G8-TODAY())))</f>
         <v>Finished</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="I8" s="14"/>
       <c r="J8" s="11" t="s">
         <v>13</v>
       </c>
@@ -2748,13 +2783,13 @@
       <c r="Q8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" s="11" t="s">
+      <c r="R8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="U8" s="11" t="s">
@@ -2763,7 +2798,9 @@
       <c r="V8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W8" s="11"/>
+      <c r="W8" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
@@ -2789,9 +2826,9 @@
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
       <c r="AV8" s="11"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="25"/>
       <c r="AZ8" s="11"/>
       <c r="BA8" s="11"/>
       <c r="BB8" s="11"/>
@@ -2819,9 +2856,9 @@
       <c r="BX8" s="11"/>
       <c r="BY8" s="11"/>
       <c r="BZ8" s="11"/>
-      <c r="CA8" s="28"/>
-      <c r="CB8" s="25"/>
-      <c r="CC8" s="11"/>
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="28"/>
+      <c r="CC8" s="25"/>
       <c r="CD8" s="11"/>
       <c r="CE8" s="11"/>
       <c r="CF8" s="11"/>
@@ -2849,9 +2886,9 @@
       <c r="DB8" s="11"/>
       <c r="DC8" s="11"/>
       <c r="DD8" s="11"/>
-      <c r="DE8" s="28"/>
-      <c r="DF8" s="25"/>
-      <c r="DG8" s="11"/>
+      <c r="DE8" s="11"/>
+      <c r="DF8" s="28"/>
+      <c r="DG8" s="25"/>
       <c r="DH8" s="11"/>
       <c r="DI8" s="11"/>
       <c r="DJ8" s="11"/>
@@ -2873,14 +2910,15 @@
       <c r="DZ8" s="11"/>
       <c r="EA8" s="11"/>
       <c r="EB8" s="11"/>
-      <c r="EC8" s="2"/>
+      <c r="EC8" s="11"/>
+      <c r="ED8" s="2"/>
     </row>
-    <row r="9" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
@@ -2895,18 +2933,18 @@
       <c r="G9" s="6">
         <v>45725</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="14" t="str">
         <f ca="1">IF(F9&gt;TODAY(), "Not Started", IF(TODAY()&gt;G9, "Finished", IF(G9=TODAY(), "Due Today", G9-TODAY())))</f>
-        <v>4</v>
-      </c>
-      <c r="I9" s="12"/>
+        <v>Finished</v>
+      </c>
+      <c r="I9" s="34">
+        <v>45744</v>
+      </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="N9" s="12"/>
       <c r="O9" s="12" t="s">
         <v>13</v>
       </c>
@@ -2916,13 +2954,13 @@
       <c r="Q9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="T9" s="12" t="s">
+      <c r="R9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="U9" s="12" t="s">
@@ -2946,7 +2984,9 @@
       <c r="AA9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AB9" s="12"/>
+      <c r="AB9" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
@@ -2967,9 +3007,9 @@
       <c r="AT9" s="12"/>
       <c r="AU9" s="12"/>
       <c r="AV9" s="12"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="26"/>
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
       <c r="BB9" s="12"/>
@@ -2997,9 +3037,9 @@
       <c r="BX9" s="12"/>
       <c r="BY9" s="12"/>
       <c r="BZ9" s="12"/>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="12"/>
+      <c r="CA9" s="12"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="26"/>
       <c r="CD9" s="12"/>
       <c r="CE9" s="12"/>
       <c r="CF9" s="12"/>
@@ -3027,9 +3067,9 @@
       <c r="DB9" s="12"/>
       <c r="DC9" s="12"/>
       <c r="DD9" s="12"/>
-      <c r="DE9" s="29"/>
-      <c r="DF9" s="26"/>
-      <c r="DG9" s="12"/>
+      <c r="DE9" s="12"/>
+      <c r="DF9" s="29"/>
+      <c r="DG9" s="26"/>
       <c r="DH9" s="12"/>
       <c r="DI9" s="12"/>
       <c r="DJ9" s="12"/>
@@ -3051,14 +3091,15 @@
       <c r="DZ9" s="12"/>
       <c r="EA9" s="12"/>
       <c r="EB9" s="12"/>
-      <c r="EC9" s="2"/>
+      <c r="EC9" s="12"/>
+      <c r="ED9" s="2"/>
     </row>
-    <row r="10" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
@@ -3075,16 +3116,16 @@
       </c>
       <c r="H10" s="14">
         <f ca="1">IF(F10&gt;TODAY(), "Not Started", IF(TODAY()&gt;G10, "Finished", IF(G10=TODAY(), "Due Today", G10-TODAY())))</f>
-        <v>11</v>
-      </c>
-      <c r="I10" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="34">
+        <v>45746</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="N10" s="12"/>
       <c r="O10" s="12" t="s">
         <v>13</v>
       </c>
@@ -3094,13 +3135,13 @@
       <c r="Q10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="T10" s="12" t="s">
+      <c r="R10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="26" t="s">
         <v>13</v>
       </c>
       <c r="U10" s="12" t="s">
@@ -3145,7 +3186,9 @@
       <c r="AH10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AI10" s="12"/>
+      <c r="AI10" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="AJ10" s="12"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="12"/>
@@ -3159,9 +3202,9 @@
       <c r="AT10" s="12"/>
       <c r="AU10" s="12"/>
       <c r="AV10" s="12"/>
-      <c r="AW10" s="29"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="26"/>
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="12"/>
@@ -3189,9 +3232,9 @@
       <c r="BX10" s="12"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
-      <c r="CA10" s="29"/>
-      <c r="CB10" s="26"/>
-      <c r="CC10" s="12"/>
+      <c r="CA10" s="12"/>
+      <c r="CB10" s="29"/>
+      <c r="CC10" s="26"/>
       <c r="CD10" s="12"/>
       <c r="CE10" s="12"/>
       <c r="CF10" s="12"/>
@@ -3219,9 +3262,9 @@
       <c r="DB10" s="12"/>
       <c r="DC10" s="12"/>
       <c r="DD10" s="12"/>
-      <c r="DE10" s="29"/>
-      <c r="DF10" s="26"/>
-      <c r="DG10" s="12"/>
+      <c r="DE10" s="12"/>
+      <c r="DF10" s="29"/>
+      <c r="DG10" s="26"/>
       <c r="DH10" s="12"/>
       <c r="DI10" s="12"/>
       <c r="DJ10" s="12"/>
@@ -3243,9 +3286,10 @@
       <c r="DZ10" s="12"/>
       <c r="EA10" s="12"/>
       <c r="EB10" s="12"/>
-      <c r="EC10" s="2"/>
+      <c r="EC10" s="12"/>
+      <c r="ED10" s="2"/>
     </row>
-    <row r="11" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -3265,11 +3309,9 @@
       </c>
       <c r="H11" s="14">
         <f ca="1">IF(F11&gt;TODAY(), "Not Started", IF(TODAY()&gt;G11, "Finished", IF(G11=TODAY(), "Due Today", G11-TODAY())))</f>
-        <v>12</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>13</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I11" s="14"/>
       <c r="J11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3294,13 +3336,13 @@
       <c r="Q11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T11" s="13" t="s">
+      <c r="R11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="U11" s="13" t="s">
@@ -3348,7 +3390,9 @@
       <c r="AI11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AJ11" s="13"/>
+      <c r="AJ11" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="AK11" s="13"/>
       <c r="AL11" s="13"/>
       <c r="AM11" s="13"/>
@@ -3361,9 +3405,9 @@
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
       <c r="AV11" s="13"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="27"/>
-      <c r="AY11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="27"/>
       <c r="AZ11" s="13"/>
       <c r="BA11" s="13"/>
       <c r="BB11" s="13"/>
@@ -3391,9 +3435,9 @@
       <c r="BX11" s="13"/>
       <c r="BY11" s="13"/>
       <c r="BZ11" s="13"/>
-      <c r="CA11" s="30"/>
-      <c r="CB11" s="27"/>
-      <c r="CC11" s="13"/>
+      <c r="CA11" s="13"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="27"/>
       <c r="CD11" s="13"/>
       <c r="CE11" s="13"/>
       <c r="CF11" s="13"/>
@@ -3421,9 +3465,9 @@
       <c r="DB11" s="13"/>
       <c r="DC11" s="13"/>
       <c r="DD11" s="13"/>
-      <c r="DE11" s="30"/>
-      <c r="DF11" s="27"/>
-      <c r="DG11" s="13"/>
+      <c r="DE11" s="13"/>
+      <c r="DF11" s="30"/>
+      <c r="DG11" s="27"/>
       <c r="DH11" s="13"/>
       <c r="DI11" s="13"/>
       <c r="DJ11" s="13"/>
@@ -3445,15 +3489,16 @@
       <c r="DZ11" s="13"/>
       <c r="EA11" s="13"/>
       <c r="EB11" s="13"/>
-      <c r="EC11" s="2"/>
+      <c r="EC11" s="13"/>
+      <c r="ED11" s="2"/>
     </row>
-    <row r="12" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="16" t="str">
@@ -3466,11 +3511,13 @@
       <c r="G12" s="10">
         <v>45739</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="14">
         <f ca="1">IF(F12&gt;TODAY(), "Not Started", IF(TODAY()&gt;G12, "Finished", IF(G12=TODAY(), "Due Today", G12-TODAY())))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="I12" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="I12" s="34">
+        <v>45765</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -3479,9 +3526,9 @@
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
@@ -3489,9 +3536,7 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
-      <c r="AB12" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="AB12" s="13"/>
       <c r="AC12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3531,16 +3576,18 @@
       <c r="AO12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AP12" s="13"/>
+      <c r="AP12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="AQ12" s="13"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
       <c r="AV12" s="13"/>
-      <c r="AW12" s="30"/>
-      <c r="AX12" s="27"/>
-      <c r="AY12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="30"/>
+      <c r="AY12" s="27"/>
       <c r="AZ12" s="13"/>
       <c r="BA12" s="13"/>
       <c r="BB12" s="13"/>
@@ -3568,9 +3615,9 @@
       <c r="BX12" s="13"/>
       <c r="BY12" s="13"/>
       <c r="BZ12" s="13"/>
-      <c r="CA12" s="30"/>
-      <c r="CB12" s="27"/>
-      <c r="CC12" s="13"/>
+      <c r="CA12" s="13"/>
+      <c r="CB12" s="30"/>
+      <c r="CC12" s="27"/>
       <c r="CD12" s="13"/>
       <c r="CE12" s="13"/>
       <c r="CF12" s="13"/>
@@ -3598,9 +3645,9 @@
       <c r="DB12" s="13"/>
       <c r="DC12" s="13"/>
       <c r="DD12" s="13"/>
-      <c r="DE12" s="30"/>
-      <c r="DF12" s="27"/>
-      <c r="DG12" s="13"/>
+      <c r="DE12" s="13"/>
+      <c r="DF12" s="30"/>
+      <c r="DG12" s="27"/>
       <c r="DH12" s="13"/>
       <c r="DI12" s="13"/>
       <c r="DJ12" s="13"/>
@@ -3622,9 +3669,10 @@
       <c r="DZ12" s="13"/>
       <c r="EA12" s="13"/>
       <c r="EB12" s="13"/>
-      <c r="EC12" s="2"/>
+      <c r="EC12" s="13"/>
+      <c r="ED12" s="2"/>
     </row>
-    <row r="13" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>14</v>
@@ -3643,11 +3691,13 @@
       <c r="G13" s="6">
         <v>45739</v>
       </c>
-      <c r="H13" s="14" t="str">
+      <c r="H13" s="14">
         <f t="shared" ref="H13:H35" ca="1" si="21">IF(F13&gt;TODAY(), "Not Started", IF(TODAY()&gt;G13, "Finished", IF(G13=TODAY(), "Due Today", G13-TODAY())))</f>
-        <v>Not Started</v>
-      </c>
-      <c r="I13" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="I13" s="34">
+        <v>45747</v>
+      </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -3656,9 +3706,9 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="26"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -3666,9 +3716,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="AB13" s="12"/>
       <c r="AC13" s="12" t="s">
         <v>13</v>
       </c>
@@ -3708,16 +3756,18 @@
       <c r="AO13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AP13" s="12"/>
+      <c r="AP13" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12"/>
       <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
       <c r="AV13" s="12"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="26"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -3745,9 +3795,9 @@
       <c r="BX13" s="12"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
-      <c r="CA13" s="29"/>
-      <c r="CB13" s="26"/>
-      <c r="CC13" s="12"/>
+      <c r="CA13" s="12"/>
+      <c r="CB13" s="29"/>
+      <c r="CC13" s="26"/>
       <c r="CD13" s="12"/>
       <c r="CE13" s="12"/>
       <c r="CF13" s="12"/>
@@ -3775,9 +3825,9 @@
       <c r="DB13" s="12"/>
       <c r="DC13" s="12"/>
       <c r="DD13" s="12"/>
-      <c r="DE13" s="29"/>
-      <c r="DF13" s="26"/>
-      <c r="DG13" s="12"/>
+      <c r="DE13" s="12"/>
+      <c r="DF13" s="29"/>
+      <c r="DG13" s="26"/>
       <c r="DH13" s="12"/>
       <c r="DI13" s="12"/>
       <c r="DJ13" s="12"/>
@@ -3799,15 +3849,16 @@
       <c r="DZ13" s="12"/>
       <c r="EA13" s="12"/>
       <c r="EB13" s="12"/>
-      <c r="EC13" s="2"/>
+      <c r="EC13" s="12"/>
+      <c r="ED13" s="2"/>
     </row>
-    <row r="14" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="16" t="str">
@@ -3822,9 +3873,9 @@
       </c>
       <c r="H14" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>20</v>
-      </c>
-      <c r="I14" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="I14" s="14"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -3833,14 +3884,12 @@
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="27"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
-      <c r="W14" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="W14" s="13"/>
       <c r="X14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3901,14 +3950,16 @@
       <c r="AQ14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AR14" s="13"/>
+      <c r="AR14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
       <c r="AV14" s="13"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="27"/>
-      <c r="AY14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="27"/>
       <c r="AZ14" s="13"/>
       <c r="BA14" s="13"/>
       <c r="BB14" s="13"/>
@@ -3936,9 +3987,9 @@
       <c r="BX14" s="13"/>
       <c r="BY14" s="13"/>
       <c r="BZ14" s="13"/>
-      <c r="CA14" s="30"/>
-      <c r="CB14" s="27"/>
-      <c r="CC14" s="13"/>
+      <c r="CA14" s="13"/>
+      <c r="CB14" s="30"/>
+      <c r="CC14" s="27"/>
       <c r="CD14" s="13"/>
       <c r="CE14" s="13"/>
       <c r="CF14" s="13"/>
@@ -3966,9 +4017,9 @@
       <c r="DB14" s="13"/>
       <c r="DC14" s="13"/>
       <c r="DD14" s="13"/>
-      <c r="DE14" s="30"/>
-      <c r="DF14" s="27"/>
-      <c r="DG14" s="13"/>
+      <c r="DE14" s="13"/>
+      <c r="DF14" s="30"/>
+      <c r="DG14" s="27"/>
       <c r="DH14" s="13"/>
       <c r="DI14" s="13"/>
       <c r="DJ14" s="13"/>
@@ -3990,12 +4041,13 @@
       <c r="DZ14" s="13"/>
       <c r="EA14" s="13"/>
       <c r="EB14" s="13"/>
-      <c r="EC14" s="2"/>
+      <c r="EC14" s="13"/>
+      <c r="ED14" s="2"/>
     </row>
-    <row r="15" spans="1:133" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>15</v>
@@ -4015,7 +4067,9 @@
         <f t="shared" ca="1" si="21"/>
         <v>Not Started</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="34">
+        <v>45760</v>
+      </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -4024,9 +4078,9 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="26"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -4045,9 +4099,7 @@
       <c r="AJ15" s="12"/>
       <c r="AK15" s="12"/>
       <c r="AL15" s="12"/>
-      <c r="AM15" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="AM15" s="12"/>
       <c r="AN15" s="12" t="s">
         <v>13</v>
       </c>
@@ -4075,9 +4127,11 @@
       <c r="AV15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AW15" s="29"/>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="12"/>
+      <c r="AW15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="26"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
       <c r="BB15" s="12"/>
@@ -4105,9 +4159,9 @@
       <c r="BX15" s="12"/>
       <c r="BY15" s="12"/>
       <c r="BZ15" s="12"/>
-      <c r="CA15" s="29"/>
-      <c r="CB15" s="26"/>
-      <c r="CC15" s="12"/>
+      <c r="CA15" s="12"/>
+      <c r="CB15" s="29"/>
+      <c r="CC15" s="26"/>
       <c r="CD15" s="12"/>
       <c r="CE15" s="12"/>
       <c r="CF15" s="12"/>
@@ -4135,9 +4189,9 @@
       <c r="DB15" s="12"/>
       <c r="DC15" s="12"/>
       <c r="DD15" s="12"/>
-      <c r="DE15" s="29"/>
-      <c r="DF15" s="26"/>
-      <c r="DG15" s="12"/>
+      <c r="DE15" s="12"/>
+      <c r="DF15" s="29"/>
+      <c r="DG15" s="26"/>
       <c r="DH15" s="12"/>
       <c r="DI15" s="12"/>
       <c r="DJ15" s="12"/>
@@ -4159,15 +4213,16 @@
       <c r="DZ15" s="12"/>
       <c r="EA15" s="12"/>
       <c r="EB15" s="12"/>
-      <c r="EC15" s="2"/>
+      <c r="EC15" s="12"/>
+      <c r="ED15" s="2"/>
     </row>
-    <row r="16" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="16" t="str">
@@ -4182,9 +4237,9 @@
       </c>
       <c r="H16" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="I16" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="I16" s="14"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -4193,14 +4248,12 @@
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="W16" s="13"/>
       <c r="X16" s="13" t="s">
         <v>13</v>
       </c>
@@ -4276,11 +4329,13 @@
       <c r="AV16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AW16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="13"/>
+      <c r="AW16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY16" s="27"/>
       <c r="AZ16" s="13"/>
       <c r="BA16" s="13"/>
       <c r="BB16" s="13"/>
@@ -4308,9 +4363,9 @@
       <c r="BX16" s="13"/>
       <c r="BY16" s="13"/>
       <c r="BZ16" s="13"/>
-      <c r="CA16" s="30"/>
-      <c r="CB16" s="27"/>
-      <c r="CC16" s="13"/>
+      <c r="CA16" s="13"/>
+      <c r="CB16" s="30"/>
+      <c r="CC16" s="27"/>
       <c r="CD16" s="13"/>
       <c r="CE16" s="13"/>
       <c r="CF16" s="13"/>
@@ -4338,9 +4393,9 @@
       <c r="DB16" s="13"/>
       <c r="DC16" s="13"/>
       <c r="DD16" s="13"/>
-      <c r="DE16" s="30"/>
-      <c r="DF16" s="27"/>
-      <c r="DG16" s="13"/>
+      <c r="DE16" s="13"/>
+      <c r="DF16" s="30"/>
+      <c r="DG16" s="27"/>
       <c r="DH16" s="13"/>
       <c r="DI16" s="13"/>
       <c r="DJ16" s="13"/>
@@ -4362,15 +4417,16 @@
       <c r="DZ16" s="13"/>
       <c r="EA16" s="13"/>
       <c r="EB16" s="13"/>
-      <c r="EC16" s="2"/>
+      <c r="EC16" s="13"/>
+      <c r="ED16" s="2"/>
     </row>
-    <row r="17" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15" t="str">
@@ -4387,7 +4443,9 @@
         <f t="shared" ca="1" si="21"/>
         <v>Not Started</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="34">
+        <v>45774</v>
+      </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -4396,9 +4454,9 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="26"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
@@ -4413,9 +4471,7 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
-      <c r="AI17" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI17" s="12"/>
       <c r="AJ17" s="12" t="s">
         <v>13</v>
       </c>
@@ -4455,13 +4511,13 @@
       <c r="AV17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AW17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY17" s="12" t="s">
+      <c r="AW17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY17" s="26" t="s">
         <v>13</v>
       </c>
       <c r="AZ17" s="12" t="s">
@@ -4497,7 +4553,9 @@
       <c r="BJ17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BK17" s="12"/>
+      <c r="BK17" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="BL17" s="12"/>
       <c r="BM17" s="12"/>
       <c r="BN17" s="12"/>
@@ -4513,9 +4571,9 @@
       <c r="BX17" s="12"/>
       <c r="BY17" s="12"/>
       <c r="BZ17" s="12"/>
-      <c r="CA17" s="29"/>
-      <c r="CB17" s="26"/>
-      <c r="CC17" s="12"/>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="29"/>
+      <c r="CC17" s="26"/>
       <c r="CD17" s="12"/>
       <c r="CE17" s="12"/>
       <c r="CF17" s="12"/>
@@ -4543,9 +4601,9 @@
       <c r="DB17" s="12"/>
       <c r="DC17" s="12"/>
       <c r="DD17" s="12"/>
-      <c r="DE17" s="29"/>
-      <c r="DF17" s="26"/>
-      <c r="DG17" s="12"/>
+      <c r="DE17" s="12"/>
+      <c r="DF17" s="29"/>
+      <c r="DG17" s="26"/>
       <c r="DH17" s="12"/>
       <c r="DI17" s="12"/>
       <c r="DJ17" s="12"/>
@@ -4567,15 +4625,16 @@
       <c r="DZ17" s="12"/>
       <c r="EA17" s="12"/>
       <c r="EB17" s="12"/>
-      <c r="EC17" s="2"/>
+      <c r="EC17" s="12"/>
+      <c r="ED17" s="2"/>
     </row>
-    <row r="18" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="16" t="str">
@@ -4592,7 +4651,9 @@
         <f ca="1">IF(F18&gt;TODAY(), "Not Started", IF(TODAY()&gt;G18, "Finished", IF(G18=TODAY(), "Due Today", G18-TODAY())))</f>
         <v>Not Started</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="34">
+        <v>45786</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -4601,9 +4662,9 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="26"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -4625,9 +4686,7 @@
       <c r="AM18" s="12"/>
       <c r="AN18" s="12"/>
       <c r="AO18" s="12"/>
-      <c r="AP18" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="AP18" s="12"/>
       <c r="AQ18" s="12" t="s">
         <v>13</v>
       </c>
@@ -4646,13 +4705,13 @@
       <c r="AV18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AW18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY18" s="12" t="s">
+      <c r="AW18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY18" s="26" t="s">
         <v>13</v>
       </c>
       <c r="AZ18" s="12" t="s">
@@ -4688,7 +4747,9 @@
       <c r="BJ18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BK18" s="12"/>
+      <c r="BK18" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="BL18" s="12"/>
       <c r="BM18" s="12"/>
       <c r="BN18" s="12"/>
@@ -4704,9 +4765,9 @@
       <c r="BX18" s="12"/>
       <c r="BY18" s="12"/>
       <c r="BZ18" s="12"/>
-      <c r="CA18" s="29"/>
-      <c r="CB18" s="26"/>
-      <c r="CC18" s="12"/>
+      <c r="CA18" s="12"/>
+      <c r="CB18" s="29"/>
+      <c r="CC18" s="26"/>
       <c r="CD18" s="12"/>
       <c r="CE18" s="12"/>
       <c r="CF18" s="12"/>
@@ -4734,9 +4795,9 @@
       <c r="DB18" s="12"/>
       <c r="DC18" s="12"/>
       <c r="DD18" s="12"/>
-      <c r="DE18" s="29"/>
-      <c r="DF18" s="26"/>
-      <c r="DG18" s="12"/>
+      <c r="DE18" s="12"/>
+      <c r="DF18" s="29"/>
+      <c r="DG18" s="26"/>
       <c r="DH18" s="12"/>
       <c r="DI18" s="12"/>
       <c r="DJ18" s="12"/>
@@ -4758,9 +4819,10 @@
       <c r="DZ18" s="12"/>
       <c r="EA18" s="12"/>
       <c r="EB18" s="12"/>
-      <c r="EC18" s="2"/>
+      <c r="EC18" s="12"/>
+      <c r="ED18" s="2"/>
     </row>
-    <row r="19" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="18" t="s">
         <v>8</v>
@@ -4783,7 +4845,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>Not Started</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -4792,9 +4854,9 @@
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="27"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
@@ -4810,9 +4872,7 @@
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
-      <c r="AJ19" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="AJ19" s="13"/>
       <c r="AK19" s="13" t="s">
         <v>13</v>
       </c>
@@ -4849,13 +4909,13 @@
       <c r="AV19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AW19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY19" s="13" t="s">
+      <c r="AW19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY19" s="27" t="s">
         <v>13</v>
       </c>
       <c r="AZ19" s="13" t="s">
@@ -4891,7 +4951,9 @@
       <c r="BJ19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="BK19" s="13"/>
+      <c r="BK19" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="BL19" s="13"/>
       <c r="BM19" s="13"/>
       <c r="BN19" s="13"/>
@@ -4907,9 +4969,9 @@
       <c r="BX19" s="13"/>
       <c r="BY19" s="13"/>
       <c r="BZ19" s="13"/>
-      <c r="CA19" s="30"/>
-      <c r="CB19" s="27"/>
-      <c r="CC19" s="13"/>
+      <c r="CA19" s="13"/>
+      <c r="CB19" s="30"/>
+      <c r="CC19" s="27"/>
       <c r="CD19" s="13"/>
       <c r="CE19" s="13"/>
       <c r="CF19" s="13"/>
@@ -4937,9 +4999,9 @@
       <c r="DB19" s="13"/>
       <c r="DC19" s="13"/>
       <c r="DD19" s="13"/>
-      <c r="DE19" s="30"/>
-      <c r="DF19" s="27"/>
-      <c r="DG19" s="13"/>
+      <c r="DE19" s="13"/>
+      <c r="DF19" s="30"/>
+      <c r="DG19" s="27"/>
       <c r="DH19" s="13"/>
       <c r="DI19" s="13"/>
       <c r="DJ19" s="13"/>
@@ -4961,15 +5023,16 @@
       <c r="DZ19" s="13"/>
       <c r="EA19" s="13"/>
       <c r="EB19" s="13"/>
-      <c r="EC19" s="2"/>
+      <c r="EC19" s="13"/>
+      <c r="ED19" s="2"/>
     </row>
-    <row r="20" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="16" t="str">
@@ -4986,7 +5049,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>Not Started</v>
       </c>
-      <c r="I20" s="12"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -4995,9 +5058,9 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="26"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5021,9 +5084,7 @@
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
-      <c r="AR20" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="AR20" s="12"/>
       <c r="AS20" s="12" t="s">
         <v>13</v>
       </c>
@@ -5036,13 +5097,13 @@
       <c r="AV20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AW20" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY20" s="12" t="s">
+      <c r="AW20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY20" s="26" t="s">
         <v>13</v>
       </c>
       <c r="AZ20" s="12" t="s">
@@ -5105,16 +5166,18 @@
       <c r="BS20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BT20" s="12"/>
+      <c r="BT20" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="BU20" s="12"/>
       <c r="BV20" s="12"/>
       <c r="BW20" s="12"/>
       <c r="BX20" s="12"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
-      <c r="CA20" s="29"/>
-      <c r="CB20" s="26"/>
-      <c r="CC20" s="12"/>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="29"/>
+      <c r="CC20" s="26"/>
       <c r="CD20" s="12"/>
       <c r="CE20" s="12"/>
       <c r="CF20" s="12"/>
@@ -5142,9 +5205,9 @@
       <c r="DB20" s="12"/>
       <c r="DC20" s="12"/>
       <c r="DD20" s="12"/>
-      <c r="DE20" s="29"/>
-      <c r="DF20" s="26"/>
-      <c r="DG20" s="12"/>
+      <c r="DE20" s="12"/>
+      <c r="DF20" s="29"/>
+      <c r="DG20" s="26"/>
       <c r="DH20" s="12"/>
       <c r="DI20" s="12"/>
       <c r="DJ20" s="12"/>
@@ -5166,12 +5229,13 @@
       <c r="DZ20" s="12"/>
       <c r="EA20" s="12"/>
       <c r="EB20" s="12"/>
-      <c r="EC20" s="2"/>
+      <c r="EC20" s="12"/>
+      <c r="ED20" s="2"/>
     </row>
-    <row r="21" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>16</v>
@@ -5191,7 +5255,9 @@
         <f t="shared" ca="1" si="21"/>
         <v>Not Started</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="34">
+        <v>45788</v>
+      </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -5200,9 +5266,9 @@
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="27"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
@@ -5231,9 +5297,9 @@
       <c r="AT21" s="13"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="13"/>
-      <c r="AW21" s="30"/>
-      <c r="AX21" s="27"/>
-      <c r="AY21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="30"/>
+      <c r="AY21" s="27"/>
       <c r="AZ21" s="13"/>
       <c r="BA21" s="13"/>
       <c r="BB21" s="13"/>
@@ -5249,9 +5315,7 @@
       <c r="BL21" s="13"/>
       <c r="BM21" s="13"/>
       <c r="BN21" s="13"/>
-      <c r="BO21" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="BO21" s="13"/>
       <c r="BP21" s="13" t="s">
         <v>13</v>
       </c>
@@ -5279,11 +5343,13 @@
       <c r="BX21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="BY21" s="13"/>
+      <c r="BY21" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="BZ21" s="13"/>
-      <c r="CA21" s="30"/>
-      <c r="CB21" s="27"/>
-      <c r="CC21" s="13"/>
+      <c r="CA21" s="13"/>
+      <c r="CB21" s="30"/>
+      <c r="CC21" s="27"/>
       <c r="CD21" s="13"/>
       <c r="CE21" s="13"/>
       <c r="CF21" s="13"/>
@@ -5311,9 +5377,9 @@
       <c r="DB21" s="13"/>
       <c r="DC21" s="13"/>
       <c r="DD21" s="13"/>
-      <c r="DE21" s="30"/>
-      <c r="DF21" s="27"/>
-      <c r="DG21" s="13"/>
+      <c r="DE21" s="13"/>
+      <c r="DF21" s="30"/>
+      <c r="DG21" s="27"/>
       <c r="DH21" s="13"/>
       <c r="DI21" s="13"/>
       <c r="DJ21" s="13"/>
@@ -5335,9 +5401,10 @@
       <c r="DZ21" s="13"/>
       <c r="EA21" s="13"/>
       <c r="EB21" s="13"/>
-      <c r="EC21" s="2"/>
+      <c r="EC21" s="13"/>
+      <c r="ED21" s="2"/>
     </row>
-    <row r="22" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>14</v>
@@ -5360,7 +5427,9 @@
         <f t="shared" ca="1" si="21"/>
         <v>Not Started</v>
       </c>
-      <c r="I22" s="12"/>
+      <c r="I22" s="34">
+        <v>45789</v>
+      </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -5369,9 +5438,9 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="26"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
@@ -5400,9 +5469,9 @@
       <c r="AT22" s="12"/>
       <c r="AU22" s="12"/>
       <c r="AV22" s="12"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="26"/>
       <c r="AZ22" s="12"/>
       <c r="BA22" s="12"/>
       <c r="BB22" s="12"/>
@@ -5421,9 +5490,7 @@
       <c r="BO22" s="12"/>
       <c r="BP22" s="12"/>
       <c r="BQ22" s="12"/>
-      <c r="BR22" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="BR22" s="12"/>
       <c r="BS22" s="12" t="s">
         <v>13</v>
       </c>
@@ -5448,13 +5515,13 @@
       <c r="BZ22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CA22" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC22" s="12" t="s">
+      <c r="CA22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC22" s="26" t="s">
         <v>13</v>
       </c>
       <c r="CD22" s="12" t="s">
@@ -5463,7 +5530,9 @@
       <c r="CE22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CF22" s="12"/>
+      <c r="CF22" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="CG22" s="12"/>
       <c r="CH22" s="12"/>
       <c r="CI22" s="12"/>
@@ -5488,9 +5557,9 @@
       <c r="DB22" s="12"/>
       <c r="DC22" s="12"/>
       <c r="DD22" s="12"/>
-      <c r="DE22" s="29"/>
-      <c r="DF22" s="26"/>
-      <c r="DG22" s="12"/>
+      <c r="DE22" s="12"/>
+      <c r="DF22" s="29"/>
+      <c r="DG22" s="26"/>
       <c r="DH22" s="12"/>
       <c r="DI22" s="12"/>
       <c r="DJ22" s="12"/>
@@ -5512,15 +5581,16 @@
       <c r="DZ22" s="12"/>
       <c r="EA22" s="12"/>
       <c r="EB22" s="12"/>
-      <c r="EC22" s="2"/>
+      <c r="EC22" s="12"/>
+      <c r="ED22" s="2"/>
     </row>
-    <row r="23" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="15" t="str">
@@ -5537,7 +5607,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>Not Started</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -5546,9 +5616,9 @@
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="27"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
@@ -5577,11 +5647,9 @@
       <c r="AT23" s="13"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="13"/>
-      <c r="AW23" s="30"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="30"/>
+      <c r="AY23" s="27"/>
       <c r="AZ23" s="13" t="s">
         <v>13</v>
       </c>
@@ -5663,13 +5731,13 @@
       <c r="BZ23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="CA23" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC23" s="13" t="s">
+      <c r="CA23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC23" s="27" t="s">
         <v>13</v>
       </c>
       <c r="CD23" s="13" t="s">
@@ -5684,7 +5752,9 @@
       <c r="CG23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="CH23" s="13"/>
+      <c r="CH23" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="CI23" s="13"/>
       <c r="CJ23" s="13"/>
       <c r="CK23" s="13"/>
@@ -5707,9 +5777,9 @@
       <c r="DB23" s="13"/>
       <c r="DC23" s="13"/>
       <c r="DD23" s="13"/>
-      <c r="DE23" s="30"/>
-      <c r="DF23" s="27"/>
-      <c r="DG23" s="13"/>
+      <c r="DE23" s="13"/>
+      <c r="DF23" s="30"/>
+      <c r="DG23" s="27"/>
       <c r="DH23" s="13"/>
       <c r="DI23" s="13"/>
       <c r="DJ23" s="13"/>
@@ -5731,15 +5801,16 @@
       <c r="DZ23" s="13"/>
       <c r="EA23" s="13"/>
       <c r="EB23" s="13"/>
-      <c r="EC23" s="2"/>
+      <c r="EC23" s="13"/>
+      <c r="ED23" s="2"/>
     </row>
-    <row r="24" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="16" t="str">
@@ -5756,7 +5827,9 @@
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
         <v>Not Started</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="34">
+        <v>45807</v>
+      </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -5765,9 +5838,9 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="27"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -5796,9 +5869,9 @@
       <c r="AT24" s="13"/>
       <c r="AU24" s="13"/>
       <c r="AV24" s="13"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="27"/>
-      <c r="AY24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="30"/>
+      <c r="AY24" s="27"/>
       <c r="AZ24" s="13"/>
       <c r="BA24" s="13"/>
       <c r="BB24" s="13"/>
@@ -5810,9 +5883,7 @@
       <c r="BH24" s="13"/>
       <c r="BI24" s="13"/>
       <c r="BJ24" s="13"/>
-      <c r="BK24" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="BK24" s="13"/>
       <c r="BL24" s="13" t="s">
         <v>13</v>
       </c>
@@ -5858,13 +5929,13 @@
       <c r="BZ24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="CA24" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB24" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC24" s="13" t="s">
+      <c r="CA24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC24" s="27" t="s">
         <v>13</v>
       </c>
       <c r="CD24" s="13" t="s">
@@ -5894,7 +5965,9 @@
       <c r="CL24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="CM24" s="13"/>
+      <c r="CM24" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="CN24" s="13"/>
       <c r="CO24" s="13"/>
       <c r="CP24" s="13"/>
@@ -5912,9 +5985,9 @@
       <c r="DB24" s="13"/>
       <c r="DC24" s="13"/>
       <c r="DD24" s="13"/>
-      <c r="DE24" s="30"/>
-      <c r="DF24" s="27"/>
-      <c r="DG24" s="13"/>
+      <c r="DE24" s="13"/>
+      <c r="DF24" s="30"/>
+      <c r="DG24" s="27"/>
       <c r="DH24" s="13"/>
       <c r="DI24" s="13"/>
       <c r="DJ24" s="13"/>
@@ -5936,15 +6009,16 @@
       <c r="DZ24" s="13"/>
       <c r="EA24" s="13"/>
       <c r="EB24" s="13"/>
-      <c r="EC24" s="2"/>
+      <c r="EC24" s="13"/>
+      <c r="ED24" s="2"/>
     </row>
-    <row r="25" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="15" t="str">
@@ -5961,7 +6035,9 @@
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
         <v>Not Started</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="34">
+        <v>45802</v>
+      </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -5970,9 +6046,9 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="26"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
@@ -6001,9 +6077,9 @@
       <c r="AT25" s="12"/>
       <c r="AU25" s="12"/>
       <c r="AV25" s="12"/>
-      <c r="AW25" s="29"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="26"/>
       <c r="AZ25" s="12"/>
       <c r="BA25" s="12"/>
       <c r="BB25" s="12"/>
@@ -6015,9 +6091,7 @@
       <c r="BH25" s="12"/>
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12"/>
-      <c r="BK25" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="BK25" s="12"/>
       <c r="BL25" s="12" t="s">
         <v>13</v>
       </c>
@@ -6063,13 +6137,13 @@
       <c r="BZ25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CA25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC25" s="12" t="s">
+      <c r="CA25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC25" s="26" t="s">
         <v>13</v>
       </c>
       <c r="CD25" s="12" t="s">
@@ -6099,7 +6173,9 @@
       <c r="CL25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CM25" s="12"/>
+      <c r="CM25" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="CN25" s="12"/>
       <c r="CO25" s="12"/>
       <c r="CP25" s="12"/>
@@ -6117,9 +6193,9 @@
       <c r="DB25" s="12"/>
       <c r="DC25" s="12"/>
       <c r="DD25" s="12"/>
-      <c r="DE25" s="29"/>
-      <c r="DF25" s="26"/>
-      <c r="DG25" s="12"/>
+      <c r="DE25" s="12"/>
+      <c r="DF25" s="29"/>
+      <c r="DG25" s="26"/>
       <c r="DH25" s="12"/>
       <c r="DI25" s="12"/>
       <c r="DJ25" s="12"/>
@@ -6141,9 +6217,10 @@
       <c r="DZ25" s="12"/>
       <c r="EA25" s="12"/>
       <c r="EB25" s="12"/>
-      <c r="EC25" s="2"/>
+      <c r="EC25" s="12"/>
+      <c r="ED25" s="2"/>
     </row>
-    <row r="26" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -6166,7 +6243,7 @@
         <f t="shared" ca="1" si="23"/>
         <v>Not Started</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -6175,9 +6252,9 @@
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
@@ -6206,9 +6283,9 @@
       <c r="AT26" s="13"/>
       <c r="AU26" s="13"/>
       <c r="AV26" s="13"/>
-      <c r="AW26" s="30"/>
-      <c r="AX26" s="27"/>
-      <c r="AY26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="30"/>
+      <c r="AY26" s="27"/>
       <c r="AZ26" s="13"/>
       <c r="BA26" s="13"/>
       <c r="BB26" s="13"/>
@@ -6221,9 +6298,7 @@
       <c r="BI26" s="13"/>
       <c r="BJ26" s="13"/>
       <c r="BK26" s="13"/>
-      <c r="BL26" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="BL26" s="13"/>
       <c r="BM26" s="13" t="s">
         <v>13</v>
       </c>
@@ -6266,13 +6341,13 @@
       <c r="BZ26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="CA26" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC26" s="13" t="s">
+      <c r="CA26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC26" s="27" t="s">
         <v>13</v>
       </c>
       <c r="CD26" s="13" t="s">
@@ -6305,7 +6380,9 @@
       <c r="CM26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="CN26" s="13"/>
+      <c r="CN26" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="CO26" s="13"/>
       <c r="CP26" s="13"/>
       <c r="CQ26" s="13"/>
@@ -6322,9 +6399,9 @@
       <c r="DB26" s="13"/>
       <c r="DC26" s="13"/>
       <c r="DD26" s="13"/>
-      <c r="DE26" s="30"/>
-      <c r="DF26" s="27"/>
-      <c r="DG26" s="13"/>
+      <c r="DE26" s="13"/>
+      <c r="DF26" s="30"/>
+      <c r="DG26" s="27"/>
       <c r="DH26" s="13"/>
       <c r="DI26" s="13"/>
       <c r="DJ26" s="13"/>
@@ -6346,15 +6423,16 @@
       <c r="DZ26" s="13"/>
       <c r="EA26" s="13"/>
       <c r="EB26" s="13"/>
-      <c r="EC26" s="2"/>
+      <c r="EC26" s="13"/>
+      <c r="ED26" s="2"/>
     </row>
-    <row r="27" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="15" t="str">
@@ -6371,7 +6449,7 @@
         <f t="shared" ca="1" si="23"/>
         <v>Not Started</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
@@ -6380,9 +6458,9 @@
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="26"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
@@ -6411,9 +6489,9 @@
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
-      <c r="AW27" s="29"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="26"/>
       <c r="AZ27" s="12"/>
       <c r="BA27" s="12"/>
       <c r="BB27" s="12"/>
@@ -6434,9 +6512,7 @@
       <c r="BQ27" s="12"/>
       <c r="BR27" s="12"/>
       <c r="BS27" s="12"/>
-      <c r="BT27" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="BT27" s="12"/>
       <c r="BU27" s="12" t="s">
         <v>13</v>
       </c>
@@ -6455,13 +6531,13 @@
       <c r="BZ27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CA27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB27" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC27" s="12" t="s">
+      <c r="CA27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC27" s="26" t="s">
         <v>13</v>
       </c>
       <c r="CD27" s="12" t="s">
@@ -6497,7 +6573,9 @@
       <c r="CN27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CO27" s="12"/>
+      <c r="CO27" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="CP27" s="12"/>
       <c r="CQ27" s="12"/>
       <c r="CR27" s="12"/>
@@ -6513,9 +6591,9 @@
       <c r="DB27" s="12"/>
       <c r="DC27" s="12"/>
       <c r="DD27" s="12"/>
-      <c r="DE27" s="29"/>
-      <c r="DF27" s="26"/>
-      <c r="DG27" s="12"/>
+      <c r="DE27" s="12"/>
+      <c r="DF27" s="29"/>
+      <c r="DG27" s="26"/>
       <c r="DH27" s="12"/>
       <c r="DI27" s="12"/>
       <c r="DJ27" s="12"/>
@@ -6537,9 +6615,10 @@
       <c r="DZ27" s="12"/>
       <c r="EA27" s="12"/>
       <c r="EB27" s="12"/>
-      <c r="EC27" s="2"/>
+      <c r="EC27" s="12"/>
+      <c r="ED27" s="2"/>
     </row>
-    <row r="28" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
         <v>14</v>
@@ -6562,7 +6641,9 @@
         <f t="shared" ca="1" si="23"/>
         <v>Not Started</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="34">
+        <v>45810</v>
+      </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -6571,9 +6652,9 @@
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="27"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
@@ -6602,9 +6683,9 @@
       <c r="AT28" s="13"/>
       <c r="AU28" s="13"/>
       <c r="AV28" s="13"/>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="27"/>
-      <c r="AY28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="30"/>
+      <c r="AY28" s="27"/>
       <c r="AZ28" s="13"/>
       <c r="BA28" s="13"/>
       <c r="BB28" s="13"/>
@@ -6632,9 +6713,9 @@
       <c r="BX28" s="13"/>
       <c r="BY28" s="13"/>
       <c r="BZ28" s="13"/>
-      <c r="CA28" s="30"/>
-      <c r="CB28" s="27"/>
-      <c r="CC28" s="13"/>
+      <c r="CA28" s="13"/>
+      <c r="CB28" s="30"/>
+      <c r="CC28" s="27"/>
       <c r="CD28" s="13"/>
       <c r="CE28" s="13"/>
       <c r="CF28" s="13"/>
@@ -6644,9 +6725,7 @@
       <c r="CJ28" s="13"/>
       <c r="CK28" s="13"/>
       <c r="CL28" s="13"/>
-      <c r="CM28" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="CM28" s="13"/>
       <c r="CN28" s="13" t="s">
         <v>13</v>
       </c>
@@ -6686,13 +6765,15 @@
       <c r="CZ28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="DA28" s="13"/>
+      <c r="DA28" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="DB28" s="13"/>
       <c r="DC28" s="13"/>
       <c r="DD28" s="13"/>
-      <c r="DE28" s="30"/>
-      <c r="DF28" s="27"/>
-      <c r="DG28" s="13"/>
+      <c r="DE28" s="13"/>
+      <c r="DF28" s="30"/>
+      <c r="DG28" s="27"/>
       <c r="DH28" s="13"/>
       <c r="DI28" s="13"/>
       <c r="DJ28" s="13"/>
@@ -6714,12 +6795,13 @@
       <c r="DZ28" s="13"/>
       <c r="EA28" s="13"/>
       <c r="EB28" s="13"/>
-      <c r="EC28" s="2"/>
+      <c r="EC28" s="13"/>
+      <c r="ED28" s="2"/>
     </row>
-    <row r="29" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>18</v>
@@ -6739,7 +6821,9 @@
         <f t="shared" ca="1" si="23"/>
         <v>Not Started</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="34">
+        <v>45816</v>
+      </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -6748,9 +6832,9 @@
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="26"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
@@ -6779,9 +6863,9 @@
       <c r="AT29" s="12"/>
       <c r="AU29" s="12"/>
       <c r="AV29" s="12"/>
-      <c r="AW29" s="29"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="26"/>
       <c r="AZ29" s="12"/>
       <c r="BA29" s="12"/>
       <c r="BB29" s="12"/>
@@ -6809,9 +6893,9 @@
       <c r="BX29" s="12"/>
       <c r="BY29" s="12"/>
       <c r="BZ29" s="12"/>
-      <c r="CA29" s="29"/>
-      <c r="CB29" s="26"/>
-      <c r="CC29" s="12"/>
+      <c r="CA29" s="12"/>
+      <c r="CB29" s="29"/>
+      <c r="CC29" s="26"/>
       <c r="CD29" s="12"/>
       <c r="CE29" s="12"/>
       <c r="CF29" s="12"/>
@@ -6825,9 +6909,7 @@
       <c r="CN29" s="12"/>
       <c r="CO29" s="12"/>
       <c r="CP29" s="12"/>
-      <c r="CQ29" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="CQ29" s="12"/>
       <c r="CR29" s="12" t="s">
         <v>13</v>
       </c>
@@ -6855,13 +6937,15 @@
       <c r="CZ29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DA29" s="12"/>
+      <c r="DA29" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="DB29" s="12"/>
       <c r="DC29" s="12"/>
       <c r="DD29" s="12"/>
-      <c r="DE29" s="29"/>
-      <c r="DF29" s="26"/>
-      <c r="DG29" s="12"/>
+      <c r="DE29" s="12"/>
+      <c r="DF29" s="29"/>
+      <c r="DG29" s="26"/>
       <c r="DH29" s="12"/>
       <c r="DI29" s="12"/>
       <c r="DJ29" s="12"/>
@@ -6883,20 +6967,21 @@
       <c r="DZ29" s="12"/>
       <c r="EA29" s="12"/>
       <c r="EB29" s="12"/>
-      <c r="EC29" s="2"/>
+      <c r="EC29" s="12"/>
+      <c r="ED29" s="2"/>
     </row>
-    <row r="30" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="16" t="str">
         <f t="shared" si="20"/>
-        <v>Network and System administration - PR</v>
+        <v>Network and System administration - CA4</v>
       </c>
       <c r="F30" s="10">
         <v>45740</v>
@@ -6908,7 +6993,9 @@
         <f t="shared" ca="1" si="23"/>
         <v>Not Started</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="34">
+        <v>45817</v>
+      </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
@@ -6917,9 +7004,9 @@
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="27"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
@@ -6941,9 +7028,7 @@
       <c r="AM30" s="13"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="13"/>
-      <c r="AP30" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="AP30" s="13"/>
       <c r="AQ30" s="13" t="s">
         <v>13</v>
       </c>
@@ -6962,13 +7047,13 @@
       <c r="AV30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AW30" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY30" s="13" t="s">
+      <c r="AW30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY30" s="27" t="s">
         <v>13</v>
       </c>
       <c r="AZ30" s="13" t="s">
@@ -7052,13 +7137,13 @@
       <c r="BZ30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="CA30" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC30" s="13" t="s">
+      <c r="CA30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC30" s="27" t="s">
         <v>13</v>
       </c>
       <c r="CD30" s="13" t="s">
@@ -7142,16 +7227,18 @@
       <c r="DD30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="DE30" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DH30" s="13"/>
+      <c r="DE30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG30" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH30" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="DI30" s="13"/>
       <c r="DJ30" s="13"/>
       <c r="DK30" s="13"/>
@@ -7172,20 +7259,21 @@
       <c r="DZ30" s="13"/>
       <c r="EA30" s="13"/>
       <c r="EB30" s="13"/>
-      <c r="EC30" s="2"/>
+      <c r="EC30" s="13"/>
+      <c r="ED30" s="2"/>
     </row>
-    <row r="31" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="15" t="str">
         <f t="shared" si="20"/>
-        <v>Network and System administration - CA4</v>
+        <v>Network and System administration - Final Project</v>
       </c>
       <c r="F31" s="6">
         <v>45747</v>
@@ -7197,7 +7285,9 @@
         <f t="shared" ca="1" si="23"/>
         <v>Not Started</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="34">
+        <v>45817</v>
+      </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
@@ -7206,9 +7296,9 @@
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="26"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
@@ -7237,13 +7327,11 @@
       <c r="AT31" s="12"/>
       <c r="AU31" s="12"/>
       <c r="AV31" s="12"/>
-      <c r="AW31" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY31" s="12" t="s">
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY31" s="26" t="s">
         <v>13</v>
       </c>
       <c r="AZ31" s="12" t="s">
@@ -7327,13 +7415,13 @@
       <c r="BZ31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CA31" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC31" s="12" t="s">
+      <c r="CA31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC31" s="26" t="s">
         <v>13</v>
       </c>
       <c r="CD31" s="12" t="s">
@@ -7417,16 +7505,18 @@
       <c r="DD31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DE31" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="DH31" s="12"/>
+      <c r="DE31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH31" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="DI31" s="12"/>
       <c r="DJ31" s="12"/>
       <c r="DK31" s="12"/>
@@ -7447,15 +7537,16 @@
       <c r="DZ31" s="12"/>
       <c r="EA31" s="12"/>
       <c r="EB31" s="12"/>
-      <c r="EC31" s="2"/>
+      <c r="EC31" s="12"/>
+      <c r="ED31" s="2"/>
     </row>
-    <row r="32" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="16" t="str">
@@ -7472,7 +7563,9 @@
         <f ca="1">IF(F32&gt;TODAY(), "Not Started", IF(TODAY()&gt;G32, "Finished", IF(G32=TODAY(), "Due Today", G32-TODAY())))</f>
         <v>Not Started</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="34">
+        <v>45818</v>
+      </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
@@ -7481,9 +7574,9 @@
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="26"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
@@ -7512,9 +7605,9 @@
       <c r="AT32" s="12"/>
       <c r="AU32" s="12"/>
       <c r="AV32" s="12"/>
-      <c r="AW32" s="29"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="26"/>
       <c r="AZ32" s="12"/>
       <c r="BA32" s="12"/>
       <c r="BB32" s="12"/>
@@ -7542,9 +7635,9 @@
       <c r="BX32" s="12"/>
       <c r="BY32" s="12"/>
       <c r="BZ32" s="12"/>
-      <c r="CA32" s="29"/>
-      <c r="CB32" s="26"/>
-      <c r="CC32" s="12"/>
+      <c r="CA32" s="12"/>
+      <c r="CB32" s="29"/>
+      <c r="CC32" s="26"/>
       <c r="CD32" s="12"/>
       <c r="CE32" s="12"/>
       <c r="CF32" s="12"/>
@@ -7554,9 +7647,7 @@
       <c r="CJ32" s="12"/>
       <c r="CK32" s="12"/>
       <c r="CL32" s="12"/>
-      <c r="CM32" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="CM32" s="12"/>
       <c r="CN32" s="12" t="s">
         <v>13</v>
       </c>
@@ -7608,16 +7699,18 @@
       <c r="DD32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DE32" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="DH32" s="12"/>
+      <c r="DE32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF32" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH32" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="DI32" s="12"/>
       <c r="DJ32" s="12"/>
       <c r="DK32" s="12"/>
@@ -7638,15 +7731,16 @@
       <c r="DZ32" s="12"/>
       <c r="EA32" s="12"/>
       <c r="EB32" s="12"/>
-      <c r="EC32" s="2"/>
+      <c r="EC32" s="12"/>
+      <c r="ED32" s="2"/>
     </row>
-    <row r="33" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="15" t="str">
@@ -7663,7 +7757,7 @@
         <f t="shared" ca="1" si="23"/>
         <v>Not Started</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -7672,9 +7766,9 @@
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="27"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -7703,9 +7797,9 @@
       <c r="AT33" s="13"/>
       <c r="AU33" s="13"/>
       <c r="AV33" s="13"/>
-      <c r="AW33" s="30"/>
-      <c r="AX33" s="27"/>
-      <c r="AY33" s="13"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="30"/>
+      <c r="AY33" s="27"/>
       <c r="AZ33" s="13"/>
       <c r="BA33" s="13"/>
       <c r="BB33" s="13"/>
@@ -7733,16 +7827,14 @@
       <c r="BX33" s="13"/>
       <c r="BY33" s="13"/>
       <c r="BZ33" s="13"/>
-      <c r="CA33" s="30"/>
-      <c r="CB33" s="27"/>
-      <c r="CC33" s="13"/>
+      <c r="CA33" s="13"/>
+      <c r="CB33" s="30"/>
+      <c r="CC33" s="27"/>
       <c r="CD33" s="13"/>
       <c r="CE33" s="13"/>
       <c r="CF33" s="13"/>
       <c r="CG33" s="13"/>
-      <c r="CH33" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="CH33" s="13"/>
       <c r="CI33" s="13" t="s">
         <v>13</v>
       </c>
@@ -7809,13 +7901,13 @@
       <c r="DD33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="DE33" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG33" s="13" t="s">
+      <c r="DE33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG33" s="27" t="s">
         <v>13</v>
       </c>
       <c r="DH33" s="13" t="s">
@@ -7824,7 +7916,9 @@
       <c r="DI33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="DJ33" s="13"/>
+      <c r="DJ33" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="DK33" s="13"/>
       <c r="DL33" s="13"/>
       <c r="DM33" s="13"/>
@@ -7843,15 +7937,16 @@
       <c r="DZ33" s="13"/>
       <c r="EA33" s="13"/>
       <c r="EB33" s="13"/>
-      <c r="EC33" s="2"/>
+      <c r="EC33" s="13"/>
+      <c r="ED33" s="2"/>
     </row>
-    <row r="34" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="16" t="str">
@@ -7868,7 +7963,9 @@
         <f t="shared" ca="1" si="21"/>
         <v>Not Started</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="34">
+        <v>45830</v>
+      </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
@@ -7877,9 +7974,9 @@
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="26"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
@@ -7908,9 +8005,9 @@
       <c r="AT34" s="12"/>
       <c r="AU34" s="12"/>
       <c r="AV34" s="12"/>
-      <c r="AW34" s="29"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="26"/>
       <c r="AZ34" s="12"/>
       <c r="BA34" s="12"/>
       <c r="BB34" s="12"/>
@@ -7938,9 +8035,9 @@
       <c r="BX34" s="12"/>
       <c r="BY34" s="12"/>
       <c r="BZ34" s="12"/>
-      <c r="CA34" s="29"/>
-      <c r="CB34" s="26"/>
-      <c r="CC34" s="12"/>
+      <c r="CA34" s="12"/>
+      <c r="CB34" s="29"/>
+      <c r="CC34" s="26"/>
       <c r="CD34" s="12"/>
       <c r="CE34" s="12"/>
       <c r="CF34" s="12"/>
@@ -7950,9 +8047,7 @@
       <c r="CJ34" s="12"/>
       <c r="CK34" s="12"/>
       <c r="CL34" s="12"/>
-      <c r="CM34" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="CM34" s="12"/>
       <c r="CN34" s="12" t="s">
         <v>13</v>
       </c>
@@ -8004,13 +8099,13 @@
       <c r="DD34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DE34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF34" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG34" s="12" t="s">
+      <c r="DE34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG34" s="26" t="s">
         <v>13</v>
       </c>
       <c r="DH34" s="12" t="s">
@@ -8034,7 +8129,9 @@
       <c r="DN34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DO34" s="12"/>
+      <c r="DO34" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="DP34" s="12"/>
       <c r="DQ34" s="12"/>
       <c r="DR34" s="12"/>
@@ -8048,9 +8145,10 @@
       <c r="DZ34" s="12"/>
       <c r="EA34" s="12"/>
       <c r="EB34" s="12"/>
-      <c r="EC34" s="2"/>
+      <c r="EC34" s="12"/>
+      <c r="ED34" s="2"/>
     </row>
-    <row r="35" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
@@ -8073,7 +8171,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>Not Started</v>
       </c>
-      <c r="I35" s="13"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -8082,9 +8180,9 @@
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="27"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
@@ -8113,9 +8211,9 @@
       <c r="AT35" s="13"/>
       <c r="AU35" s="13"/>
       <c r="AV35" s="13"/>
-      <c r="AW35" s="30"/>
-      <c r="AX35" s="27"/>
-      <c r="AY35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="30"/>
+      <c r="AY35" s="27"/>
       <c r="AZ35" s="13"/>
       <c r="BA35" s="13"/>
       <c r="BB35" s="13"/>
@@ -8143,9 +8241,9 @@
       <c r="BX35" s="13"/>
       <c r="BY35" s="13"/>
       <c r="BZ35" s="13"/>
-      <c r="CA35" s="30"/>
-      <c r="CB35" s="27"/>
-      <c r="CC35" s="13"/>
+      <c r="CA35" s="13"/>
+      <c r="CB35" s="30"/>
+      <c r="CC35" s="27"/>
       <c r="CD35" s="13"/>
       <c r="CE35" s="13"/>
       <c r="CF35" s="13"/>
@@ -8156,9 +8254,7 @@
       <c r="CK35" s="13"/>
       <c r="CL35" s="13"/>
       <c r="CM35" s="13"/>
-      <c r="CN35" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="CN35" s="13"/>
       <c r="CO35" s="13" t="s">
         <v>13</v>
       </c>
@@ -8207,13 +8303,13 @@
       <c r="DD35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="DE35" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF35" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG35" s="13" t="s">
+      <c r="DE35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG35" s="27" t="s">
         <v>13</v>
       </c>
       <c r="DH35" s="13" t="s">
@@ -8240,7 +8336,9 @@
       <c r="DO35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="DP35" s="13"/>
+      <c r="DP35" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="DQ35" s="13"/>
       <c r="DR35" s="13"/>
       <c r="DS35" s="13"/>
@@ -8253,15 +8351,16 @@
       <c r="DZ35" s="13"/>
       <c r="EA35" s="13"/>
       <c r="EB35" s="13"/>
-      <c r="EC35" s="2"/>
+      <c r="EC35" s="13"/>
+      <c r="ED35" s="2"/>
     </row>
-    <row r="36" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="16" t="str">
@@ -8278,7 +8377,7 @@
         <f t="shared" ref="H36:H37" ca="1" si="24">IF(F36&gt;TODAY(), "Not Started", IF(TODAY()&gt;G36, "Finished", IF(G36=TODAY(), "Due Today", G36-TODAY())))</f>
         <v>Not Started</v>
       </c>
-      <c r="I36" s="12"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
@@ -8287,9 +8386,9 @@
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="26"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
@@ -8318,9 +8417,9 @@
       <c r="AT36" s="12"/>
       <c r="AU36" s="12"/>
       <c r="AV36" s="12"/>
-      <c r="AW36" s="29"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="29"/>
+      <c r="AY36" s="26"/>
       <c r="AZ36" s="12"/>
       <c r="BA36" s="12"/>
       <c r="BB36" s="12"/>
@@ -8348,9 +8447,9 @@
       <c r="BX36" s="12"/>
       <c r="BY36" s="12"/>
       <c r="BZ36" s="12"/>
-      <c r="CA36" s="29"/>
-      <c r="CB36" s="26"/>
-      <c r="CC36" s="12"/>
+      <c r="CA36" s="12"/>
+      <c r="CB36" s="29"/>
+      <c r="CC36" s="26"/>
       <c r="CD36" s="12"/>
       <c r="CE36" s="12"/>
       <c r="CF36" s="12"/>
@@ -8362,9 +8461,7 @@
       <c r="CL36" s="12"/>
       <c r="CM36" s="12"/>
       <c r="CN36" s="12"/>
-      <c r="CO36" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="CO36" s="12"/>
       <c r="CP36" s="12" t="s">
         <v>13</v>
       </c>
@@ -8410,13 +8507,13 @@
       <c r="DD36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DE36" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="DF36" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG36" s="12" t="s">
+      <c r="DE36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="DF36" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG36" s="26" t="s">
         <v>13</v>
       </c>
       <c r="DH36" s="12" t="s">
@@ -8443,7 +8540,9 @@
       <c r="DO36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DP36" s="12"/>
+      <c r="DP36" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="DQ36" s="12"/>
       <c r="DR36" s="12"/>
       <c r="DS36" s="12"/>
@@ -8456,15 +8555,16 @@
       <c r="DZ36" s="12"/>
       <c r="EA36" s="12"/>
       <c r="EB36" s="12"/>
-      <c r="EC36" s="2"/>
+      <c r="EC36" s="12"/>
+      <c r="ED36" s="2"/>
     </row>
-    <row r="37" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="15" t="str">
@@ -8481,7 +8581,7 @@
         <f t="shared" ca="1" si="24"/>
         <v>Not Started</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
@@ -8490,9 +8590,9 @@
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="27"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
@@ -8521,9 +8621,9 @@
       <c r="AT37" s="13"/>
       <c r="AU37" s="13"/>
       <c r="AV37" s="13"/>
-      <c r="AW37" s="30"/>
-      <c r="AX37" s="27"/>
-      <c r="AY37" s="13"/>
+      <c r="AW37" s="13"/>
+      <c r="AX37" s="30"/>
+      <c r="AY37" s="27"/>
       <c r="AZ37" s="13"/>
       <c r="BA37" s="13"/>
       <c r="BB37" s="13"/>
@@ -8551,9 +8651,9 @@
       <c r="BX37" s="13"/>
       <c r="BY37" s="13"/>
       <c r="BZ37" s="13"/>
-      <c r="CA37" s="30"/>
-      <c r="CB37" s="27"/>
-      <c r="CC37" s="13"/>
+      <c r="CA37" s="13"/>
+      <c r="CB37" s="30"/>
+      <c r="CC37" s="27"/>
       <c r="CD37" s="13"/>
       <c r="CE37" s="13"/>
       <c r="CF37" s="13"/>
@@ -8581,14 +8681,12 @@
       <c r="DB37" s="13"/>
       <c r="DC37" s="13"/>
       <c r="DD37" s="13"/>
-      <c r="DE37" s="30"/>
-      <c r="DF37" s="27"/>
-      <c r="DG37" s="13"/>
+      <c r="DE37" s="13"/>
+      <c r="DF37" s="30"/>
+      <c r="DG37" s="27"/>
       <c r="DH37" s="13"/>
       <c r="DI37" s="13"/>
-      <c r="DJ37" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="DJ37" s="13"/>
       <c r="DK37" s="13" t="s">
         <v>13</v>
       </c>
@@ -8604,7 +8702,9 @@
       <c r="DO37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="DP37" s="13"/>
+      <c r="DP37" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="DQ37" s="13"/>
       <c r="DR37" s="13"/>
       <c r="DS37" s="13"/>
@@ -8617,15 +8717,16 @@
       <c r="DZ37" s="13"/>
       <c r="EA37" s="13"/>
       <c r="EB37" s="13"/>
-      <c r="EC37" s="2"/>
+      <c r="EC37" s="13"/>
+      <c r="ED37" s="2"/>
     </row>
-    <row r="38" spans="1:133" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="16" t="str">
@@ -8642,7 +8743,7 @@
         <f t="shared" ref="H38" ca="1" si="25">IF(F38&gt;TODAY(), "Not Started", IF(TODAY()&gt;G38, "Finished", IF(G38=TODAY(), "Due Today", G38-TODAY())))</f>
         <v>Not Started</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -8651,9 +8752,9 @@
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="27"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
@@ -8682,9 +8783,9 @@
       <c r="AT38" s="13"/>
       <c r="AU38" s="13"/>
       <c r="AV38" s="13"/>
-      <c r="AW38" s="30"/>
-      <c r="AX38" s="27"/>
-      <c r="AY38" s="13"/>
+      <c r="AW38" s="13"/>
+      <c r="AX38" s="30"/>
+      <c r="AY38" s="27"/>
       <c r="AZ38" s="13"/>
       <c r="BA38" s="13"/>
       <c r="BB38" s="13"/>
@@ -8712,9 +8813,9 @@
       <c r="BX38" s="13"/>
       <c r="BY38" s="13"/>
       <c r="BZ38" s="13"/>
-      <c r="CA38" s="30"/>
-      <c r="CB38" s="27"/>
-      <c r="CC38" s="13"/>
+      <c r="CA38" s="13"/>
+      <c r="CB38" s="30"/>
+      <c r="CC38" s="27"/>
       <c r="CD38" s="13"/>
       <c r="CE38" s="13"/>
       <c r="CF38" s="13"/>
@@ -8742,9 +8843,9 @@
       <c r="DB38" s="13"/>
       <c r="DC38" s="13"/>
       <c r="DD38" s="13"/>
-      <c r="DE38" s="30"/>
-      <c r="DF38" s="27"/>
-      <c r="DG38" s="13"/>
+      <c r="DE38" s="13"/>
+      <c r="DF38" s="30"/>
+      <c r="DG38" s="27"/>
       <c r="DH38" s="13"/>
       <c r="DI38" s="13"/>
       <c r="DJ38" s="13"/>
@@ -8760,18 +8861,18 @@
       <c r="DT38" s="13"/>
       <c r="DU38" s="13"/>
       <c r="DV38" s="13"/>
-      <c r="DW38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="DX38" s="13"/>
+      <c r="DW38" s="13"/>
+      <c r="DX38" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="DY38" s="13"/>
       <c r="DZ38" s="13"/>
       <c r="EA38" s="13"/>
       <c r="EB38" s="13"/>
-      <c r="EC38" s="2"/>
+      <c r="EC38" s="13"/>
+      <c r="ED38" s="2"/>
     </row>
-    <row r="39" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="I39" s="20"/>
+    <row r="39" spans="1:134" x14ac:dyDescent="0.35">
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -8895,6 +8996,7 @@
       <c r="DZ39" s="20"/>
       <c r="EA39" s="20"/>
       <c r="EB39" s="20"/>
+      <c r="EC39" s="20"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:G37">
@@ -8903,57 +9005,57 @@
   </sortState>
   <mergeCells count="49">
     <mergeCell ref="B2:H4"/>
-    <mergeCell ref="DV7:EB7"/>
-    <mergeCell ref="AW7:BC7"/>
-    <mergeCell ref="BD7:BJ7"/>
-    <mergeCell ref="BK7:BQ7"/>
-    <mergeCell ref="BR7:BX7"/>
-    <mergeCell ref="BY7:CE7"/>
-    <mergeCell ref="CF7:CL7"/>
-    <mergeCell ref="CM7:CS7"/>
-    <mergeCell ref="CT7:CZ7"/>
-    <mergeCell ref="DA7:DG7"/>
-    <mergeCell ref="DH7:DN7"/>
-    <mergeCell ref="DO7:DU7"/>
-    <mergeCell ref="CM4:CS4"/>
-    <mergeCell ref="CT4:CZ4"/>
-    <mergeCell ref="DA4:DG4"/>
-    <mergeCell ref="AX3:CA3"/>
-    <mergeCell ref="CB3:DE3"/>
-    <mergeCell ref="DF3:EB3"/>
-    <mergeCell ref="DO4:DU4"/>
-    <mergeCell ref="DV4:EB4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="DH4:DN4"/>
-    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="DW7:EC7"/>
+    <mergeCell ref="AX7:BD7"/>
+    <mergeCell ref="BE7:BK7"/>
+    <mergeCell ref="BL7:BR7"/>
+    <mergeCell ref="BS7:BY7"/>
+    <mergeCell ref="BZ7:CF7"/>
+    <mergeCell ref="CG7:CM7"/>
+    <mergeCell ref="CN7:CT7"/>
+    <mergeCell ref="CU7:DA7"/>
+    <mergeCell ref="DB7:DH7"/>
+    <mergeCell ref="DI7:DO7"/>
+    <mergeCell ref="DP7:DV7"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="S3:AW3"/>
-    <mergeCell ref="AP7:AV7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:AX3"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:AP7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H38">
+  <conditionalFormatting sqref="H8:I38">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Due Today">
       <formula>NOT(ISERROR(SEARCH("Due Today",H8)))</formula>
     </cfRule>
@@ -8964,15 +9066,15 @@
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:EB2 I5:EB6 I8:EB1048576">
+  <conditionalFormatting sqref="J1:EC2 J5:EC6 J8:EC1048576">
     <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text=".">
-      <formula>NOT(ISERROR(SEARCH(".",I1)))</formula>
+      <formula>NOT(ISERROR(SEARCH(".",J1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",I1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("x",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:EB6">
+  <conditionalFormatting sqref="J6:EC6">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -8984,7 +9086,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:EB7">
+  <conditionalFormatting sqref="J7:EC7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8998,7 +9100,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="DP6:DY6" formulaRange="1"/>
+    <ignoredError sqref="DQ6:DZ6" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasdalessandro/Desktop/UOC-2025-01/zz_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D199FB5-8467-47B1-BC43-BF7EB7FDCCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7952C4-E403-E74D-82BD-276FDBDED2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="170" yWindow="180" windowWidth="25430" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="25440" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="65">
   <si>
     <t>Start date</t>
   </si>
@@ -838,6 +838,39 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,41 +889,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,35 +1260,35 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:H4"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="3"/>
-    <col min="2" max="2" width="32.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="133" width="3.81640625" style="9" customWidth="1"/>
-    <col min="134" max="16384" width="8.6328125" style="3"/>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="32.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="133" width="3.83203125" style="9" customWidth="1"/>
+    <col min="134" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1321,337 +1321,337 @@
       <c r="AW2" s="19"/>
       <c r="AX2" s="19"/>
     </row>
-    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="J3" s="38" t="s">
+    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="41" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="41" t="s">
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="42"/>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="42"/>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42"/>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42"/>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="42"/>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="42"/>
-      <c r="CU3" s="42"/>
-      <c r="CV3" s="42"/>
-      <c r="CW3" s="42"/>
-      <c r="CX3" s="42"/>
-      <c r="CY3" s="42"/>
-      <c r="CZ3" s="42"/>
-      <c r="DA3" s="42"/>
-      <c r="DB3" s="42"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="43"/>
-      <c r="DG3" s="49" t="s">
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="43"/>
+      <c r="CW3" s="43"/>
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="42"/>
-      <c r="DI3" s="42"/>
-      <c r="DJ3" s="42"/>
-      <c r="DK3" s="42"/>
-      <c r="DL3" s="42"/>
-      <c r="DM3" s="42"/>
-      <c r="DN3" s="42"/>
-      <c r="DO3" s="42"/>
-      <c r="DP3" s="42"/>
-      <c r="DQ3" s="42"/>
-      <c r="DR3" s="42"/>
-      <c r="DS3" s="42"/>
-      <c r="DT3" s="42"/>
-      <c r="DU3" s="42"/>
-      <c r="DV3" s="42"/>
-      <c r="DW3" s="42"/>
-      <c r="DX3" s="42"/>
-      <c r="DY3" s="42"/>
-      <c r="DZ3" s="42"/>
-      <c r="EA3" s="42"/>
-      <c r="EB3" s="42"/>
-      <c r="EC3" s="42"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="43"/>
+      <c r="DK3" s="43"/>
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="43"/>
+      <c r="DS3" s="43"/>
+      <c r="DT3" s="43"/>
+      <c r="DU3" s="43"/>
+      <c r="DV3" s="43"/>
+      <c r="DW3" s="43"/>
+      <c r="DX3" s="43"/>
+      <c r="DY3" s="43"/>
+      <c r="DZ3" s="43"/>
+      <c r="EA3" s="43"/>
+      <c r="EB3" s="43"/>
+      <c r="EC3" s="43"/>
     </row>
-    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="J4" s="48" t="s">
+    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="J4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48" t="s">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48" t="s">
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48" t="s">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48" t="s">
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="48" t="s">
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="48" t="s">
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="48"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="48"/>
-      <c r="BP4" s="48"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="48"/>
-      <c r="BS4" s="48" t="s">
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="48"/>
-      <c r="BV4" s="48"/>
-      <c r="BW4" s="48"/>
-      <c r="BX4" s="48"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="48" t="s">
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="48"/>
-      <c r="CB4" s="48"/>
-      <c r="CC4" s="48"/>
-      <c r="CD4" s="48"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="48"/>
-      <c r="CG4" s="48" t="s">
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="48"/>
-      <c r="CI4" s="48"/>
-      <c r="CJ4" s="48"/>
-      <c r="CK4" s="48"/>
-      <c r="CL4" s="48"/>
-      <c r="CM4" s="48"/>
-      <c r="CN4" s="48" t="s">
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="48"/>
-      <c r="CP4" s="48"/>
-      <c r="CQ4" s="48"/>
-      <c r="CR4" s="48"/>
-      <c r="CS4" s="48"/>
-      <c r="CT4" s="48"/>
-      <c r="CU4" s="48" t="s">
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="48"/>
-      <c r="CW4" s="48"/>
-      <c r="CX4" s="48"/>
-      <c r="CY4" s="48"/>
-      <c r="CZ4" s="48"/>
-      <c r="DA4" s="48"/>
-      <c r="DB4" s="48" t="s">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="48"/>
-      <c r="DD4" s="48"/>
-      <c r="DE4" s="48"/>
-      <c r="DF4" s="48"/>
-      <c r="DG4" s="48"/>
-      <c r="DH4" s="48"/>
-      <c r="DI4" s="48" t="s">
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41"/>
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="48"/>
-      <c r="DK4" s="48"/>
-      <c r="DL4" s="48"/>
-      <c r="DM4" s="48"/>
-      <c r="DN4" s="48"/>
-      <c r="DO4" s="48"/>
-      <c r="DP4" s="48" t="s">
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="48"/>
-      <c r="DR4" s="48"/>
-      <c r="DS4" s="48"/>
-      <c r="DT4" s="48"/>
-      <c r="DU4" s="48"/>
-      <c r="DV4" s="48"/>
-      <c r="DW4" s="48" t="s">
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41"/>
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="48"/>
-      <c r="DY4" s="48"/>
-      <c r="DZ4" s="48"/>
-      <c r="EA4" s="48"/>
-      <c r="EB4" s="48"/>
-      <c r="EC4" s="48"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
       <c r="ED4" s="2"/>
     </row>
-    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2034,13 +2034,13 @@
       </c>
       <c r="ED5" s="7"/>
     </row>
-    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2543,198 +2543,198 @@
       </c>
       <c r="ED6" s="2"/>
     </row>
-    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="35" t="s">
+    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="44">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="38">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="44">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="38">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="44">
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="44">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="38">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="44">
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="38">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="44">
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="38">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="44">
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="38">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="45"/>
-      <c r="BG7" s="45"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="44">
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="38">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="45"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="46"/>
-      <c r="BS7" s="44">
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="38">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>63</v>
       </c>
-      <c r="BT7" s="45"/>
-      <c r="BU7" s="45"/>
-      <c r="BV7" s="45"/>
-      <c r="BW7" s="45"/>
-      <c r="BX7" s="45"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="44">
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="38">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>56</v>
       </c>
-      <c r="CA7" s="45"/>
-      <c r="CB7" s="45"/>
-      <c r="CC7" s="45"/>
-      <c r="CD7" s="45"/>
-      <c r="CE7" s="45"/>
-      <c r="CF7" s="46"/>
-      <c r="CG7" s="44">
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="39"/>
+      <c r="CC7" s="39"/>
+      <c r="CD7" s="39"/>
+      <c r="CE7" s="39"/>
+      <c r="CF7" s="40"/>
+      <c r="CG7" s="38">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>49</v>
       </c>
-      <c r="CH7" s="45"/>
-      <c r="CI7" s="45"/>
-      <c r="CJ7" s="45"/>
-      <c r="CK7" s="45"/>
-      <c r="CL7" s="45"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="44">
+      <c r="CH7" s="39"/>
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="39"/>
+      <c r="CK7" s="39"/>
+      <c r="CL7" s="39"/>
+      <c r="CM7" s="40"/>
+      <c r="CN7" s="38">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>59</v>
       </c>
-      <c r="CO7" s="45"/>
-      <c r="CP7" s="45"/>
-      <c r="CQ7" s="45"/>
-      <c r="CR7" s="45"/>
-      <c r="CS7" s="45"/>
-      <c r="CT7" s="46"/>
-      <c r="CU7" s="44">
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="39"/>
+      <c r="CQ7" s="39"/>
+      <c r="CR7" s="39"/>
+      <c r="CS7" s="39"/>
+      <c r="CT7" s="40"/>
+      <c r="CU7" s="38">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="45"/>
-      <c r="CW7" s="45"/>
-      <c r="CX7" s="45"/>
-      <c r="CY7" s="45"/>
-      <c r="CZ7" s="45"/>
-      <c r="DA7" s="46"/>
-      <c r="DB7" s="44">
+      <c r="CV7" s="39"/>
+      <c r="CW7" s="39"/>
+      <c r="CX7" s="39"/>
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="39"/>
+      <c r="DA7" s="40"/>
+      <c r="DB7" s="38">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="45"/>
-      <c r="DD7" s="45"/>
-      <c r="DE7" s="45"/>
-      <c r="DF7" s="45"/>
-      <c r="DG7" s="45"/>
-      <c r="DH7" s="46"/>
-      <c r="DI7" s="44">
+      <c r="DC7" s="39"/>
+      <c r="DD7" s="39"/>
+      <c r="DE7" s="39"/>
+      <c r="DF7" s="39"/>
+      <c r="DG7" s="39"/>
+      <c r="DH7" s="40"/>
+      <c r="DI7" s="38">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="45"/>
-      <c r="DK7" s="45"/>
-      <c r="DL7" s="45"/>
-      <c r="DM7" s="45"/>
-      <c r="DN7" s="45"/>
-      <c r="DO7" s="46"/>
-      <c r="DP7" s="44">
+      <c r="DJ7" s="39"/>
+      <c r="DK7" s="39"/>
+      <c r="DL7" s="39"/>
+      <c r="DM7" s="39"/>
+      <c r="DN7" s="39"/>
+      <c r="DO7" s="40"/>
+      <c r="DP7" s="38">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="45"/>
-      <c r="DR7" s="45"/>
-      <c r="DS7" s="45"/>
-      <c r="DT7" s="45"/>
-      <c r="DU7" s="45"/>
-      <c r="DV7" s="46"/>
-      <c r="DW7" s="44">
+      <c r="DQ7" s="39"/>
+      <c r="DR7" s="39"/>
+      <c r="DS7" s="39"/>
+      <c r="DT7" s="39"/>
+      <c r="DU7" s="39"/>
+      <c r="DV7" s="40"/>
+      <c r="DW7" s="38">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="45"/>
-      <c r="DY7" s="45"/>
-      <c r="DZ7" s="45"/>
-      <c r="EA7" s="45"/>
-      <c r="EB7" s="45"/>
-      <c r="EC7" s="46"/>
+      <c r="DX7" s="39"/>
+      <c r="DY7" s="39"/>
+      <c r="DZ7" s="39"/>
+      <c r="EA7" s="39"/>
+      <c r="EB7" s="39"/>
+      <c r="EC7" s="40"/>
       <c r="ED7" s="2"/>
     </row>
-    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="EC8" s="11"/>
       <c r="ED8" s="2"/>
     </row>
-    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="EC9" s="12"/>
       <c r="ED9" s="2"/>
     </row>
-    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3114,9 +3114,9 @@
       <c r="G10" s="10">
         <v>45732</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="14" t="str">
         <f ca="1">IF(F10&gt;TODAY(), "Not Started", IF(TODAY()&gt;G10, "Finished", IF(G10=TODAY(), "Due Today", G10-TODAY())))</f>
-        <v>6</v>
+        <v>Finished</v>
       </c>
       <c r="I10" s="34">
         <v>45746</v>
@@ -3289,14 +3289,16 @@
       <c r="EC10" s="12"/>
       <c r="ED10" s="2"/>
     </row>
-    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="15" t="str">
         <f t="shared" si="20"/>
         <v>Human-Computer Interaction - C1</v>
@@ -3307,9 +3309,9 @@
       <c r="G11" s="6">
         <v>45733</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="14" t="str">
         <f ca="1">IF(F11&gt;TODAY(), "Not Started", IF(TODAY()&gt;G11, "Finished", IF(G11=TODAY(), "Due Today", G11-TODAY())))</f>
-        <v>7</v>
+        <v>Finished</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13" t="s">
@@ -3492,7 +3494,7 @@
       <c r="EC11" s="13"/>
       <c r="ED11" s="2"/>
     </row>
-    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
         <v>27</v>
@@ -3500,7 +3502,9 @@
       <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="16" t="str">
         <f>B12&amp;" - "&amp;C12</f>
         <v>Mobile app development - CAA2</v>
@@ -3513,7 +3517,7 @@
       </c>
       <c r="H12" s="14">
         <f ca="1">IF(F12&gt;TODAY(), "Not Started", IF(TODAY()&gt;G12, "Finished", IF(G12=TODAY(), "Due Today", G12-TODAY())))</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I12" s="34">
         <v>45765</v>
@@ -3672,7 +3676,7 @@
       <c r="EC12" s="13"/>
       <c r="ED12" s="2"/>
     </row>
-    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>14</v>
@@ -3680,7 +3684,9 @@
       <c r="C13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="15" t="str">
         <f t="shared" si="20"/>
         <v>Network and System administration - CA1</v>
@@ -3693,7 +3699,7 @@
       </c>
       <c r="H13" s="14">
         <f t="shared" ref="H13:H35" ca="1" si="21">IF(F13&gt;TODAY(), "Not Started", IF(TODAY()&gt;G13, "Finished", IF(G13=TODAY(), "Due Today", G13-TODAY())))</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I13" s="34">
         <v>45747</v>
@@ -3852,7 +3858,7 @@
       <c r="EC13" s="12"/>
       <c r="ED13" s="2"/>
     </row>
-    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
         <v>19</v>
@@ -3873,7 +3879,7 @@
       </c>
       <c r="H14" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
@@ -4044,7 +4050,7 @@
       <c r="EC14" s="13"/>
       <c r="ED14" s="2"/>
     </row>
-    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -4216,7 +4222,7 @@
       <c r="EC15" s="12"/>
       <c r="ED15" s="2"/>
     </row>
-    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
         <v>33</v>
@@ -4237,7 +4243,7 @@
       </c>
       <c r="H16" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
@@ -4420,7 +4426,7 @@
       <c r="EC16" s="13"/>
       <c r="ED16" s="2"/>
     </row>
-    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
@@ -4439,9 +4445,9 @@
       <c r="G17" s="6">
         <v>45760</v>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>26</v>
       </c>
       <c r="I17" s="34">
         <v>45774</v>
@@ -4628,7 +4634,7 @@
       <c r="EC17" s="12"/>
       <c r="ED17" s="2"/>
     </row>
-    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
         <v>27</v>
@@ -4822,7 +4828,7 @@
       <c r="EC18" s="12"/>
       <c r="ED18" s="2"/>
     </row>
-    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="18" t="s">
         <v>8</v>
@@ -4841,9 +4847,9 @@
       <c r="G19" s="6">
         <v>45761</v>
       </c>
-      <c r="H19" s="14" t="str">
+      <c r="H19" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>27</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -5026,7 +5032,7 @@
       <c r="EC19" s="13"/>
       <c r="ED19" s="2"/>
     </row>
-    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>19</v>
@@ -5232,7 +5238,7 @@
       <c r="EC20" s="12"/>
       <c r="ED20" s="2"/>
     </row>
-    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>24</v>
@@ -5404,7 +5410,7 @@
       <c r="EC21" s="13"/>
       <c r="ED21" s="2"/>
     </row>
-    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>14</v>
@@ -5584,7 +5590,7 @@
       <c r="EC22" s="12"/>
       <c r="ED22" s="2"/>
     </row>
-    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
         <v>33</v>
@@ -5804,7 +5810,7 @@
       <c r="EC23" s="13"/>
       <c r="ED23" s="2"/>
     </row>
-    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
         <v>27</v>
@@ -6012,7 +6018,7 @@
       <c r="EC24" s="13"/>
       <c r="ED24" s="2"/>
     </row>
-    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="18" t="s">
         <v>24</v>
@@ -6220,7 +6226,7 @@
       <c r="EC25" s="12"/>
       <c r="ED25" s="2"/>
     </row>
-    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -6426,7 +6432,7 @@
       <c r="EC26" s="13"/>
       <c r="ED26" s="2"/>
     </row>
-    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -6618,7 +6624,7 @@
       <c r="EC27" s="12"/>
       <c r="ED27" s="2"/>
     </row>
-    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
         <v>14</v>
@@ -6798,7 +6804,7 @@
       <c r="EC28" s="13"/>
       <c r="ED28" s="2"/>
     </row>
-    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="17" t="s">
         <v>24</v>
@@ -6970,7 +6976,7 @@
       <c r="EC29" s="12"/>
       <c r="ED29" s="2"/>
     </row>
-    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="17" t="s">
         <v>14</v>
@@ -7262,7 +7268,7 @@
       <c r="EC30" s="13"/>
       <c r="ED30" s="2"/>
     </row>
-    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
@@ -7540,7 +7546,7 @@
       <c r="EC31" s="12"/>
       <c r="ED31" s="2"/>
     </row>
-    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>27</v>
@@ -7734,7 +7740,7 @@
       <c r="EC32" s="12"/>
       <c r="ED32" s="2"/>
     </row>
-    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="17" t="s">
         <v>33</v>
@@ -7940,7 +7946,7 @@
       <c r="EC33" s="13"/>
       <c r="ED33" s="2"/>
     </row>
-    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
         <v>24</v>
@@ -8148,7 +8154,7 @@
       <c r="EC34" s="12"/>
       <c r="ED34" s="2"/>
     </row>
-    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
@@ -8354,7 +8360,7 @@
       <c r="EC35" s="13"/>
       <c r="ED35" s="2"/>
     </row>
-    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>19</v>
@@ -8558,7 +8564,7 @@
       <c r="EC36" s="12"/>
       <c r="ED36" s="2"/>
     </row>
-    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
         <v>33</v>
@@ -8720,7 +8726,7 @@
       <c r="EC37" s="13"/>
       <c r="ED37" s="2"/>
     </row>
-    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
         <v>33</v>
@@ -8872,7 +8878,7 @@
       <c r="EC38" s="13"/>
       <c r="ED38" s="2"/>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:134" x14ac:dyDescent="0.2">
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -9004,6 +9010,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:AX3"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="DW7:EC7"/>
     <mergeCell ref="AX7:BD7"/>
@@ -9020,39 +9059,6 @@
     <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:AX3"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasdalessandro/Desktop/UOC-2025-01/zz_utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7952C4-E403-E74D-82BD-276FDBDED2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BDD10-1BA6-474C-9E2D-1450D1222FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="25440" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="65">
   <si>
     <t>Start date</t>
   </si>
@@ -838,39 +838,6 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,8 +856,41 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,32 +1263,32 @@
       <pane xSplit="8" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="32.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="133" width="3.83203125" style="9" customWidth="1"/>
-    <col min="134" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="8.6328125" style="3"/>
+    <col min="2" max="2" width="32.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="134" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1321,337 +1321,337 @@
       <c r="AW2" s="19"/>
       <c r="AX2" s="19"/>
     </row>
-    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="J3" s="49" t="s">
+    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="J3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="42" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="42" t="s">
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="42" t="s">
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="43"/>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="43"/>
-      <c r="CS3" s="43"/>
-      <c r="CT3" s="43"/>
-      <c r="CU3" s="43"/>
-      <c r="CV3" s="43"/>
-      <c r="CW3" s="43"/>
-      <c r="CX3" s="43"/>
-      <c r="CY3" s="43"/>
-      <c r="CZ3" s="43"/>
-      <c r="DA3" s="43"/>
-      <c r="DB3" s="43"/>
-      <c r="DC3" s="43"/>
-      <c r="DD3" s="43"/>
-      <c r="DE3" s="43"/>
-      <c r="DF3" s="44"/>
-      <c r="DG3" s="45" t="s">
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="42"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="42"/>
+      <c r="CU3" s="42"/>
+      <c r="CV3" s="42"/>
+      <c r="CW3" s="42"/>
+      <c r="CX3" s="42"/>
+      <c r="CY3" s="42"/>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="42"/>
+      <c r="DB3" s="42"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="43"/>
-      <c r="DI3" s="43"/>
-      <c r="DJ3" s="43"/>
-      <c r="DK3" s="43"/>
-      <c r="DL3" s="43"/>
-      <c r="DM3" s="43"/>
-      <c r="DN3" s="43"/>
-      <c r="DO3" s="43"/>
-      <c r="DP3" s="43"/>
-      <c r="DQ3" s="43"/>
-      <c r="DR3" s="43"/>
-      <c r="DS3" s="43"/>
-      <c r="DT3" s="43"/>
-      <c r="DU3" s="43"/>
-      <c r="DV3" s="43"/>
-      <c r="DW3" s="43"/>
-      <c r="DX3" s="43"/>
-      <c r="DY3" s="43"/>
-      <c r="DZ3" s="43"/>
-      <c r="EA3" s="43"/>
-      <c r="EB3" s="43"/>
-      <c r="EC3" s="43"/>
+      <c r="DH3" s="42"/>
+      <c r="DI3" s="42"/>
+      <c r="DJ3" s="42"/>
+      <c r="DK3" s="42"/>
+      <c r="DL3" s="42"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="42"/>
+      <c r="DS3" s="42"/>
+      <c r="DT3" s="42"/>
+      <c r="DU3" s="42"/>
+      <c r="DV3" s="42"/>
+      <c r="DW3" s="42"/>
+      <c r="DX3" s="42"/>
+      <c r="DY3" s="42"/>
+      <c r="DZ3" s="42"/>
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="42"/>
+      <c r="EC3" s="42"/>
     </row>
-    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="J4" s="41" t="s">
+    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41" t="s">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41" t="s">
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41" t="s">
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41" t="s">
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41" t="s">
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41" t="s">
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="48"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="48"/>
+      <c r="BS4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41" t="s">
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41" t="s">
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="48"/>
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="48"/>
+      <c r="CG4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41" t="s">
+      <c r="CH4" s="48"/>
+      <c r="CI4" s="48"/>
+      <c r="CJ4" s="48"/>
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="48"/>
+      <c r="CM4" s="48"/>
+      <c r="CN4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41" t="s">
+      <c r="CO4" s="48"/>
+      <c r="CP4" s="48"/>
+      <c r="CQ4" s="48"/>
+      <c r="CR4" s="48"/>
+      <c r="CS4" s="48"/>
+      <c r="CT4" s="48"/>
+      <c r="CU4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41" t="s">
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
+      <c r="CX4" s="48"/>
+      <c r="CY4" s="48"/>
+      <c r="CZ4" s="48"/>
+      <c r="DA4" s="48"/>
+      <c r="DB4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41"/>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41" t="s">
+      <c r="DC4" s="48"/>
+      <c r="DD4" s="48"/>
+      <c r="DE4" s="48"/>
+      <c r="DF4" s="48"/>
+      <c r="DG4" s="48"/>
+      <c r="DH4" s="48"/>
+      <c r="DI4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41" t="s">
+      <c r="DJ4" s="48"/>
+      <c r="DK4" s="48"/>
+      <c r="DL4" s="48"/>
+      <c r="DM4" s="48"/>
+      <c r="DN4" s="48"/>
+      <c r="DO4" s="48"/>
+      <c r="DP4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41"/>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41" t="s">
+      <c r="DQ4" s="48"/>
+      <c r="DR4" s="48"/>
+      <c r="DS4" s="48"/>
+      <c r="DT4" s="48"/>
+      <c r="DU4" s="48"/>
+      <c r="DV4" s="48"/>
+      <c r="DW4" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
+      <c r="DX4" s="48"/>
+      <c r="DY4" s="48"/>
+      <c r="DZ4" s="48"/>
+      <c r="EA4" s="48"/>
+      <c r="EB4" s="48"/>
+      <c r="EC4" s="48"/>
       <c r="ED4" s="2"/>
     </row>
-    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2034,13 +2034,13 @@
       </c>
       <c r="ED5" s="7"/>
     </row>
-    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2543,198 +2543,198 @@
       </c>
       <c r="ED6" s="2"/>
     </row>
-    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="46" t="s">
+    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="38">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="44">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="38">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="44">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="38">
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="44">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="38">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="44">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="38">
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="44">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="38">
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="44">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="38">
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="44">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="38">
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="44">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="40"/>
-      <c r="BS7" s="38">
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BR7" s="46"/>
+      <c r="BS7" s="44">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>63</v>
       </c>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="40"/>
-      <c r="BZ7" s="38">
+      <c r="BT7" s="45"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="45"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="45"/>
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="44">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>56</v>
       </c>
-      <c r="CA7" s="39"/>
-      <c r="CB7" s="39"/>
-      <c r="CC7" s="39"/>
-      <c r="CD7" s="39"/>
-      <c r="CE7" s="39"/>
-      <c r="CF7" s="40"/>
-      <c r="CG7" s="38">
+      <c r="CA7" s="45"/>
+      <c r="CB7" s="45"/>
+      <c r="CC7" s="45"/>
+      <c r="CD7" s="45"/>
+      <c r="CE7" s="45"/>
+      <c r="CF7" s="46"/>
+      <c r="CG7" s="44">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>49</v>
       </c>
-      <c r="CH7" s="39"/>
-      <c r="CI7" s="39"/>
-      <c r="CJ7" s="39"/>
-      <c r="CK7" s="39"/>
-      <c r="CL7" s="39"/>
-      <c r="CM7" s="40"/>
-      <c r="CN7" s="38">
+      <c r="CH7" s="45"/>
+      <c r="CI7" s="45"/>
+      <c r="CJ7" s="45"/>
+      <c r="CK7" s="45"/>
+      <c r="CL7" s="45"/>
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="44">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>59</v>
       </c>
-      <c r="CO7" s="39"/>
-      <c r="CP7" s="39"/>
-      <c r="CQ7" s="39"/>
-      <c r="CR7" s="39"/>
-      <c r="CS7" s="39"/>
-      <c r="CT7" s="40"/>
-      <c r="CU7" s="38">
+      <c r="CO7" s="45"/>
+      <c r="CP7" s="45"/>
+      <c r="CQ7" s="45"/>
+      <c r="CR7" s="45"/>
+      <c r="CS7" s="45"/>
+      <c r="CT7" s="46"/>
+      <c r="CU7" s="44">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="39"/>
-      <c r="CW7" s="39"/>
-      <c r="CX7" s="39"/>
-      <c r="CY7" s="39"/>
-      <c r="CZ7" s="39"/>
-      <c r="DA7" s="40"/>
-      <c r="DB7" s="38">
+      <c r="CV7" s="45"/>
+      <c r="CW7" s="45"/>
+      <c r="CX7" s="45"/>
+      <c r="CY7" s="45"/>
+      <c r="CZ7" s="45"/>
+      <c r="DA7" s="46"/>
+      <c r="DB7" s="44">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="39"/>
-      <c r="DD7" s="39"/>
-      <c r="DE7" s="39"/>
-      <c r="DF7" s="39"/>
-      <c r="DG7" s="39"/>
-      <c r="DH7" s="40"/>
-      <c r="DI7" s="38">
+      <c r="DC7" s="45"/>
+      <c r="DD7" s="45"/>
+      <c r="DE7" s="45"/>
+      <c r="DF7" s="45"/>
+      <c r="DG7" s="45"/>
+      <c r="DH7" s="46"/>
+      <c r="DI7" s="44">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="39"/>
-      <c r="DK7" s="39"/>
-      <c r="DL7" s="39"/>
-      <c r="DM7" s="39"/>
-      <c r="DN7" s="39"/>
-      <c r="DO7" s="40"/>
-      <c r="DP7" s="38">
+      <c r="DJ7" s="45"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="46"/>
+      <c r="DP7" s="44">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="39"/>
-      <c r="DR7" s="39"/>
-      <c r="DS7" s="39"/>
-      <c r="DT7" s="39"/>
-      <c r="DU7" s="39"/>
-      <c r="DV7" s="40"/>
-      <c r="DW7" s="38">
+      <c r="DQ7" s="45"/>
+      <c r="DR7" s="45"/>
+      <c r="DS7" s="45"/>
+      <c r="DT7" s="45"/>
+      <c r="DU7" s="45"/>
+      <c r="DV7" s="46"/>
+      <c r="DW7" s="44">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="39"/>
-      <c r="DY7" s="39"/>
-      <c r="DZ7" s="39"/>
-      <c r="EA7" s="39"/>
-      <c r="EB7" s="39"/>
-      <c r="EC7" s="40"/>
+      <c r="DX7" s="45"/>
+      <c r="DY7" s="45"/>
+      <c r="DZ7" s="45"/>
+      <c r="EA7" s="45"/>
+      <c r="EB7" s="45"/>
+      <c r="EC7" s="46"/>
       <c r="ED7" s="2"/>
     </row>
-    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="EC8" s="11"/>
       <c r="ED8" s="2"/>
     </row>
-    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="EC9" s="12"/>
       <c r="ED9" s="2"/>
     </row>
-    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="EC10" s="12"/>
       <c r="ED10" s="2"/>
     </row>
-    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -3494,7 +3494,7 @@
       <c r="EC11" s="13"/>
       <c r="ED11" s="2"/>
     </row>
-    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
         <v>27</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H12" s="14">
         <f ca="1">IF(F12&gt;TODAY(), "Not Started", IF(TODAY()&gt;G12, "Finished", IF(G12=TODAY(), "Due Today", G12-TODAY())))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="34">
         <v>45765</v>
@@ -3676,7 +3676,7 @@
       <c r="EC12" s="13"/>
       <c r="ED12" s="2"/>
     </row>
-    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>14</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="H13" s="14">
         <f t="shared" ref="H13:H35" ca="1" si="21">IF(F13&gt;TODAY(), "Not Started", IF(TODAY()&gt;G13, "Finished", IF(G13=TODAY(), "Due Today", G13-TODAY())))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="34">
         <v>45747</v>
@@ -3858,7 +3858,7 @@
       <c r="EC13" s="12"/>
       <c r="ED13" s="2"/>
     </row>
-    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
         <v>19</v>
@@ -3866,7 +3866,9 @@
       <c r="C14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="16" t="str">
         <f t="shared" si="20"/>
         <v>Software Design Patterns - CAT1</v>
@@ -3879,7 +3881,7 @@
       </c>
       <c r="H14" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
@@ -4050,7 +4052,7 @@
       <c r="EC14" s="13"/>
       <c r="ED14" s="2"/>
     </row>
-    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -4222,7 +4224,7 @@
       <c r="EC15" s="12"/>
       <c r="ED15" s="2"/>
     </row>
-    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
         <v>33</v>
@@ -4243,7 +4245,7 @@
       </c>
       <c r="H16" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
@@ -4426,7 +4428,7 @@
       <c r="EC16" s="13"/>
       <c r="ED16" s="2"/>
     </row>
-    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
@@ -4447,7 +4449,7 @@
       </c>
       <c r="H17" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="34">
         <v>45774</v>
@@ -4634,7 +4636,7 @@
       <c r="EC17" s="12"/>
       <c r="ED17" s="2"/>
     </row>
-    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
         <v>27</v>
@@ -4828,7 +4830,7 @@
       <c r="EC18" s="12"/>
       <c r="ED18" s="2"/>
     </row>
-    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="18" t="s">
         <v>8</v>
@@ -4849,7 +4851,7 @@
       </c>
       <c r="H19" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -5032,7 +5034,7 @@
       <c r="EC19" s="13"/>
       <c r="ED19" s="2"/>
     </row>
-    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>19</v>
@@ -5238,7 +5240,7 @@
       <c r="EC20" s="12"/>
       <c r="ED20" s="2"/>
     </row>
-    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>24</v>
@@ -5410,7 +5412,7 @@
       <c r="EC21" s="13"/>
       <c r="ED21" s="2"/>
     </row>
-    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>14</v>
@@ -5590,7 +5592,7 @@
       <c r="EC22" s="12"/>
       <c r="ED22" s="2"/>
     </row>
-    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
         <v>33</v>
@@ -5810,7 +5812,7 @@
       <c r="EC23" s="13"/>
       <c r="ED23" s="2"/>
     </row>
-    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
         <v>27</v>
@@ -6018,7 +6020,7 @@
       <c r="EC24" s="13"/>
       <c r="ED24" s="2"/>
     </row>
-    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="18" t="s">
         <v>24</v>
@@ -6226,7 +6228,7 @@
       <c r="EC25" s="12"/>
       <c r="ED25" s="2"/>
     </row>
-    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -6432,7 +6434,7 @@
       <c r="EC26" s="13"/>
       <c r="ED26" s="2"/>
     </row>
-    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -6624,7 +6626,7 @@
       <c r="EC27" s="12"/>
       <c r="ED27" s="2"/>
     </row>
-    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
         <v>14</v>
@@ -6804,7 +6806,7 @@
       <c r="EC28" s="13"/>
       <c r="ED28" s="2"/>
     </row>
-    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="17" t="s">
         <v>24</v>
@@ -6976,7 +6978,7 @@
       <c r="EC29" s="12"/>
       <c r="ED29" s="2"/>
     </row>
-    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="17" t="s">
         <v>14</v>
@@ -7268,7 +7270,7 @@
       <c r="EC30" s="13"/>
       <c r="ED30" s="2"/>
     </row>
-    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
@@ -7546,7 +7548,7 @@
       <c r="EC31" s="12"/>
       <c r="ED31" s="2"/>
     </row>
-    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>27</v>
@@ -7740,7 +7742,7 @@
       <c r="EC32" s="12"/>
       <c r="ED32" s="2"/>
     </row>
-    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="17" t="s">
         <v>33</v>
@@ -7946,7 +7948,7 @@
       <c r="EC33" s="13"/>
       <c r="ED33" s="2"/>
     </row>
-    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
         <v>24</v>
@@ -8154,7 +8156,7 @@
       <c r="EC34" s="12"/>
       <c r="ED34" s="2"/>
     </row>
-    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
@@ -8360,7 +8362,7 @@
       <c r="EC35" s="13"/>
       <c r="ED35" s="2"/>
     </row>
-    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>19</v>
@@ -8564,7 +8566,7 @@
       <c r="EC36" s="12"/>
       <c r="ED36" s="2"/>
     </row>
-    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
         <v>33</v>
@@ -8726,7 +8728,7 @@
       <c r="EC37" s="13"/>
       <c r="ED37" s="2"/>
     </row>
-    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
         <v>33</v>
@@ -8878,7 +8880,7 @@
       <c r="EC38" s="13"/>
       <c r="ED38" s="2"/>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:134" x14ac:dyDescent="0.35">
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -9010,6 +9012,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="DW7:EC7"/>
+    <mergeCell ref="AX7:BD7"/>
+    <mergeCell ref="BE7:BK7"/>
+    <mergeCell ref="BL7:BR7"/>
+    <mergeCell ref="BS7:BY7"/>
+    <mergeCell ref="BZ7:CF7"/>
+    <mergeCell ref="CG7:CM7"/>
+    <mergeCell ref="CN7:CT7"/>
+    <mergeCell ref="CU7:DA7"/>
+    <mergeCell ref="DB7:DH7"/>
+    <mergeCell ref="DI7:DO7"/>
+    <mergeCell ref="DP7:DV7"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -9026,39 +9061,6 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="DW7:EC7"/>
-    <mergeCell ref="AX7:BD7"/>
-    <mergeCell ref="BE7:BK7"/>
-    <mergeCell ref="BL7:BR7"/>
-    <mergeCell ref="BS7:BY7"/>
-    <mergeCell ref="BZ7:CF7"/>
-    <mergeCell ref="CG7:CM7"/>
-    <mergeCell ref="CN7:CT7"/>
-    <mergeCell ref="CU7:DA7"/>
-    <mergeCell ref="DB7:DH7"/>
-    <mergeCell ref="DI7:DO7"/>
-    <mergeCell ref="DP7:DV7"/>
-    <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="DB4:DH4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BDD10-1BA6-474C-9E2D-1450D1222FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C92253-3612-42E3-82AD-111F38CFE8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="65">
   <si>
     <t>Start date</t>
   </si>
@@ -838,6 +838,39 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,41 +889,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,7 +1260,7 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:H4"/>
@@ -1280,15 +1280,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1322,336 +1322,336 @@
       <c r="AX2" s="19"/>
     </row>
     <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="J3" s="38" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="41" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="41" t="s">
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="42"/>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="42"/>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42"/>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42"/>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="42"/>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="42"/>
-      <c r="CU3" s="42"/>
-      <c r="CV3" s="42"/>
-      <c r="CW3" s="42"/>
-      <c r="CX3" s="42"/>
-      <c r="CY3" s="42"/>
-      <c r="CZ3" s="42"/>
-      <c r="DA3" s="42"/>
-      <c r="DB3" s="42"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="43"/>
-      <c r="DG3" s="49" t="s">
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="43"/>
+      <c r="CW3" s="43"/>
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="42"/>
-      <c r="DI3" s="42"/>
-      <c r="DJ3" s="42"/>
-      <c r="DK3" s="42"/>
-      <c r="DL3" s="42"/>
-      <c r="DM3" s="42"/>
-      <c r="DN3" s="42"/>
-      <c r="DO3" s="42"/>
-      <c r="DP3" s="42"/>
-      <c r="DQ3" s="42"/>
-      <c r="DR3" s="42"/>
-      <c r="DS3" s="42"/>
-      <c r="DT3" s="42"/>
-      <c r="DU3" s="42"/>
-      <c r="DV3" s="42"/>
-      <c r="DW3" s="42"/>
-      <c r="DX3" s="42"/>
-      <c r="DY3" s="42"/>
-      <c r="DZ3" s="42"/>
-      <c r="EA3" s="42"/>
-      <c r="EB3" s="42"/>
-      <c r="EC3" s="42"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="43"/>
+      <c r="DK3" s="43"/>
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="43"/>
+      <c r="DS3" s="43"/>
+      <c r="DT3" s="43"/>
+      <c r="DU3" s="43"/>
+      <c r="DV3" s="43"/>
+      <c r="DW3" s="43"/>
+      <c r="DX3" s="43"/>
+      <c r="DY3" s="43"/>
+      <c r="DZ3" s="43"/>
+      <c r="EA3" s="43"/>
+      <c r="EB3" s="43"/>
+      <c r="EC3" s="43"/>
     </row>
     <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="J4" s="48" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="J4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48" t="s">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48" t="s">
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48" t="s">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48" t="s">
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="48" t="s">
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="48" t="s">
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="48"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="48"/>
-      <c r="BP4" s="48"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="48"/>
-      <c r="BS4" s="48" t="s">
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="48"/>
-      <c r="BV4" s="48"/>
-      <c r="BW4" s="48"/>
-      <c r="BX4" s="48"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="48" t="s">
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="48"/>
-      <c r="CB4" s="48"/>
-      <c r="CC4" s="48"/>
-      <c r="CD4" s="48"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="48"/>
-      <c r="CG4" s="48" t="s">
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="48"/>
-      <c r="CI4" s="48"/>
-      <c r="CJ4" s="48"/>
-      <c r="CK4" s="48"/>
-      <c r="CL4" s="48"/>
-      <c r="CM4" s="48"/>
-      <c r="CN4" s="48" t="s">
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="48"/>
-      <c r="CP4" s="48"/>
-      <c r="CQ4" s="48"/>
-      <c r="CR4" s="48"/>
-      <c r="CS4" s="48"/>
-      <c r="CT4" s="48"/>
-      <c r="CU4" s="48" t="s">
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="48"/>
-      <c r="CW4" s="48"/>
-      <c r="CX4" s="48"/>
-      <c r="CY4" s="48"/>
-      <c r="CZ4" s="48"/>
-      <c r="DA4" s="48"/>
-      <c r="DB4" s="48" t="s">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="48"/>
-      <c r="DD4" s="48"/>
-      <c r="DE4" s="48"/>
-      <c r="DF4" s="48"/>
-      <c r="DG4" s="48"/>
-      <c r="DH4" s="48"/>
-      <c r="DI4" s="48" t="s">
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41"/>
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="48"/>
-      <c r="DK4" s="48"/>
-      <c r="DL4" s="48"/>
-      <c r="DM4" s="48"/>
-      <c r="DN4" s="48"/>
-      <c r="DO4" s="48"/>
-      <c r="DP4" s="48" t="s">
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="48"/>
-      <c r="DR4" s="48"/>
-      <c r="DS4" s="48"/>
-      <c r="DT4" s="48"/>
-      <c r="DU4" s="48"/>
-      <c r="DV4" s="48"/>
-      <c r="DW4" s="48" t="s">
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41"/>
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="48"/>
-      <c r="DY4" s="48"/>
-      <c r="DZ4" s="48"/>
-      <c r="EA4" s="48"/>
-      <c r="EB4" s="48"/>
-      <c r="EC4" s="48"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
       <c r="ED4" s="2"/>
     </row>
     <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2035,12 +2035,12 @@
       <c r="ED5" s="7"/>
     </row>
     <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2544,194 +2544,194 @@
       <c r="ED6" s="2"/>
     </row>
     <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="35" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="44">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="38">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="44">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="38">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="44">
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="44">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="38">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="44">
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="38">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="44">
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="38">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="44">
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="38">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="45"/>
-      <c r="BG7" s="45"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="44">
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="38">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="45"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="46"/>
-      <c r="BS7" s="44">
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="38">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>63</v>
       </c>
-      <c r="BT7" s="45"/>
-      <c r="BU7" s="45"/>
-      <c r="BV7" s="45"/>
-      <c r="BW7" s="45"/>
-      <c r="BX7" s="45"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="44">
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="38">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>56</v>
       </c>
-      <c r="CA7" s="45"/>
-      <c r="CB7" s="45"/>
-      <c r="CC7" s="45"/>
-      <c r="CD7" s="45"/>
-      <c r="CE7" s="45"/>
-      <c r="CF7" s="46"/>
-      <c r="CG7" s="44">
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="39"/>
+      <c r="CC7" s="39"/>
+      <c r="CD7" s="39"/>
+      <c r="CE7" s="39"/>
+      <c r="CF7" s="40"/>
+      <c r="CG7" s="38">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>49</v>
       </c>
-      <c r="CH7" s="45"/>
-      <c r="CI7" s="45"/>
-      <c r="CJ7" s="45"/>
-      <c r="CK7" s="45"/>
-      <c r="CL7" s="45"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="44">
+      <c r="CH7" s="39"/>
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="39"/>
+      <c r="CK7" s="39"/>
+      <c r="CL7" s="39"/>
+      <c r="CM7" s="40"/>
+      <c r="CN7" s="38">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>59</v>
       </c>
-      <c r="CO7" s="45"/>
-      <c r="CP7" s="45"/>
-      <c r="CQ7" s="45"/>
-      <c r="CR7" s="45"/>
-      <c r="CS7" s="45"/>
-      <c r="CT7" s="46"/>
-      <c r="CU7" s="44">
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="39"/>
+      <c r="CQ7" s="39"/>
+      <c r="CR7" s="39"/>
+      <c r="CS7" s="39"/>
+      <c r="CT7" s="40"/>
+      <c r="CU7" s="38">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="45"/>
-      <c r="CW7" s="45"/>
-      <c r="CX7" s="45"/>
-      <c r="CY7" s="45"/>
-      <c r="CZ7" s="45"/>
-      <c r="DA7" s="46"/>
-      <c r="DB7" s="44">
+      <c r="CV7" s="39"/>
+      <c r="CW7" s="39"/>
+      <c r="CX7" s="39"/>
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="39"/>
+      <c r="DA7" s="40"/>
+      <c r="DB7" s="38">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="45"/>
-      <c r="DD7" s="45"/>
-      <c r="DE7" s="45"/>
-      <c r="DF7" s="45"/>
-      <c r="DG7" s="45"/>
-      <c r="DH7" s="46"/>
-      <c r="DI7" s="44">
+      <c r="DC7" s="39"/>
+      <c r="DD7" s="39"/>
+      <c r="DE7" s="39"/>
+      <c r="DF7" s="39"/>
+      <c r="DG7" s="39"/>
+      <c r="DH7" s="40"/>
+      <c r="DI7" s="38">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="45"/>
-      <c r="DK7" s="45"/>
-      <c r="DL7" s="45"/>
-      <c r="DM7" s="45"/>
-      <c r="DN7" s="45"/>
-      <c r="DO7" s="46"/>
-      <c r="DP7" s="44">
+      <c r="DJ7" s="39"/>
+      <c r="DK7" s="39"/>
+      <c r="DL7" s="39"/>
+      <c r="DM7" s="39"/>
+      <c r="DN7" s="39"/>
+      <c r="DO7" s="40"/>
+      <c r="DP7" s="38">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="45"/>
-      <c r="DR7" s="45"/>
-      <c r="DS7" s="45"/>
-      <c r="DT7" s="45"/>
-      <c r="DU7" s="45"/>
-      <c r="DV7" s="46"/>
-      <c r="DW7" s="44">
+      <c r="DQ7" s="39"/>
+      <c r="DR7" s="39"/>
+      <c r="DS7" s="39"/>
+      <c r="DT7" s="39"/>
+      <c r="DU7" s="39"/>
+      <c r="DV7" s="40"/>
+      <c r="DW7" s="38">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="45"/>
-      <c r="DY7" s="45"/>
-      <c r="DZ7" s="45"/>
-      <c r="EA7" s="45"/>
-      <c r="EB7" s="45"/>
-      <c r="EC7" s="46"/>
+      <c r="DX7" s="39"/>
+      <c r="DY7" s="39"/>
+      <c r="DZ7" s="39"/>
+      <c r="EA7" s="39"/>
+      <c r="EB7" s="39"/>
+      <c r="EC7" s="40"/>
       <c r="ED7" s="2"/>
     </row>
     <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -3515,9 +3515,9 @@
       <c r="G12" s="10">
         <v>45739</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="14" t="str">
         <f ca="1">IF(F12&gt;TODAY(), "Not Started", IF(TODAY()&gt;G12, "Finished", IF(G12=TODAY(), "Due Today", G12-TODAY())))</f>
-        <v>4</v>
+        <v>Finished</v>
       </c>
       <c r="I12" s="34">
         <v>45765</v>
@@ -3697,9 +3697,9 @@
       <c r="G13" s="6">
         <v>45739</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="14" t="str">
         <f t="shared" ref="H13:H35" ca="1" si="21">IF(F13&gt;TODAY(), "Not Started", IF(TODAY()&gt;G13, "Finished", IF(G13=TODAY(), "Due Today", G13-TODAY())))</f>
-        <v>4</v>
+        <v>Finished</v>
       </c>
       <c r="I13" s="34">
         <v>45747</v>
@@ -3879,9 +3879,9 @@
       <c r="G14" s="10">
         <v>45741</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>Due Today</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
@@ -4060,7 +4060,9 @@
       <c r="C15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="15" t="str">
         <f t="shared" si="20"/>
         <v>Networks and Internet Applications - CA1</v>
@@ -4071,9 +4073,9 @@
       <c r="G15" s="6">
         <v>45746</v>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>5</v>
       </c>
       <c r="I15" s="34">
         <v>45760</v>
@@ -4245,7 +4247,7 @@
       </c>
       <c r="H16" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
@@ -4449,7 +4451,7 @@
       </c>
       <c r="H17" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I17" s="34">
         <v>45774</v>
@@ -4655,9 +4657,9 @@
       <c r="G18" s="10">
         <v>45760</v>
       </c>
-      <c r="H18" s="14" t="str">
+      <c r="H18" s="14">
         <f ca="1">IF(F18&gt;TODAY(), "Not Started", IF(TODAY()&gt;G18, "Finished", IF(G18=TODAY(), "Due Today", G18-TODAY())))</f>
-        <v>Not Started</v>
+        <v>19</v>
       </c>
       <c r="I18" s="34">
         <v>45786</v>
@@ -4851,7 +4853,7 @@
       </c>
       <c r="H19" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -6997,9 +6999,9 @@
       <c r="G30" s="10">
         <v>45809</v>
       </c>
-      <c r="H30" s="14" t="str">
+      <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>Not Started</v>
+        <v>68</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -9012,6 +9014,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:AX3"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="DW7:EC7"/>
     <mergeCell ref="AX7:BD7"/>
@@ -9028,39 +9063,6 @@
     <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:AX3"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C92253-3612-42E3-82AD-111F38CFE8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7E7D2-6DF2-4ED7-8BB3-AEE5F649C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="65">
   <si>
     <t>Start date</t>
   </si>
@@ -838,39 +838,6 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,8 +856,41 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,10 +1260,10 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="X8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:H4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,20 +1275,21 @@
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="10" max="42" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="43" max="133" width="3.81640625" style="9" customWidth="1"/>
     <col min="134" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1322,336 +1323,336 @@
       <c r="AX2" s="19"/>
     </row>
     <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="J3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="J3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="42" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="42" t="s">
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="42" t="s">
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="43"/>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="43"/>
-      <c r="CS3" s="43"/>
-      <c r="CT3" s="43"/>
-      <c r="CU3" s="43"/>
-      <c r="CV3" s="43"/>
-      <c r="CW3" s="43"/>
-      <c r="CX3" s="43"/>
-      <c r="CY3" s="43"/>
-      <c r="CZ3" s="43"/>
-      <c r="DA3" s="43"/>
-      <c r="DB3" s="43"/>
-      <c r="DC3" s="43"/>
-      <c r="DD3" s="43"/>
-      <c r="DE3" s="43"/>
-      <c r="DF3" s="44"/>
-      <c r="DG3" s="45" t="s">
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="42"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="42"/>
+      <c r="CU3" s="42"/>
+      <c r="CV3" s="42"/>
+      <c r="CW3" s="42"/>
+      <c r="CX3" s="42"/>
+      <c r="CY3" s="42"/>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="42"/>
+      <c r="DB3" s="42"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="43"/>
-      <c r="DI3" s="43"/>
-      <c r="DJ3" s="43"/>
-      <c r="DK3" s="43"/>
-      <c r="DL3" s="43"/>
-      <c r="DM3" s="43"/>
-      <c r="DN3" s="43"/>
-      <c r="DO3" s="43"/>
-      <c r="DP3" s="43"/>
-      <c r="DQ3" s="43"/>
-      <c r="DR3" s="43"/>
-      <c r="DS3" s="43"/>
-      <c r="DT3" s="43"/>
-      <c r="DU3" s="43"/>
-      <c r="DV3" s="43"/>
-      <c r="DW3" s="43"/>
-      <c r="DX3" s="43"/>
-      <c r="DY3" s="43"/>
-      <c r="DZ3" s="43"/>
-      <c r="EA3" s="43"/>
-      <c r="EB3" s="43"/>
-      <c r="EC3" s="43"/>
+      <c r="DH3" s="42"/>
+      <c r="DI3" s="42"/>
+      <c r="DJ3" s="42"/>
+      <c r="DK3" s="42"/>
+      <c r="DL3" s="42"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="42"/>
+      <c r="DS3" s="42"/>
+      <c r="DT3" s="42"/>
+      <c r="DU3" s="42"/>
+      <c r="DV3" s="42"/>
+      <c r="DW3" s="42"/>
+      <c r="DX3" s="42"/>
+      <c r="DY3" s="42"/>
+      <c r="DZ3" s="42"/>
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="42"/>
+      <c r="EC3" s="42"/>
     </row>
     <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="J4" s="41" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41" t="s">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41" t="s">
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41" t="s">
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41" t="s">
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41" t="s">
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41" t="s">
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="48"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="48"/>
+      <c r="BS4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41" t="s">
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41" t="s">
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="48"/>
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="48"/>
+      <c r="CG4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41" t="s">
+      <c r="CH4" s="48"/>
+      <c r="CI4" s="48"/>
+      <c r="CJ4" s="48"/>
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="48"/>
+      <c r="CM4" s="48"/>
+      <c r="CN4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41" t="s">
+      <c r="CO4" s="48"/>
+      <c r="CP4" s="48"/>
+      <c r="CQ4" s="48"/>
+      <c r="CR4" s="48"/>
+      <c r="CS4" s="48"/>
+      <c r="CT4" s="48"/>
+      <c r="CU4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41" t="s">
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
+      <c r="CX4" s="48"/>
+      <c r="CY4" s="48"/>
+      <c r="CZ4" s="48"/>
+      <c r="DA4" s="48"/>
+      <c r="DB4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41"/>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41" t="s">
+      <c r="DC4" s="48"/>
+      <c r="DD4" s="48"/>
+      <c r="DE4" s="48"/>
+      <c r="DF4" s="48"/>
+      <c r="DG4" s="48"/>
+      <c r="DH4" s="48"/>
+      <c r="DI4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41" t="s">
+      <c r="DJ4" s="48"/>
+      <c r="DK4" s="48"/>
+      <c r="DL4" s="48"/>
+      <c r="DM4" s="48"/>
+      <c r="DN4" s="48"/>
+      <c r="DO4" s="48"/>
+      <c r="DP4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41"/>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41" t="s">
+      <c r="DQ4" s="48"/>
+      <c r="DR4" s="48"/>
+      <c r="DS4" s="48"/>
+      <c r="DT4" s="48"/>
+      <c r="DU4" s="48"/>
+      <c r="DV4" s="48"/>
+      <c r="DW4" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
+      <c r="DX4" s="48"/>
+      <c r="DY4" s="48"/>
+      <c r="DZ4" s="48"/>
+      <c r="EA4" s="48"/>
+      <c r="EB4" s="48"/>
+      <c r="EC4" s="48"/>
       <c r="ED4" s="2"/>
     </row>
     <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2035,12 +2036,12 @@
       <c r="ED5" s="7"/>
     </row>
     <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2544,194 +2545,194 @@
       <c r="ED6" s="2"/>
     </row>
     <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="46" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="38">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="44">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="38">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="44">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="38">
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="44">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="38">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="44">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="38">
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="44">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="38">
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="44">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="38">
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="44">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="38">
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="44">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="40"/>
-      <c r="BS7" s="38">
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BR7" s="46"/>
+      <c r="BS7" s="44">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>63</v>
       </c>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="40"/>
-      <c r="BZ7" s="38">
+      <c r="BT7" s="45"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="45"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="45"/>
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="44">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>56</v>
       </c>
-      <c r="CA7" s="39"/>
-      <c r="CB7" s="39"/>
-      <c r="CC7" s="39"/>
-      <c r="CD7" s="39"/>
-      <c r="CE7" s="39"/>
-      <c r="CF7" s="40"/>
-      <c r="CG7" s="38">
+      <c r="CA7" s="45"/>
+      <c r="CB7" s="45"/>
+      <c r="CC7" s="45"/>
+      <c r="CD7" s="45"/>
+      <c r="CE7" s="45"/>
+      <c r="CF7" s="46"/>
+      <c r="CG7" s="44">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>49</v>
       </c>
-      <c r="CH7" s="39"/>
-      <c r="CI7" s="39"/>
-      <c r="CJ7" s="39"/>
-      <c r="CK7" s="39"/>
-      <c r="CL7" s="39"/>
-      <c r="CM7" s="40"/>
-      <c r="CN7" s="38">
+      <c r="CH7" s="45"/>
+      <c r="CI7" s="45"/>
+      <c r="CJ7" s="45"/>
+      <c r="CK7" s="45"/>
+      <c r="CL7" s="45"/>
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="44">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>59</v>
       </c>
-      <c r="CO7" s="39"/>
-      <c r="CP7" s="39"/>
-      <c r="CQ7" s="39"/>
-      <c r="CR7" s="39"/>
-      <c r="CS7" s="39"/>
-      <c r="CT7" s="40"/>
-      <c r="CU7" s="38">
+      <c r="CO7" s="45"/>
+      <c r="CP7" s="45"/>
+      <c r="CQ7" s="45"/>
+      <c r="CR7" s="45"/>
+      <c r="CS7" s="45"/>
+      <c r="CT7" s="46"/>
+      <c r="CU7" s="44">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="39"/>
-      <c r="CW7" s="39"/>
-      <c r="CX7" s="39"/>
-      <c r="CY7" s="39"/>
-      <c r="CZ7" s="39"/>
-      <c r="DA7" s="40"/>
-      <c r="DB7" s="38">
+      <c r="CV7" s="45"/>
+      <c r="CW7" s="45"/>
+      <c r="CX7" s="45"/>
+      <c r="CY7" s="45"/>
+      <c r="CZ7" s="45"/>
+      <c r="DA7" s="46"/>
+      <c r="DB7" s="44">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="39"/>
-      <c r="DD7" s="39"/>
-      <c r="DE7" s="39"/>
-      <c r="DF7" s="39"/>
-      <c r="DG7" s="39"/>
-      <c r="DH7" s="40"/>
-      <c r="DI7" s="38">
+      <c r="DC7" s="45"/>
+      <c r="DD7" s="45"/>
+      <c r="DE7" s="45"/>
+      <c r="DF7" s="45"/>
+      <c r="DG7" s="45"/>
+      <c r="DH7" s="46"/>
+      <c r="DI7" s="44">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="39"/>
-      <c r="DK7" s="39"/>
-      <c r="DL7" s="39"/>
-      <c r="DM7" s="39"/>
-      <c r="DN7" s="39"/>
-      <c r="DO7" s="40"/>
-      <c r="DP7" s="38">
+      <c r="DJ7" s="45"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="46"/>
+      <c r="DP7" s="44">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="39"/>
-      <c r="DR7" s="39"/>
-      <c r="DS7" s="39"/>
-      <c r="DT7" s="39"/>
-      <c r="DU7" s="39"/>
-      <c r="DV7" s="40"/>
-      <c r="DW7" s="38">
+      <c r="DQ7" s="45"/>
+      <c r="DR7" s="45"/>
+      <c r="DS7" s="45"/>
+      <c r="DT7" s="45"/>
+      <c r="DU7" s="45"/>
+      <c r="DV7" s="46"/>
+      <c r="DW7" s="44">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="39"/>
-      <c r="DY7" s="39"/>
-      <c r="DZ7" s="39"/>
-      <c r="EA7" s="39"/>
-      <c r="EB7" s="39"/>
-      <c r="EC7" s="40"/>
+      <c r="DX7" s="45"/>
+      <c r="DY7" s="45"/>
+      <c r="DZ7" s="45"/>
+      <c r="EA7" s="45"/>
+      <c r="EB7" s="45"/>
+      <c r="EC7" s="46"/>
       <c r="ED7" s="2"/>
     </row>
     <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -3881,7 +3882,7 @@
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Due Today</v>
+        <v>Finished</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
@@ -4075,7 +4076,7 @@
       </c>
       <c r="H15" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="34">
         <v>45760</v>
@@ -4234,7 +4235,9 @@
       <c r="C16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="16" t="str">
         <f t="shared" si="20"/>
         <v>TFG-Localization Based Systems and Intelligent Space - CAT2</v>
@@ -4247,7 +4250,7 @@
       </c>
       <c r="H16" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
@@ -4451,7 +4454,7 @@
       </c>
       <c r="H17" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I17" s="34">
         <v>45774</v>
@@ -4659,7 +4662,7 @@
       </c>
       <c r="H18" s="14">
         <f ca="1">IF(F18&gt;TODAY(), "Not Started", IF(TODAY()&gt;G18, "Finished", IF(G18=TODAY(), "Due Today", G18-TODAY())))</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I18" s="34">
         <v>45786</v>
@@ -4853,7 +4856,7 @@
       </c>
       <c r="H19" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -5055,9 +5058,9 @@
       <c r="G20" s="10">
         <v>45769</v>
       </c>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>25</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="12"/>
@@ -7001,7 +7004,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -9014,6 +9017,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="DW7:EC7"/>
+    <mergeCell ref="AX7:BD7"/>
+    <mergeCell ref="BE7:BK7"/>
+    <mergeCell ref="BL7:BR7"/>
+    <mergeCell ref="BS7:BY7"/>
+    <mergeCell ref="BZ7:CF7"/>
+    <mergeCell ref="CG7:CM7"/>
+    <mergeCell ref="CN7:CT7"/>
+    <mergeCell ref="CU7:DA7"/>
+    <mergeCell ref="DB7:DH7"/>
+    <mergeCell ref="DI7:DO7"/>
+    <mergeCell ref="DP7:DV7"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -9030,39 +9066,6 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="DW7:EC7"/>
-    <mergeCell ref="AX7:BD7"/>
-    <mergeCell ref="BE7:BK7"/>
-    <mergeCell ref="BL7:BR7"/>
-    <mergeCell ref="BS7:BY7"/>
-    <mergeCell ref="BZ7:CF7"/>
-    <mergeCell ref="CG7:CM7"/>
-    <mergeCell ref="CN7:CT7"/>
-    <mergeCell ref="CU7:DA7"/>
-    <mergeCell ref="DB7:DH7"/>
-    <mergeCell ref="DI7:DO7"/>
-    <mergeCell ref="DP7:DV7"/>
-    <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="DB4:DH4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7E7D2-6DF2-4ED7-8BB3-AEE5F649C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684BAB17-5D9E-4650-B3B3-7F56F3B98BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,6 +838,39 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,41 +889,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,10 +1260,10 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="X8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="CB10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:D7"/>
+      <selection pane="bottomRight" activeCell="CJ14" sqref="CJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,21 +1275,21 @@
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="42" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="43" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="10" max="56" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="57" max="133" width="3.81640625" style="9" customWidth="1"/>
     <col min="134" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1323,336 +1323,336 @@
       <c r="AX2" s="19"/>
     </row>
     <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="J3" s="38" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="41" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="41" t="s">
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="42"/>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="42"/>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42"/>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42"/>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="42"/>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="42"/>
-      <c r="CU3" s="42"/>
-      <c r="CV3" s="42"/>
-      <c r="CW3" s="42"/>
-      <c r="CX3" s="42"/>
-      <c r="CY3" s="42"/>
-      <c r="CZ3" s="42"/>
-      <c r="DA3" s="42"/>
-      <c r="DB3" s="42"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="43"/>
-      <c r="DG3" s="49" t="s">
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="43"/>
+      <c r="CW3" s="43"/>
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="42"/>
-      <c r="DI3" s="42"/>
-      <c r="DJ3" s="42"/>
-      <c r="DK3" s="42"/>
-      <c r="DL3" s="42"/>
-      <c r="DM3" s="42"/>
-      <c r="DN3" s="42"/>
-      <c r="DO3" s="42"/>
-      <c r="DP3" s="42"/>
-      <c r="DQ3" s="42"/>
-      <c r="DR3" s="42"/>
-      <c r="DS3" s="42"/>
-      <c r="DT3" s="42"/>
-      <c r="DU3" s="42"/>
-      <c r="DV3" s="42"/>
-      <c r="DW3" s="42"/>
-      <c r="DX3" s="42"/>
-      <c r="DY3" s="42"/>
-      <c r="DZ3" s="42"/>
-      <c r="EA3" s="42"/>
-      <c r="EB3" s="42"/>
-      <c r="EC3" s="42"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="43"/>
+      <c r="DK3" s="43"/>
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="43"/>
+      <c r="DS3" s="43"/>
+      <c r="DT3" s="43"/>
+      <c r="DU3" s="43"/>
+      <c r="DV3" s="43"/>
+      <c r="DW3" s="43"/>
+      <c r="DX3" s="43"/>
+      <c r="DY3" s="43"/>
+      <c r="DZ3" s="43"/>
+      <c r="EA3" s="43"/>
+      <c r="EB3" s="43"/>
+      <c r="EC3" s="43"/>
     </row>
     <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="J4" s="48" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="J4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48" t="s">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48" t="s">
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48" t="s">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48" t="s">
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="48" t="s">
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="48" t="s">
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="48"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="48"/>
-      <c r="BP4" s="48"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="48"/>
-      <c r="BS4" s="48" t="s">
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="48"/>
-      <c r="BV4" s="48"/>
-      <c r="BW4" s="48"/>
-      <c r="BX4" s="48"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="48" t="s">
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="48"/>
-      <c r="CB4" s="48"/>
-      <c r="CC4" s="48"/>
-      <c r="CD4" s="48"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="48"/>
-      <c r="CG4" s="48" t="s">
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="48"/>
-      <c r="CI4" s="48"/>
-      <c r="CJ4" s="48"/>
-      <c r="CK4" s="48"/>
-      <c r="CL4" s="48"/>
-      <c r="CM4" s="48"/>
-      <c r="CN4" s="48" t="s">
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="48"/>
-      <c r="CP4" s="48"/>
-      <c r="CQ4" s="48"/>
-      <c r="CR4" s="48"/>
-      <c r="CS4" s="48"/>
-      <c r="CT4" s="48"/>
-      <c r="CU4" s="48" t="s">
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="48"/>
-      <c r="CW4" s="48"/>
-      <c r="CX4" s="48"/>
-      <c r="CY4" s="48"/>
-      <c r="CZ4" s="48"/>
-      <c r="DA4" s="48"/>
-      <c r="DB4" s="48" t="s">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="48"/>
-      <c r="DD4" s="48"/>
-      <c r="DE4" s="48"/>
-      <c r="DF4" s="48"/>
-      <c r="DG4" s="48"/>
-      <c r="DH4" s="48"/>
-      <c r="DI4" s="48" t="s">
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41"/>
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="48"/>
-      <c r="DK4" s="48"/>
-      <c r="DL4" s="48"/>
-      <c r="DM4" s="48"/>
-      <c r="DN4" s="48"/>
-      <c r="DO4" s="48"/>
-      <c r="DP4" s="48" t="s">
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="48"/>
-      <c r="DR4" s="48"/>
-      <c r="DS4" s="48"/>
-      <c r="DT4" s="48"/>
-      <c r="DU4" s="48"/>
-      <c r="DV4" s="48"/>
-      <c r="DW4" s="48" t="s">
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41"/>
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="48"/>
-      <c r="DY4" s="48"/>
-      <c r="DZ4" s="48"/>
-      <c r="EA4" s="48"/>
-      <c r="EB4" s="48"/>
-      <c r="EC4" s="48"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
       <c r="ED4" s="2"/>
     </row>
     <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2036,12 +2036,12 @@
       <c r="ED5" s="7"/>
     </row>
     <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2545,194 +2545,194 @@
       <c r="ED6" s="2"/>
     </row>
     <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="35" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="44">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="38">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="44">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="38">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="44">
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="44">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="38">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="44">
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="38">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="44">
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="38">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="44">
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="38">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="45"/>
-      <c r="BG7" s="45"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="44">
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="38">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="45"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="46"/>
-      <c r="BS7" s="44">
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="38">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>63</v>
       </c>
-      <c r="BT7" s="45"/>
-      <c r="BU7" s="45"/>
-      <c r="BV7" s="45"/>
-      <c r="BW7" s="45"/>
-      <c r="BX7" s="45"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="44">
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="38">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>56</v>
       </c>
-      <c r="CA7" s="45"/>
-      <c r="CB7" s="45"/>
-      <c r="CC7" s="45"/>
-      <c r="CD7" s="45"/>
-      <c r="CE7" s="45"/>
-      <c r="CF7" s="46"/>
-      <c r="CG7" s="44">
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="39"/>
+      <c r="CC7" s="39"/>
+      <c r="CD7" s="39"/>
+      <c r="CE7" s="39"/>
+      <c r="CF7" s="40"/>
+      <c r="CG7" s="38">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>49</v>
       </c>
-      <c r="CH7" s="45"/>
-      <c r="CI7" s="45"/>
-      <c r="CJ7" s="45"/>
-      <c r="CK7" s="45"/>
-      <c r="CL7" s="45"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="44">
+      <c r="CH7" s="39"/>
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="39"/>
+      <c r="CK7" s="39"/>
+      <c r="CL7" s="39"/>
+      <c r="CM7" s="40"/>
+      <c r="CN7" s="38">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>59</v>
       </c>
-      <c r="CO7" s="45"/>
-      <c r="CP7" s="45"/>
-      <c r="CQ7" s="45"/>
-      <c r="CR7" s="45"/>
-      <c r="CS7" s="45"/>
-      <c r="CT7" s="46"/>
-      <c r="CU7" s="44">
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="39"/>
+      <c r="CQ7" s="39"/>
+      <c r="CR7" s="39"/>
+      <c r="CS7" s="39"/>
+      <c r="CT7" s="40"/>
+      <c r="CU7" s="38">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="45"/>
-      <c r="CW7" s="45"/>
-      <c r="CX7" s="45"/>
-      <c r="CY7" s="45"/>
-      <c r="CZ7" s="45"/>
-      <c r="DA7" s="46"/>
-      <c r="DB7" s="44">
+      <c r="CV7" s="39"/>
+      <c r="CW7" s="39"/>
+      <c r="CX7" s="39"/>
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="39"/>
+      <c r="DA7" s="40"/>
+      <c r="DB7" s="38">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="45"/>
-      <c r="DD7" s="45"/>
-      <c r="DE7" s="45"/>
-      <c r="DF7" s="45"/>
-      <c r="DG7" s="45"/>
-      <c r="DH7" s="46"/>
-      <c r="DI7" s="44">
+      <c r="DC7" s="39"/>
+      <c r="DD7" s="39"/>
+      <c r="DE7" s="39"/>
+      <c r="DF7" s="39"/>
+      <c r="DG7" s="39"/>
+      <c r="DH7" s="40"/>
+      <c r="DI7" s="38">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="45"/>
-      <c r="DK7" s="45"/>
-      <c r="DL7" s="45"/>
-      <c r="DM7" s="45"/>
-      <c r="DN7" s="45"/>
-      <c r="DO7" s="46"/>
-      <c r="DP7" s="44">
+      <c r="DJ7" s="39"/>
+      <c r="DK7" s="39"/>
+      <c r="DL7" s="39"/>
+      <c r="DM7" s="39"/>
+      <c r="DN7" s="39"/>
+      <c r="DO7" s="40"/>
+      <c r="DP7" s="38">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="45"/>
-      <c r="DR7" s="45"/>
-      <c r="DS7" s="45"/>
-      <c r="DT7" s="45"/>
-      <c r="DU7" s="45"/>
-      <c r="DV7" s="46"/>
-      <c r="DW7" s="44">
+      <c r="DQ7" s="39"/>
+      <c r="DR7" s="39"/>
+      <c r="DS7" s="39"/>
+      <c r="DT7" s="39"/>
+      <c r="DU7" s="39"/>
+      <c r="DV7" s="40"/>
+      <c r="DW7" s="38">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="45"/>
-      <c r="DY7" s="45"/>
-      <c r="DZ7" s="45"/>
-      <c r="EA7" s="45"/>
-      <c r="EB7" s="45"/>
-      <c r="EC7" s="46"/>
+      <c r="DX7" s="39"/>
+      <c r="DY7" s="39"/>
+      <c r="DZ7" s="39"/>
+      <c r="EA7" s="39"/>
+      <c r="EB7" s="39"/>
+      <c r="EC7" s="40"/>
       <c r="ED7" s="2"/>
     </row>
     <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -4074,9 +4074,9 @@
       <c r="G15" s="6">
         <v>45746</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>Finished</v>
       </c>
       <c r="I15" s="34">
         <v>45760</v>
@@ -4248,9 +4248,9 @@
       <c r="G16" s="10">
         <v>45748</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>Finished</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="H17" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I17" s="34">
         <v>45774</v>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="H18" s="14">
         <f ca="1">IF(F18&gt;TODAY(), "Not Started", IF(TODAY()&gt;G18, "Finished", IF(G18=TODAY(), "Due Today", G18-TODAY())))</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I18" s="34">
         <v>45786</v>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="H19" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="H20" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="12"/>
@@ -5616,9 +5616,9 @@
       <c r="G23" s="6">
         <v>45783</v>
       </c>
-      <c r="H23" s="14" t="str">
+      <c r="H23" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>29</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7294,9 +7294,9 @@
       <c r="G31" s="6">
         <v>45809</v>
       </c>
-      <c r="H31" s="14" t="str">
+      <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>Not Started</v>
+        <v>55</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -9017,6 +9017,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:AX3"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="DW7:EC7"/>
     <mergeCell ref="AX7:BD7"/>
@@ -9033,39 +9066,6 @@
     <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:AX3"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasdalessandro/Desktop/UOC-2025-01/zz_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684BAB17-5D9E-4650-B3B3-7F56F3B98BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC95038-DEC2-434A-A405-A6386E526845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="65">
   <si>
     <t>Start date</t>
   </si>
@@ -838,39 +838,6 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,8 +856,41 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,36 +1260,36 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="CB10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="BE8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CJ14" sqref="CJ14"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="3"/>
-    <col min="2" max="2" width="32.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="56" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="57" max="133" width="3.81640625" style="9" customWidth="1"/>
-    <col min="134" max="16384" width="8.6328125" style="3"/>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="32.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="56" width="3.83203125" style="9" hidden="1" customWidth="1"/>
+    <col min="57" max="133" width="3.83203125" style="9" customWidth="1"/>
+    <col min="134" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1322,337 +1322,337 @@
       <c r="AW2" s="19"/>
       <c r="AX2" s="19"/>
     </row>
-    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="J3" s="49" t="s">
+    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="J3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="42" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="42" t="s">
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="42" t="s">
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="43"/>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="43"/>
-      <c r="CS3" s="43"/>
-      <c r="CT3" s="43"/>
-      <c r="CU3" s="43"/>
-      <c r="CV3" s="43"/>
-      <c r="CW3" s="43"/>
-      <c r="CX3" s="43"/>
-      <c r="CY3" s="43"/>
-      <c r="CZ3" s="43"/>
-      <c r="DA3" s="43"/>
-      <c r="DB3" s="43"/>
-      <c r="DC3" s="43"/>
-      <c r="DD3" s="43"/>
-      <c r="DE3" s="43"/>
-      <c r="DF3" s="44"/>
-      <c r="DG3" s="45" t="s">
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="42"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="42"/>
+      <c r="CU3" s="42"/>
+      <c r="CV3" s="42"/>
+      <c r="CW3" s="42"/>
+      <c r="CX3" s="42"/>
+      <c r="CY3" s="42"/>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="42"/>
+      <c r="DB3" s="42"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="43"/>
-      <c r="DI3" s="43"/>
-      <c r="DJ3" s="43"/>
-      <c r="DK3" s="43"/>
-      <c r="DL3" s="43"/>
-      <c r="DM3" s="43"/>
-      <c r="DN3" s="43"/>
-      <c r="DO3" s="43"/>
-      <c r="DP3" s="43"/>
-      <c r="DQ3" s="43"/>
-      <c r="DR3" s="43"/>
-      <c r="DS3" s="43"/>
-      <c r="DT3" s="43"/>
-      <c r="DU3" s="43"/>
-      <c r="DV3" s="43"/>
-      <c r="DW3" s="43"/>
-      <c r="DX3" s="43"/>
-      <c r="DY3" s="43"/>
-      <c r="DZ3" s="43"/>
-      <c r="EA3" s="43"/>
-      <c r="EB3" s="43"/>
-      <c r="EC3" s="43"/>
+      <c r="DH3" s="42"/>
+      <c r="DI3" s="42"/>
+      <c r="DJ3" s="42"/>
+      <c r="DK3" s="42"/>
+      <c r="DL3" s="42"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="42"/>
+      <c r="DS3" s="42"/>
+      <c r="DT3" s="42"/>
+      <c r="DU3" s="42"/>
+      <c r="DV3" s="42"/>
+      <c r="DW3" s="42"/>
+      <c r="DX3" s="42"/>
+      <c r="DY3" s="42"/>
+      <c r="DZ3" s="42"/>
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="42"/>
+      <c r="EC3" s="42"/>
     </row>
-    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="J4" s="41" t="s">
+    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41" t="s">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41" t="s">
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41" t="s">
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41" t="s">
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41" t="s">
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41" t="s">
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="48"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="48"/>
+      <c r="BS4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41" t="s">
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41" t="s">
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="48"/>
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="48"/>
+      <c r="CG4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41" t="s">
+      <c r="CH4" s="48"/>
+      <c r="CI4" s="48"/>
+      <c r="CJ4" s="48"/>
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="48"/>
+      <c r="CM4" s="48"/>
+      <c r="CN4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41" t="s">
+      <c r="CO4" s="48"/>
+      <c r="CP4" s="48"/>
+      <c r="CQ4" s="48"/>
+      <c r="CR4" s="48"/>
+      <c r="CS4" s="48"/>
+      <c r="CT4" s="48"/>
+      <c r="CU4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41" t="s">
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
+      <c r="CX4" s="48"/>
+      <c r="CY4" s="48"/>
+      <c r="CZ4" s="48"/>
+      <c r="DA4" s="48"/>
+      <c r="DB4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41"/>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41" t="s">
+      <c r="DC4" s="48"/>
+      <c r="DD4" s="48"/>
+      <c r="DE4" s="48"/>
+      <c r="DF4" s="48"/>
+      <c r="DG4" s="48"/>
+      <c r="DH4" s="48"/>
+      <c r="DI4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41" t="s">
+      <c r="DJ4" s="48"/>
+      <c r="DK4" s="48"/>
+      <c r="DL4" s="48"/>
+      <c r="DM4" s="48"/>
+      <c r="DN4" s="48"/>
+      <c r="DO4" s="48"/>
+      <c r="DP4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41"/>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41" t="s">
+      <c r="DQ4" s="48"/>
+      <c r="DR4" s="48"/>
+      <c r="DS4" s="48"/>
+      <c r="DT4" s="48"/>
+      <c r="DU4" s="48"/>
+      <c r="DV4" s="48"/>
+      <c r="DW4" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
+      <c r="DX4" s="48"/>
+      <c r="DY4" s="48"/>
+      <c r="DZ4" s="48"/>
+      <c r="EA4" s="48"/>
+      <c r="EB4" s="48"/>
+      <c r="EC4" s="48"/>
       <c r="ED4" s="2"/>
     </row>
-    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2035,13 +2035,13 @@
       </c>
       <c r="ED5" s="7"/>
     </row>
-    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2544,198 +2544,198 @@
       </c>
       <c r="ED6" s="2"/>
     </row>
-    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="46" t="s">
+    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="38">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="44">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="38">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="44">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="38">
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="44">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="38">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="44">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="38">
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="44">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="38">
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="44">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="38">
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="44">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="38">
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="44">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="40"/>
-      <c r="BS7" s="38">
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BR7" s="46"/>
+      <c r="BS7" s="44">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>63</v>
       </c>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="40"/>
-      <c r="BZ7" s="38">
+      <c r="BT7" s="45"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="45"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="45"/>
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="44">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>56</v>
       </c>
-      <c r="CA7" s="39"/>
-      <c r="CB7" s="39"/>
-      <c r="CC7" s="39"/>
-      <c r="CD7" s="39"/>
-      <c r="CE7" s="39"/>
-      <c r="CF7" s="40"/>
-      <c r="CG7" s="38">
+      <c r="CA7" s="45"/>
+      <c r="CB7" s="45"/>
+      <c r="CC7" s="45"/>
+      <c r="CD7" s="45"/>
+      <c r="CE7" s="45"/>
+      <c r="CF7" s="46"/>
+      <c r="CG7" s="44">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>49</v>
       </c>
-      <c r="CH7" s="39"/>
-      <c r="CI7" s="39"/>
-      <c r="CJ7" s="39"/>
-      <c r="CK7" s="39"/>
-      <c r="CL7" s="39"/>
-      <c r="CM7" s="40"/>
-      <c r="CN7" s="38">
+      <c r="CH7" s="45"/>
+      <c r="CI7" s="45"/>
+      <c r="CJ7" s="45"/>
+      <c r="CK7" s="45"/>
+      <c r="CL7" s="45"/>
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="44">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>59</v>
       </c>
-      <c r="CO7" s="39"/>
-      <c r="CP7" s="39"/>
-      <c r="CQ7" s="39"/>
-      <c r="CR7" s="39"/>
-      <c r="CS7" s="39"/>
-      <c r="CT7" s="40"/>
-      <c r="CU7" s="38">
+      <c r="CO7" s="45"/>
+      <c r="CP7" s="45"/>
+      <c r="CQ7" s="45"/>
+      <c r="CR7" s="45"/>
+      <c r="CS7" s="45"/>
+      <c r="CT7" s="46"/>
+      <c r="CU7" s="44">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="39"/>
-      <c r="CW7" s="39"/>
-      <c r="CX7" s="39"/>
-      <c r="CY7" s="39"/>
-      <c r="CZ7" s="39"/>
-      <c r="DA7" s="40"/>
-      <c r="DB7" s="38">
+      <c r="CV7" s="45"/>
+      <c r="CW7" s="45"/>
+      <c r="CX7" s="45"/>
+      <c r="CY7" s="45"/>
+      <c r="CZ7" s="45"/>
+      <c r="DA7" s="46"/>
+      <c r="DB7" s="44">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="39"/>
-      <c r="DD7" s="39"/>
-      <c r="DE7" s="39"/>
-      <c r="DF7" s="39"/>
-      <c r="DG7" s="39"/>
-      <c r="DH7" s="40"/>
-      <c r="DI7" s="38">
+      <c r="DC7" s="45"/>
+      <c r="DD7" s="45"/>
+      <c r="DE7" s="45"/>
+      <c r="DF7" s="45"/>
+      <c r="DG7" s="45"/>
+      <c r="DH7" s="46"/>
+      <c r="DI7" s="44">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="39"/>
-      <c r="DK7" s="39"/>
-      <c r="DL7" s="39"/>
-      <c r="DM7" s="39"/>
-      <c r="DN7" s="39"/>
-      <c r="DO7" s="40"/>
-      <c r="DP7" s="38">
+      <c r="DJ7" s="45"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="46"/>
+      <c r="DP7" s="44">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="39"/>
-      <c r="DR7" s="39"/>
-      <c r="DS7" s="39"/>
-      <c r="DT7" s="39"/>
-      <c r="DU7" s="39"/>
-      <c r="DV7" s="40"/>
-      <c r="DW7" s="38">
+      <c r="DQ7" s="45"/>
+      <c r="DR7" s="45"/>
+      <c r="DS7" s="45"/>
+      <c r="DT7" s="45"/>
+      <c r="DU7" s="45"/>
+      <c r="DV7" s="46"/>
+      <c r="DW7" s="44">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="39"/>
-      <c r="DY7" s="39"/>
-      <c r="DZ7" s="39"/>
-      <c r="EA7" s="39"/>
-      <c r="EB7" s="39"/>
-      <c r="EC7" s="40"/>
+      <c r="DX7" s="45"/>
+      <c r="DY7" s="45"/>
+      <c r="DZ7" s="45"/>
+      <c r="EA7" s="45"/>
+      <c r="EB7" s="45"/>
+      <c r="EC7" s="46"/>
       <c r="ED7" s="2"/>
     </row>
-    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="EC8" s="11"/>
       <c r="ED8" s="2"/>
     </row>
-    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="EC9" s="12"/>
       <c r="ED9" s="2"/>
     </row>
-    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="EC10" s="12"/>
       <c r="ED10" s="2"/>
     </row>
-    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="EC11" s="13"/>
       <c r="ED11" s="2"/>
     </row>
-    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
         <v>27</v>
@@ -3677,7 +3677,7 @@
       <c r="EC12" s="13"/>
       <c r="ED12" s="2"/>
     </row>
-    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>14</v>
@@ -3859,7 +3859,7 @@
       <c r="EC13" s="12"/>
       <c r="ED13" s="2"/>
     </row>
-    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
         <v>19</v>
@@ -4053,7 +4053,7 @@
       <c r="EC14" s="13"/>
       <c r="ED14" s="2"/>
     </row>
-    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -4227,7 +4227,7 @@
       <c r="EC15" s="12"/>
       <c r="ED15" s="2"/>
     </row>
-    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
         <v>33</v>
@@ -4433,7 +4433,7 @@
       <c r="EC16" s="13"/>
       <c r="ED16" s="2"/>
     </row>
-    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
@@ -4441,7 +4441,9 @@
       <c r="C17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="15" t="str">
         <f t="shared" si="20"/>
         <v>Networks and Internet Applications - PR2</v>
@@ -4454,7 +4456,7 @@
       </c>
       <c r="H17" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I17" s="34">
         <v>45774</v>
@@ -4641,7 +4643,7 @@
       <c r="EC17" s="12"/>
       <c r="ED17" s="2"/>
     </row>
-    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
         <v>27</v>
@@ -4649,7 +4651,9 @@
       <c r="C18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="16" t="str">
         <f>B18&amp;" - "&amp;C18</f>
         <v>Mobile app development - CAA3</v>
@@ -4662,7 +4666,7 @@
       </c>
       <c r="H18" s="14">
         <f ca="1">IF(F18&gt;TODAY(), "Not Started", IF(TODAY()&gt;G18, "Finished", IF(G18=TODAY(), "Due Today", G18-TODAY())))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I18" s="34">
         <v>45786</v>
@@ -4835,7 +4839,7 @@
       <c r="EC18" s="12"/>
       <c r="ED18" s="2"/>
     </row>
-    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="18" t="s">
         <v>8</v>
@@ -4856,7 +4860,7 @@
       </c>
       <c r="H19" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -5039,7 +5043,7 @@
       <c r="EC19" s="13"/>
       <c r="ED19" s="2"/>
     </row>
-    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>19</v>
@@ -5060,7 +5064,7 @@
       </c>
       <c r="H20" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="12"/>
@@ -5245,7 +5249,7 @@
       <c r="EC20" s="12"/>
       <c r="ED20" s="2"/>
     </row>
-    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>24</v>
@@ -5417,7 +5421,7 @@
       <c r="EC21" s="13"/>
       <c r="ED21" s="2"/>
     </row>
-    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>14</v>
@@ -5597,7 +5601,7 @@
       <c r="EC22" s="12"/>
       <c r="ED22" s="2"/>
     </row>
-    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
         <v>33</v>
@@ -5618,7 +5622,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5817,7 +5821,7 @@
       <c r="EC23" s="13"/>
       <c r="ED23" s="2"/>
     </row>
-    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
         <v>27</v>
@@ -6025,7 +6029,7 @@
       <c r="EC24" s="13"/>
       <c r="ED24" s="2"/>
     </row>
-    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="18" t="s">
         <v>24</v>
@@ -6233,7 +6237,7 @@
       <c r="EC25" s="12"/>
       <c r="ED25" s="2"/>
     </row>
-    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -6439,7 +6443,7 @@
       <c r="EC26" s="13"/>
       <c r="ED26" s="2"/>
     </row>
-    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -6631,7 +6635,7 @@
       <c r="EC27" s="12"/>
       <c r="ED27" s="2"/>
     </row>
-    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
         <v>14</v>
@@ -6811,7 +6815,7 @@
       <c r="EC28" s="13"/>
       <c r="ED28" s="2"/>
     </row>
-    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="17" t="s">
         <v>24</v>
@@ -6983,7 +6987,7 @@
       <c r="EC29" s="12"/>
       <c r="ED29" s="2"/>
     </row>
-    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="17" t="s">
         <v>14</v>
@@ -7004,7 +7008,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7275,7 +7279,7 @@
       <c r="EC30" s="13"/>
       <c r="ED30" s="2"/>
     </row>
-    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
@@ -7296,7 +7300,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -7553,7 +7557,7 @@
       <c r="EC31" s="12"/>
       <c r="ED31" s="2"/>
     </row>
-    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>27</v>
@@ -7747,7 +7751,7 @@
       <c r="EC32" s="12"/>
       <c r="ED32" s="2"/>
     </row>
-    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="17" t="s">
         <v>33</v>
@@ -7953,7 +7957,7 @@
       <c r="EC33" s="13"/>
       <c r="ED33" s="2"/>
     </row>
-    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
         <v>24</v>
@@ -8161,7 +8165,7 @@
       <c r="EC34" s="12"/>
       <c r="ED34" s="2"/>
     </row>
-    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
@@ -8367,7 +8371,7 @@
       <c r="EC35" s="13"/>
       <c r="ED35" s="2"/>
     </row>
-    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>19</v>
@@ -8571,7 +8575,7 @@
       <c r="EC36" s="12"/>
       <c r="ED36" s="2"/>
     </row>
-    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
         <v>33</v>
@@ -8733,7 +8737,7 @@
       <c r="EC37" s="13"/>
       <c r="ED37" s="2"/>
     </row>
-    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
         <v>33</v>
@@ -8885,7 +8889,7 @@
       <c r="EC38" s="13"/>
       <c r="ED38" s="2"/>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:134" x14ac:dyDescent="0.2">
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -9017,6 +9021,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="DW7:EC7"/>
+    <mergeCell ref="AX7:BD7"/>
+    <mergeCell ref="BE7:BK7"/>
+    <mergeCell ref="BL7:BR7"/>
+    <mergeCell ref="BS7:BY7"/>
+    <mergeCell ref="BZ7:CF7"/>
+    <mergeCell ref="CG7:CM7"/>
+    <mergeCell ref="CN7:CT7"/>
+    <mergeCell ref="CU7:DA7"/>
+    <mergeCell ref="DB7:DH7"/>
+    <mergeCell ref="DI7:DO7"/>
+    <mergeCell ref="DP7:DV7"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -9033,39 +9070,6 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="DW7:EC7"/>
-    <mergeCell ref="AX7:BD7"/>
-    <mergeCell ref="BE7:BK7"/>
-    <mergeCell ref="BL7:BR7"/>
-    <mergeCell ref="BS7:BY7"/>
-    <mergeCell ref="BZ7:CF7"/>
-    <mergeCell ref="CG7:CM7"/>
-    <mergeCell ref="CN7:CT7"/>
-    <mergeCell ref="CU7:DA7"/>
-    <mergeCell ref="DB7:DH7"/>
-    <mergeCell ref="DI7:DO7"/>
-    <mergeCell ref="DP7:DV7"/>
-    <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="DB4:DH4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasdalessandro/Desktop/UOC-2025-01/zz_utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC95038-DEC2-434A-A405-A6386E526845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA0E16C-8AE7-447B-8809-5695EAEB8D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="65">
   <si>
     <t>Start date</t>
   </si>
@@ -1260,27 +1260,25 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="BE8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8:E23"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="32.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="56" width="3.83203125" style="9" hidden="1" customWidth="1"/>
-    <col min="57" max="133" width="3.83203125" style="9" customWidth="1"/>
-    <col min="134" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="8.6328125" style="3"/>
+    <col min="2" max="2" width="32.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.81640625" style="3" customWidth="1"/>
+    <col min="10" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="134" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1320,7 @@
       <c r="AW2" s="19"/>
       <c r="AX2" s="19"/>
     </row>
-    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -1465,7 +1463,7 @@
       <c r="EB3" s="42"/>
       <c r="EC3" s="42"/>
     </row>
-    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -1635,7 +1633,7 @@
       <c r="EC4" s="48"/>
       <c r="ED4" s="2"/>
     </row>
-    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="37" t="s">
         <v>2</v>
@@ -2035,7 +2033,7 @@
       </c>
       <c r="ED5" s="7"/>
     </row>
-    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="47"/>
@@ -2544,7 +2542,7 @@
       </c>
       <c r="ED6" s="2"/>
     </row>
-    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="47"/>
@@ -2735,7 +2733,7 @@
       <c r="EC7" s="46"/>
       <c r="ED7" s="2"/>
     </row>
-    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
@@ -2914,7 +2912,7 @@
       <c r="EC8" s="11"/>
       <c r="ED8" s="2"/>
     </row>
-    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -3095,7 +3093,7 @@
       <c r="EC9" s="12"/>
       <c r="ED9" s="2"/>
     </row>
-    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3290,7 +3288,7 @@
       <c r="EC10" s="12"/>
       <c r="ED10" s="2"/>
     </row>
-    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -3495,7 +3493,7 @@
       <c r="EC11" s="13"/>
       <c r="ED11" s="2"/>
     </row>
-    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
         <v>27</v>
@@ -3677,7 +3675,7 @@
       <c r="EC12" s="13"/>
       <c r="ED12" s="2"/>
     </row>
-    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>14</v>
@@ -3859,7 +3857,7 @@
       <c r="EC13" s="12"/>
       <c r="ED13" s="2"/>
     </row>
-    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
         <v>19</v>
@@ -4053,7 +4051,7 @@
       <c r="EC14" s="13"/>
       <c r="ED14" s="2"/>
     </row>
-    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -4227,7 +4225,7 @@
       <c r="EC15" s="12"/>
       <c r="ED15" s="2"/>
     </row>
-    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
         <v>33</v>
@@ -4433,7 +4431,7 @@
       <c r="EC16" s="13"/>
       <c r="ED16" s="2"/>
     </row>
-    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
@@ -4454,9 +4452,9 @@
       <c r="G17" s="6">
         <v>45760</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>Due Today</v>
       </c>
       <c r="I17" s="34">
         <v>45774</v>
@@ -4643,7 +4641,7 @@
       <c r="EC17" s="12"/>
       <c r="ED17" s="2"/>
     </row>
-    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
         <v>27</v>
@@ -4664,9 +4662,9 @@
       <c r="G18" s="10">
         <v>45760</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="14" t="str">
         <f ca="1">IF(F18&gt;TODAY(), "Not Started", IF(TODAY()&gt;G18, "Finished", IF(G18=TODAY(), "Due Today", G18-TODAY())))</f>
-        <v>3</v>
+        <v>Due Today</v>
       </c>
       <c r="I18" s="34">
         <v>45786</v>
@@ -4839,7 +4837,7 @@
       <c r="EC18" s="12"/>
       <c r="ED18" s="2"/>
     </row>
-    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="18" t="s">
         <v>8</v>
@@ -4847,7 +4845,9 @@
       <c r="C19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" s="15" t="str">
         <f t="shared" si="20"/>
         <v>Human-Computer Interaction - C2</v>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="H19" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -5043,7 +5043,7 @@
       <c r="EC19" s="13"/>
       <c r="ED19" s="2"/>
     </row>
-    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>19</v>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="H20" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="12"/>
@@ -5249,7 +5249,7 @@
       <c r="EC20" s="12"/>
       <c r="ED20" s="2"/>
     </row>
-    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>24</v>
@@ -5421,7 +5421,7 @@
       <c r="EC21" s="13"/>
       <c r="ED21" s="2"/>
     </row>
-    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>14</v>
@@ -5601,7 +5601,7 @@
       <c r="EC22" s="12"/>
       <c r="ED22" s="2"/>
     </row>
-    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
         <v>33</v>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5821,7 +5821,7 @@
       <c r="EC23" s="13"/>
       <c r="ED23" s="2"/>
     </row>
-    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
         <v>27</v>
@@ -6029,7 +6029,7 @@
       <c r="EC24" s="13"/>
       <c r="ED24" s="2"/>
     </row>
-    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="18" t="s">
         <v>24</v>
@@ -6237,7 +6237,7 @@
       <c r="EC25" s="12"/>
       <c r="ED25" s="2"/>
     </row>
-    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -6443,7 +6443,7 @@
       <c r="EC26" s="13"/>
       <c r="ED26" s="2"/>
     </row>
-    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -6635,7 +6635,7 @@
       <c r="EC27" s="12"/>
       <c r="ED27" s="2"/>
     </row>
-    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
         <v>14</v>
@@ -6815,7 +6815,7 @@
       <c r="EC28" s="13"/>
       <c r="ED28" s="2"/>
     </row>
-    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="17" t="s">
         <v>24</v>
@@ -6987,7 +6987,7 @@
       <c r="EC29" s="12"/>
       <c r="ED29" s="2"/>
     </row>
-    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="17" t="s">
         <v>14</v>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7279,7 +7279,7 @@
       <c r="EC30" s="13"/>
       <c r="ED30" s="2"/>
     </row>
-    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -7557,7 +7557,7 @@
       <c r="EC31" s="12"/>
       <c r="ED31" s="2"/>
     </row>
-    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>27</v>
@@ -7751,7 +7751,7 @@
       <c r="EC32" s="12"/>
       <c r="ED32" s="2"/>
     </row>
-    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="17" t="s">
         <v>33</v>
@@ -7957,7 +7957,7 @@
       <c r="EC33" s="13"/>
       <c r="ED33" s="2"/>
     </row>
-    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
         <v>24</v>
@@ -8165,7 +8165,7 @@
       <c r="EC34" s="12"/>
       <c r="ED34" s="2"/>
     </row>
-    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
@@ -8371,7 +8371,7 @@
       <c r="EC35" s="13"/>
       <c r="ED35" s="2"/>
     </row>
-    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>19</v>
@@ -8575,7 +8575,7 @@
       <c r="EC36" s="12"/>
       <c r="ED36" s="2"/>
     </row>
-    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
         <v>33</v>
@@ -8737,7 +8737,7 @@
       <c r="EC37" s="13"/>
       <c r="ED37" s="2"/>
     </row>
-    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
         <v>33</v>
@@ -8889,7 +8889,7 @@
       <c r="EC38" s="13"/>
       <c r="ED38" s="2"/>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:134" x14ac:dyDescent="0.35">
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA0E16C-8AE7-447B-8809-5695EAEB8D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053B8EE8-0211-4836-9873-7105F7B420A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="65">
   <si>
     <t>Start date</t>
   </si>
@@ -838,6 +838,39 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,41 +889,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,11 +1259,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:ED39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,21 +1273,23 @@
     <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5.36328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.81640625" style="3" customWidth="1"/>
-    <col min="10" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="63" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="64" max="133" width="3.81640625" style="9" customWidth="1"/>
     <col min="134" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1321,336 +1323,336 @@
       <c r="AX2" s="19"/>
     </row>
     <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="J3" s="38" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="41" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="41" t="s">
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="42"/>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="42"/>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42"/>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42"/>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="42"/>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="42"/>
-      <c r="CU3" s="42"/>
-      <c r="CV3" s="42"/>
-      <c r="CW3" s="42"/>
-      <c r="CX3" s="42"/>
-      <c r="CY3" s="42"/>
-      <c r="CZ3" s="42"/>
-      <c r="DA3" s="42"/>
-      <c r="DB3" s="42"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="43"/>
-      <c r="DG3" s="49" t="s">
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="43"/>
+      <c r="CW3" s="43"/>
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="42"/>
-      <c r="DI3" s="42"/>
-      <c r="DJ3" s="42"/>
-      <c r="DK3" s="42"/>
-      <c r="DL3" s="42"/>
-      <c r="DM3" s="42"/>
-      <c r="DN3" s="42"/>
-      <c r="DO3" s="42"/>
-      <c r="DP3" s="42"/>
-      <c r="DQ3" s="42"/>
-      <c r="DR3" s="42"/>
-      <c r="DS3" s="42"/>
-      <c r="DT3" s="42"/>
-      <c r="DU3" s="42"/>
-      <c r="DV3" s="42"/>
-      <c r="DW3" s="42"/>
-      <c r="DX3" s="42"/>
-      <c r="DY3" s="42"/>
-      <c r="DZ3" s="42"/>
-      <c r="EA3" s="42"/>
-      <c r="EB3" s="42"/>
-      <c r="EC3" s="42"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="43"/>
+      <c r="DK3" s="43"/>
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="43"/>
+      <c r="DS3" s="43"/>
+      <c r="DT3" s="43"/>
+      <c r="DU3" s="43"/>
+      <c r="DV3" s="43"/>
+      <c r="DW3" s="43"/>
+      <c r="DX3" s="43"/>
+      <c r="DY3" s="43"/>
+      <c r="DZ3" s="43"/>
+      <c r="EA3" s="43"/>
+      <c r="EB3" s="43"/>
+      <c r="EC3" s="43"/>
     </row>
     <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="J4" s="48" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="J4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48" t="s">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48" t="s">
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48" t="s">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48" t="s">
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="48" t="s">
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="48" t="s">
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="48"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="48"/>
-      <c r="BP4" s="48"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="48"/>
-      <c r="BS4" s="48" t="s">
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="48"/>
-      <c r="BV4" s="48"/>
-      <c r="BW4" s="48"/>
-      <c r="BX4" s="48"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="48" t="s">
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="48"/>
-      <c r="CB4" s="48"/>
-      <c r="CC4" s="48"/>
-      <c r="CD4" s="48"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="48"/>
-      <c r="CG4" s="48" t="s">
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="48"/>
-      <c r="CI4" s="48"/>
-      <c r="CJ4" s="48"/>
-      <c r="CK4" s="48"/>
-      <c r="CL4" s="48"/>
-      <c r="CM4" s="48"/>
-      <c r="CN4" s="48" t="s">
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="48"/>
-      <c r="CP4" s="48"/>
-      <c r="CQ4" s="48"/>
-      <c r="CR4" s="48"/>
-      <c r="CS4" s="48"/>
-      <c r="CT4" s="48"/>
-      <c r="CU4" s="48" t="s">
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="48"/>
-      <c r="CW4" s="48"/>
-      <c r="CX4" s="48"/>
-      <c r="CY4" s="48"/>
-      <c r="CZ4" s="48"/>
-      <c r="DA4" s="48"/>
-      <c r="DB4" s="48" t="s">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="48"/>
-      <c r="DD4" s="48"/>
-      <c r="DE4" s="48"/>
-      <c r="DF4" s="48"/>
-      <c r="DG4" s="48"/>
-      <c r="DH4" s="48"/>
-      <c r="DI4" s="48" t="s">
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41"/>
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="48"/>
-      <c r="DK4" s="48"/>
-      <c r="DL4" s="48"/>
-      <c r="DM4" s="48"/>
-      <c r="DN4" s="48"/>
-      <c r="DO4" s="48"/>
-      <c r="DP4" s="48" t="s">
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="48"/>
-      <c r="DR4" s="48"/>
-      <c r="DS4" s="48"/>
-      <c r="DT4" s="48"/>
-      <c r="DU4" s="48"/>
-      <c r="DV4" s="48"/>
-      <c r="DW4" s="48" t="s">
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41"/>
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="48"/>
-      <c r="DY4" s="48"/>
-      <c r="DZ4" s="48"/>
-      <c r="EA4" s="48"/>
-      <c r="EB4" s="48"/>
-      <c r="EC4" s="48"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
       <c r="ED4" s="2"/>
     </row>
     <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2034,12 +2036,12 @@
       <c r="ED5" s="7"/>
     </row>
     <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2543,194 +2545,194 @@
       <c r="ED6" s="2"/>
     </row>
     <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="35" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="44">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="38">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="44">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="38">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="44">
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="44">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="38">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="44">
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="38">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="44">
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="38">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="44">
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="38">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="45"/>
-      <c r="BG7" s="45"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="44">
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="38">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="45"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="46"/>
-      <c r="BS7" s="44">
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="38">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>63</v>
       </c>
-      <c r="BT7" s="45"/>
-      <c r="BU7" s="45"/>
-      <c r="BV7" s="45"/>
-      <c r="BW7" s="45"/>
-      <c r="BX7" s="45"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="44">
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="38">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>56</v>
       </c>
-      <c r="CA7" s="45"/>
-      <c r="CB7" s="45"/>
-      <c r="CC7" s="45"/>
-      <c r="CD7" s="45"/>
-      <c r="CE7" s="45"/>
-      <c r="CF7" s="46"/>
-      <c r="CG7" s="44">
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="39"/>
+      <c r="CC7" s="39"/>
+      <c r="CD7" s="39"/>
+      <c r="CE7" s="39"/>
+      <c r="CF7" s="40"/>
+      <c r="CG7" s="38">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>49</v>
       </c>
-      <c r="CH7" s="45"/>
-      <c r="CI7" s="45"/>
-      <c r="CJ7" s="45"/>
-      <c r="CK7" s="45"/>
-      <c r="CL7" s="45"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="44">
+      <c r="CH7" s="39"/>
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="39"/>
+      <c r="CK7" s="39"/>
+      <c r="CL7" s="39"/>
+      <c r="CM7" s="40"/>
+      <c r="CN7" s="38">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>59</v>
       </c>
-      <c r="CO7" s="45"/>
-      <c r="CP7" s="45"/>
-      <c r="CQ7" s="45"/>
-      <c r="CR7" s="45"/>
-      <c r="CS7" s="45"/>
-      <c r="CT7" s="46"/>
-      <c r="CU7" s="44">
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="39"/>
+      <c r="CQ7" s="39"/>
+      <c r="CR7" s="39"/>
+      <c r="CS7" s="39"/>
+      <c r="CT7" s="40"/>
+      <c r="CU7" s="38">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="45"/>
-      <c r="CW7" s="45"/>
-      <c r="CX7" s="45"/>
-      <c r="CY7" s="45"/>
-      <c r="CZ7" s="45"/>
-      <c r="DA7" s="46"/>
-      <c r="DB7" s="44">
+      <c r="CV7" s="39"/>
+      <c r="CW7" s="39"/>
+      <c r="CX7" s="39"/>
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="39"/>
+      <c r="DA7" s="40"/>
+      <c r="DB7" s="38">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="45"/>
-      <c r="DD7" s="45"/>
-      <c r="DE7" s="45"/>
-      <c r="DF7" s="45"/>
-      <c r="DG7" s="45"/>
-      <c r="DH7" s="46"/>
-      <c r="DI7" s="44">
+      <c r="DC7" s="39"/>
+      <c r="DD7" s="39"/>
+      <c r="DE7" s="39"/>
+      <c r="DF7" s="39"/>
+      <c r="DG7" s="39"/>
+      <c r="DH7" s="40"/>
+      <c r="DI7" s="38">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="45"/>
-      <c r="DK7" s="45"/>
-      <c r="DL7" s="45"/>
-      <c r="DM7" s="45"/>
-      <c r="DN7" s="45"/>
-      <c r="DO7" s="46"/>
-      <c r="DP7" s="44">
+      <c r="DJ7" s="39"/>
+      <c r="DK7" s="39"/>
+      <c r="DL7" s="39"/>
+      <c r="DM7" s="39"/>
+      <c r="DN7" s="39"/>
+      <c r="DO7" s="40"/>
+      <c r="DP7" s="38">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="45"/>
-      <c r="DR7" s="45"/>
-      <c r="DS7" s="45"/>
-      <c r="DT7" s="45"/>
-      <c r="DU7" s="45"/>
-      <c r="DV7" s="46"/>
-      <c r="DW7" s="44">
+      <c r="DQ7" s="39"/>
+      <c r="DR7" s="39"/>
+      <c r="DS7" s="39"/>
+      <c r="DT7" s="39"/>
+      <c r="DU7" s="39"/>
+      <c r="DV7" s="40"/>
+      <c r="DW7" s="38">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="45"/>
-      <c r="DY7" s="45"/>
-      <c r="DZ7" s="45"/>
-      <c r="EA7" s="45"/>
-      <c r="EB7" s="45"/>
-      <c r="EC7" s="46"/>
+      <c r="DX7" s="39"/>
+      <c r="DY7" s="39"/>
+      <c r="DZ7" s="39"/>
+      <c r="EA7" s="39"/>
+      <c r="EB7" s="39"/>
+      <c r="EC7" s="40"/>
       <c r="ED7" s="2"/>
     </row>
     <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -4454,7 +4456,7 @@
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Due Today</v>
+        <v>Finished</v>
       </c>
       <c r="I17" s="34">
         <v>45774</v>
@@ -4664,7 +4666,7 @@
       </c>
       <c r="H18" s="14" t="str">
         <f ca="1">IF(F18&gt;TODAY(), "Not Started", IF(TODAY()&gt;G18, "Finished", IF(G18=TODAY(), "Due Today", G18-TODAY())))</f>
-        <v>Due Today</v>
+        <v>Finished</v>
       </c>
       <c r="I18" s="34">
         <v>45786</v>
@@ -4858,9 +4860,9 @@
       <c r="G19" s="6">
         <v>45761</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>Due Today</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -5051,7 +5053,9 @@
       <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E20" s="16" t="str">
         <f t="shared" si="20"/>
         <v>Software Design Patterns - PR1</v>
@@ -5064,7 +5068,7 @@
       </c>
       <c r="H20" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="12"/>
@@ -5622,7 +5626,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5840,9 +5844,9 @@
       <c r="G24" s="10">
         <v>45788</v>
       </c>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="14">
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
-        <v>Not Started</v>
+        <v>27</v>
       </c>
       <c r="I24" s="34">
         <v>45807</v>
@@ -6048,9 +6052,9 @@
       <c r="G25" s="6">
         <v>45788</v>
       </c>
-      <c r="H25" s="14" t="str">
+      <c r="H25" s="14">
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
-        <v>Not Started</v>
+        <v>27</v>
       </c>
       <c r="I25" s="34">
         <v>45802</v>
@@ -7008,7 +7012,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7300,7 +7304,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -9021,6 +9025,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:AX3"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="DW7:EC7"/>
     <mergeCell ref="AX7:BD7"/>
@@ -9037,39 +9074,6 @@
     <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:AX3"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053B8EE8-0211-4836-9873-7105F7B420A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54D64C9-91D6-4218-89F8-C0DAFF117876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -838,39 +838,6 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,8 +856,41 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,7 +1263,7 @@
       <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,21 +1275,21 @@
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="63" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="64" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="10" max="70" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="71" max="133" width="3.81640625" style="9" customWidth="1"/>
     <col min="134" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1323,336 +1323,336 @@
       <c r="AX2" s="19"/>
     </row>
     <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="J3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="J3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="42" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="42" t="s">
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="42" t="s">
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="43"/>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="43"/>
-      <c r="CS3" s="43"/>
-      <c r="CT3" s="43"/>
-      <c r="CU3" s="43"/>
-      <c r="CV3" s="43"/>
-      <c r="CW3" s="43"/>
-      <c r="CX3" s="43"/>
-      <c r="CY3" s="43"/>
-      <c r="CZ3" s="43"/>
-      <c r="DA3" s="43"/>
-      <c r="DB3" s="43"/>
-      <c r="DC3" s="43"/>
-      <c r="DD3" s="43"/>
-      <c r="DE3" s="43"/>
-      <c r="DF3" s="44"/>
-      <c r="DG3" s="45" t="s">
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="42"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="42"/>
+      <c r="CU3" s="42"/>
+      <c r="CV3" s="42"/>
+      <c r="CW3" s="42"/>
+      <c r="CX3" s="42"/>
+      <c r="CY3" s="42"/>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="42"/>
+      <c r="DB3" s="42"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="43"/>
-      <c r="DI3" s="43"/>
-      <c r="DJ3" s="43"/>
-      <c r="DK3" s="43"/>
-      <c r="DL3" s="43"/>
-      <c r="DM3" s="43"/>
-      <c r="DN3" s="43"/>
-      <c r="DO3" s="43"/>
-      <c r="DP3" s="43"/>
-      <c r="DQ3" s="43"/>
-      <c r="DR3" s="43"/>
-      <c r="DS3" s="43"/>
-      <c r="DT3" s="43"/>
-      <c r="DU3" s="43"/>
-      <c r="DV3" s="43"/>
-      <c r="DW3" s="43"/>
-      <c r="DX3" s="43"/>
-      <c r="DY3" s="43"/>
-      <c r="DZ3" s="43"/>
-      <c r="EA3" s="43"/>
-      <c r="EB3" s="43"/>
-      <c r="EC3" s="43"/>
+      <c r="DH3" s="42"/>
+      <c r="DI3" s="42"/>
+      <c r="DJ3" s="42"/>
+      <c r="DK3" s="42"/>
+      <c r="DL3" s="42"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="42"/>
+      <c r="DS3" s="42"/>
+      <c r="DT3" s="42"/>
+      <c r="DU3" s="42"/>
+      <c r="DV3" s="42"/>
+      <c r="DW3" s="42"/>
+      <c r="DX3" s="42"/>
+      <c r="DY3" s="42"/>
+      <c r="DZ3" s="42"/>
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="42"/>
+      <c r="EC3" s="42"/>
     </row>
     <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="J4" s="41" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41" t="s">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41" t="s">
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41" t="s">
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41" t="s">
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41" t="s">
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41" t="s">
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="48"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="48"/>
+      <c r="BS4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41" t="s">
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41" t="s">
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="48"/>
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="48"/>
+      <c r="CG4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41" t="s">
+      <c r="CH4" s="48"/>
+      <c r="CI4" s="48"/>
+      <c r="CJ4" s="48"/>
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="48"/>
+      <c r="CM4" s="48"/>
+      <c r="CN4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41" t="s">
+      <c r="CO4" s="48"/>
+      <c r="CP4" s="48"/>
+      <c r="CQ4" s="48"/>
+      <c r="CR4" s="48"/>
+      <c r="CS4" s="48"/>
+      <c r="CT4" s="48"/>
+      <c r="CU4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41" t="s">
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
+      <c r="CX4" s="48"/>
+      <c r="CY4" s="48"/>
+      <c r="CZ4" s="48"/>
+      <c r="DA4" s="48"/>
+      <c r="DB4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41"/>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41" t="s">
+      <c r="DC4" s="48"/>
+      <c r="DD4" s="48"/>
+      <c r="DE4" s="48"/>
+      <c r="DF4" s="48"/>
+      <c r="DG4" s="48"/>
+      <c r="DH4" s="48"/>
+      <c r="DI4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41" t="s">
+      <c r="DJ4" s="48"/>
+      <c r="DK4" s="48"/>
+      <c r="DL4" s="48"/>
+      <c r="DM4" s="48"/>
+      <c r="DN4" s="48"/>
+      <c r="DO4" s="48"/>
+      <c r="DP4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41"/>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41" t="s">
+      <c r="DQ4" s="48"/>
+      <c r="DR4" s="48"/>
+      <c r="DS4" s="48"/>
+      <c r="DT4" s="48"/>
+      <c r="DU4" s="48"/>
+      <c r="DV4" s="48"/>
+      <c r="DW4" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
+      <c r="DX4" s="48"/>
+      <c r="DY4" s="48"/>
+      <c r="DZ4" s="48"/>
+      <c r="EA4" s="48"/>
+      <c r="EB4" s="48"/>
+      <c r="EC4" s="48"/>
       <c r="ED4" s="2"/>
     </row>
     <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2036,12 +2036,12 @@
       <c r="ED5" s="7"/>
     </row>
     <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2545,194 +2545,194 @@
       <c r="ED6" s="2"/>
     </row>
     <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="46" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="38">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="44">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="38">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="44">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="38">
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="44">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="38">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="44">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="38">
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="44">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="38">
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="44">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="38">
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="44">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="38">
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="44">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="40"/>
-      <c r="BS7" s="38">
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BR7" s="46"/>
+      <c r="BS7" s="44">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>63</v>
       </c>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="40"/>
-      <c r="BZ7" s="38">
+      <c r="BT7" s="45"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="45"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="45"/>
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="44">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>56</v>
       </c>
-      <c r="CA7" s="39"/>
-      <c r="CB7" s="39"/>
-      <c r="CC7" s="39"/>
-      <c r="CD7" s="39"/>
-      <c r="CE7" s="39"/>
-      <c r="CF7" s="40"/>
-      <c r="CG7" s="38">
+      <c r="CA7" s="45"/>
+      <c r="CB7" s="45"/>
+      <c r="CC7" s="45"/>
+      <c r="CD7" s="45"/>
+      <c r="CE7" s="45"/>
+      <c r="CF7" s="46"/>
+      <c r="CG7" s="44">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>49</v>
       </c>
-      <c r="CH7" s="39"/>
-      <c r="CI7" s="39"/>
-      <c r="CJ7" s="39"/>
-      <c r="CK7" s="39"/>
-      <c r="CL7" s="39"/>
-      <c r="CM7" s="40"/>
-      <c r="CN7" s="38">
+      <c r="CH7" s="45"/>
+      <c r="CI7" s="45"/>
+      <c r="CJ7" s="45"/>
+      <c r="CK7" s="45"/>
+      <c r="CL7" s="45"/>
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="44">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>59</v>
       </c>
-      <c r="CO7" s="39"/>
-      <c r="CP7" s="39"/>
-      <c r="CQ7" s="39"/>
-      <c r="CR7" s="39"/>
-      <c r="CS7" s="39"/>
-      <c r="CT7" s="40"/>
-      <c r="CU7" s="38">
+      <c r="CO7" s="45"/>
+      <c r="CP7" s="45"/>
+      <c r="CQ7" s="45"/>
+      <c r="CR7" s="45"/>
+      <c r="CS7" s="45"/>
+      <c r="CT7" s="46"/>
+      <c r="CU7" s="44">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="39"/>
-      <c r="CW7" s="39"/>
-      <c r="CX7" s="39"/>
-      <c r="CY7" s="39"/>
-      <c r="CZ7" s="39"/>
-      <c r="DA7" s="40"/>
-      <c r="DB7" s="38">
+      <c r="CV7" s="45"/>
+      <c r="CW7" s="45"/>
+      <c r="CX7" s="45"/>
+      <c r="CY7" s="45"/>
+      <c r="CZ7" s="45"/>
+      <c r="DA7" s="46"/>
+      <c r="DB7" s="44">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="39"/>
-      <c r="DD7" s="39"/>
-      <c r="DE7" s="39"/>
-      <c r="DF7" s="39"/>
-      <c r="DG7" s="39"/>
-      <c r="DH7" s="40"/>
-      <c r="DI7" s="38">
+      <c r="DC7" s="45"/>
+      <c r="DD7" s="45"/>
+      <c r="DE7" s="45"/>
+      <c r="DF7" s="45"/>
+      <c r="DG7" s="45"/>
+      <c r="DH7" s="46"/>
+      <c r="DI7" s="44">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="39"/>
-      <c r="DK7" s="39"/>
-      <c r="DL7" s="39"/>
-      <c r="DM7" s="39"/>
-      <c r="DN7" s="39"/>
-      <c r="DO7" s="40"/>
-      <c r="DP7" s="38">
+      <c r="DJ7" s="45"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="46"/>
+      <c r="DP7" s="44">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="39"/>
-      <c r="DR7" s="39"/>
-      <c r="DS7" s="39"/>
-      <c r="DT7" s="39"/>
-      <c r="DU7" s="39"/>
-      <c r="DV7" s="40"/>
-      <c r="DW7" s="38">
+      <c r="DQ7" s="45"/>
+      <c r="DR7" s="45"/>
+      <c r="DS7" s="45"/>
+      <c r="DT7" s="45"/>
+      <c r="DU7" s="45"/>
+      <c r="DV7" s="46"/>
+      <c r="DW7" s="44">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="39"/>
-      <c r="DY7" s="39"/>
-      <c r="DZ7" s="39"/>
-      <c r="EA7" s="39"/>
-      <c r="EB7" s="39"/>
-      <c r="EC7" s="40"/>
+      <c r="DX7" s="45"/>
+      <c r="DY7" s="45"/>
+      <c r="DZ7" s="45"/>
+      <c r="EA7" s="45"/>
+      <c r="EB7" s="45"/>
+      <c r="EC7" s="46"/>
       <c r="ED7" s="2"/>
     </row>
     <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Due Today</v>
+        <v>Finished</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="H20" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="12"/>
@@ -5272,9 +5272,9 @@
       <c r="G21" s="6">
         <v>45774</v>
       </c>
-      <c r="H21" s="14" t="str">
+      <c r="H21" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>6</v>
       </c>
       <c r="I21" s="34">
         <v>45788</v>
@@ -5444,9 +5444,9 @@
       <c r="G22" s="10">
         <v>45781</v>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>13</v>
       </c>
       <c r="I22" s="34">
         <v>45789</v>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I24" s="34">
         <v>45807</v>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I25" s="34">
         <v>45802</v>
@@ -6260,9 +6260,9 @@
       <c r="G26" s="10">
         <v>45789</v>
       </c>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>Not Started</v>
+        <v>21</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -9025,6 +9025,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="DW7:EC7"/>
+    <mergeCell ref="AX7:BD7"/>
+    <mergeCell ref="BE7:BK7"/>
+    <mergeCell ref="BL7:BR7"/>
+    <mergeCell ref="BS7:BY7"/>
+    <mergeCell ref="BZ7:CF7"/>
+    <mergeCell ref="CG7:CM7"/>
+    <mergeCell ref="CN7:CT7"/>
+    <mergeCell ref="CU7:DA7"/>
+    <mergeCell ref="DB7:DH7"/>
+    <mergeCell ref="DI7:DO7"/>
+    <mergeCell ref="DP7:DV7"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -9041,39 +9074,6 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="DW7:EC7"/>
-    <mergeCell ref="AX7:BD7"/>
-    <mergeCell ref="BE7:BK7"/>
-    <mergeCell ref="BL7:BR7"/>
-    <mergeCell ref="BS7:BY7"/>
-    <mergeCell ref="BZ7:CF7"/>
-    <mergeCell ref="CG7:CM7"/>
-    <mergeCell ref="CN7:CT7"/>
-    <mergeCell ref="CU7:DA7"/>
-    <mergeCell ref="DB7:DH7"/>
-    <mergeCell ref="DI7:DO7"/>
-    <mergeCell ref="DP7:DV7"/>
-    <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="DB4:DH4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54D64C9-91D6-4218-89F8-C0DAFF117876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6574292C-CB68-4575-86E9-1187AE46322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="67">
   <si>
     <t>Start date</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Final Project</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -838,6 +844,39 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,41 +895,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,33 +1269,33 @@
       <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="DB21" sqref="DB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="3"/>
+    <col min="1" max="1" width="8.54296875" style="3"/>
     <col min="2" max="2" width="32.81640625" style="3" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="70" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="71" max="133" width="3.81640625" style="9" customWidth="1"/>
-    <col min="134" max="16384" width="8.6328125" style="3"/>
+    <col min="10" max="75" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="76" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="134" max="16384" width="8.54296875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1323,336 +1329,336 @@
       <c r="AX2" s="19"/>
     </row>
     <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="J3" s="38" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="41" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="41" t="s">
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="42"/>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="42"/>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42"/>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42"/>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="42"/>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="42"/>
-      <c r="CU3" s="42"/>
-      <c r="CV3" s="42"/>
-      <c r="CW3" s="42"/>
-      <c r="CX3" s="42"/>
-      <c r="CY3" s="42"/>
-      <c r="CZ3" s="42"/>
-      <c r="DA3" s="42"/>
-      <c r="DB3" s="42"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="43"/>
-      <c r="DG3" s="49" t="s">
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="43"/>
+      <c r="CW3" s="43"/>
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="42"/>
-      <c r="DI3" s="42"/>
-      <c r="DJ3" s="42"/>
-      <c r="DK3" s="42"/>
-      <c r="DL3" s="42"/>
-      <c r="DM3" s="42"/>
-      <c r="DN3" s="42"/>
-      <c r="DO3" s="42"/>
-      <c r="DP3" s="42"/>
-      <c r="DQ3" s="42"/>
-      <c r="DR3" s="42"/>
-      <c r="DS3" s="42"/>
-      <c r="DT3" s="42"/>
-      <c r="DU3" s="42"/>
-      <c r="DV3" s="42"/>
-      <c r="DW3" s="42"/>
-      <c r="DX3" s="42"/>
-      <c r="DY3" s="42"/>
-      <c r="DZ3" s="42"/>
-      <c r="EA3" s="42"/>
-      <c r="EB3" s="42"/>
-      <c r="EC3" s="42"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="43"/>
+      <c r="DK3" s="43"/>
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="43"/>
+      <c r="DS3" s="43"/>
+      <c r="DT3" s="43"/>
+      <c r="DU3" s="43"/>
+      <c r="DV3" s="43"/>
+      <c r="DW3" s="43"/>
+      <c r="DX3" s="43"/>
+      <c r="DY3" s="43"/>
+      <c r="DZ3" s="43"/>
+      <c r="EA3" s="43"/>
+      <c r="EB3" s="43"/>
+      <c r="EC3" s="43"/>
     </row>
     <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="J4" s="48" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="J4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48" t="s">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48" t="s">
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48" t="s">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48" t="s">
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="48" t="s">
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="48" t="s">
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="48"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="48"/>
-      <c r="BP4" s="48"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="48"/>
-      <c r="BS4" s="48" t="s">
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="48"/>
-      <c r="BV4" s="48"/>
-      <c r="BW4" s="48"/>
-      <c r="BX4" s="48"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="48" t="s">
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="48"/>
-      <c r="CB4" s="48"/>
-      <c r="CC4" s="48"/>
-      <c r="CD4" s="48"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="48"/>
-      <c r="CG4" s="48" t="s">
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="48"/>
-      <c r="CI4" s="48"/>
-      <c r="CJ4" s="48"/>
-      <c r="CK4" s="48"/>
-      <c r="CL4" s="48"/>
-      <c r="CM4" s="48"/>
-      <c r="CN4" s="48" t="s">
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="48"/>
-      <c r="CP4" s="48"/>
-      <c r="CQ4" s="48"/>
-      <c r="CR4" s="48"/>
-      <c r="CS4" s="48"/>
-      <c r="CT4" s="48"/>
-      <c r="CU4" s="48" t="s">
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="48"/>
-      <c r="CW4" s="48"/>
-      <c r="CX4" s="48"/>
-      <c r="CY4" s="48"/>
-      <c r="CZ4" s="48"/>
-      <c r="DA4" s="48"/>
-      <c r="DB4" s="48" t="s">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="48"/>
-      <c r="DD4" s="48"/>
-      <c r="DE4" s="48"/>
-      <c r="DF4" s="48"/>
-      <c r="DG4" s="48"/>
-      <c r="DH4" s="48"/>
-      <c r="DI4" s="48" t="s">
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41"/>
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="48"/>
-      <c r="DK4" s="48"/>
-      <c r="DL4" s="48"/>
-      <c r="DM4" s="48"/>
-      <c r="DN4" s="48"/>
-      <c r="DO4" s="48"/>
-      <c r="DP4" s="48" t="s">
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="48"/>
-      <c r="DR4" s="48"/>
-      <c r="DS4" s="48"/>
-      <c r="DT4" s="48"/>
-      <c r="DU4" s="48"/>
-      <c r="DV4" s="48"/>
-      <c r="DW4" s="48" t="s">
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41"/>
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="48"/>
-      <c r="DY4" s="48"/>
-      <c r="DZ4" s="48"/>
-      <c r="EA4" s="48"/>
-      <c r="EB4" s="48"/>
-      <c r="EC4" s="48"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
       <c r="ED4" s="2"/>
     </row>
     <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2036,12 +2042,12 @@
       <c r="ED5" s="7"/>
     </row>
     <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2300,87 +2306,87 @@
       </c>
       <c r="BU6" s="21">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BV6" s="21">
         <f t="shared" ref="BV6:DA6" si="2">COUNTIF(BV8:BV38, ".")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BW6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BX6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CG6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CH6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CI6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CJ6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CK6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CM6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP6" s="21">
         <f t="shared" si="2"/>
@@ -2545,194 +2551,194 @@
       <c r="ED6" s="2"/>
     </row>
     <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="35" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="44">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="38">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="44">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="38">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="44">
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="44">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="38">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="44">
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="38">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="44">
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="38">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="44">
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="38">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="45"/>
-      <c r="BG7" s="45"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="44">
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="38">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="45"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="46"/>
-      <c r="BS7" s="44">
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="38">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
-        <v>63</v>
-      </c>
-      <c r="BT7" s="45"/>
-      <c r="BU7" s="45"/>
-      <c r="BV7" s="45"/>
-      <c r="BW7" s="45"/>
-      <c r="BX7" s="45"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="44">
+        <v>56</v>
+      </c>
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="38">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
-        <v>56</v>
-      </c>
-      <c r="CA7" s="45"/>
-      <c r="CB7" s="45"/>
-      <c r="CC7" s="45"/>
-      <c r="CD7" s="45"/>
-      <c r="CE7" s="45"/>
-      <c r="CF7" s="46"/>
-      <c r="CG7" s="44">
+        <v>48</v>
+      </c>
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="39"/>
+      <c r="CC7" s="39"/>
+      <c r="CD7" s="39"/>
+      <c r="CE7" s="39"/>
+      <c r="CF7" s="40"/>
+      <c r="CG7" s="38">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
-        <v>49</v>
-      </c>
-      <c r="CH7" s="45"/>
-      <c r="CI7" s="45"/>
-      <c r="CJ7" s="45"/>
-      <c r="CK7" s="45"/>
-      <c r="CL7" s="45"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="44">
+        <v>41</v>
+      </c>
+      <c r="CH7" s="39"/>
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="39"/>
+      <c r="CK7" s="39"/>
+      <c r="CL7" s="39"/>
+      <c r="CM7" s="40"/>
+      <c r="CN7" s="38">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
-        <v>59</v>
-      </c>
-      <c r="CO7" s="45"/>
-      <c r="CP7" s="45"/>
-      <c r="CQ7" s="45"/>
-      <c r="CR7" s="45"/>
-      <c r="CS7" s="45"/>
-      <c r="CT7" s="46"/>
-      <c r="CU7" s="44">
+        <v>57</v>
+      </c>
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="39"/>
+      <c r="CQ7" s="39"/>
+      <c r="CR7" s="39"/>
+      <c r="CS7" s="39"/>
+      <c r="CT7" s="40"/>
+      <c r="CU7" s="38">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="45"/>
-      <c r="CW7" s="45"/>
-      <c r="CX7" s="45"/>
-      <c r="CY7" s="45"/>
-      <c r="CZ7" s="45"/>
-      <c r="DA7" s="46"/>
-      <c r="DB7" s="44">
+      <c r="CV7" s="39"/>
+      <c r="CW7" s="39"/>
+      <c r="CX7" s="39"/>
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="39"/>
+      <c r="DA7" s="40"/>
+      <c r="DB7" s="38">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="45"/>
-      <c r="DD7" s="45"/>
-      <c r="DE7" s="45"/>
-      <c r="DF7" s="45"/>
-      <c r="DG7" s="45"/>
-      <c r="DH7" s="46"/>
-      <c r="DI7" s="44">
+      <c r="DC7" s="39"/>
+      <c r="DD7" s="39"/>
+      <c r="DE7" s="39"/>
+      <c r="DF7" s="39"/>
+      <c r="DG7" s="39"/>
+      <c r="DH7" s="40"/>
+      <c r="DI7" s="38">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="45"/>
-      <c r="DK7" s="45"/>
-      <c r="DL7" s="45"/>
-      <c r="DM7" s="45"/>
-      <c r="DN7" s="45"/>
-      <c r="DO7" s="46"/>
-      <c r="DP7" s="44">
+      <c r="DJ7" s="39"/>
+      <c r="DK7" s="39"/>
+      <c r="DL7" s="39"/>
+      <c r="DM7" s="39"/>
+      <c r="DN7" s="39"/>
+      <c r="DO7" s="40"/>
+      <c r="DP7" s="38">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="45"/>
-      <c r="DR7" s="45"/>
-      <c r="DS7" s="45"/>
-      <c r="DT7" s="45"/>
-      <c r="DU7" s="45"/>
-      <c r="DV7" s="46"/>
-      <c r="DW7" s="44">
+      <c r="DQ7" s="39"/>
+      <c r="DR7" s="39"/>
+      <c r="DS7" s="39"/>
+      <c r="DT7" s="39"/>
+      <c r="DU7" s="39"/>
+      <c r="DV7" s="40"/>
+      <c r="DW7" s="38">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="45"/>
-      <c r="DY7" s="45"/>
-      <c r="DZ7" s="45"/>
-      <c r="EA7" s="45"/>
-      <c r="EB7" s="45"/>
-      <c r="EC7" s="46"/>
+      <c r="DX7" s="39"/>
+      <c r="DY7" s="39"/>
+      <c r="DZ7" s="39"/>
+      <c r="EA7" s="39"/>
+      <c r="EB7" s="39"/>
+      <c r="EC7" s="40"/>
       <c r="ED7" s="2"/>
     </row>
     <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -4053,7 +4059,7 @@
       <c r="EC14" s="13"/>
       <c r="ED14" s="2"/>
     </row>
-    <row r="15" spans="1:134" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:134" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -5066,9 +5072,9 @@
       <c r="G20" s="10">
         <v>45769</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>Finished</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="12"/>
@@ -5261,7 +5267,9 @@
       <c r="C21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E21" s="15" t="str">
         <f t="shared" si="20"/>
         <v>Networks and Internet Applications - CA2</v>
@@ -5272,9 +5280,9 @@
       <c r="G21" s="6">
         <v>45774</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>Due Today</v>
       </c>
       <c r="I21" s="34">
         <v>45788</v>
@@ -5356,10 +5364,10 @@
         <v>13</v>
       </c>
       <c r="BV21" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="BW21" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="BX21" s="13" t="s">
         <v>13</v>
@@ -5446,7 +5454,7 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I22" s="34">
         <v>45789</v>
@@ -5522,10 +5530,10 @@
         <v>13</v>
       </c>
       <c r="BV22" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="BW22" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="BX22" s="12" t="s">
         <v>13</v>
@@ -5626,7 +5634,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5735,7 +5743,7 @@
         <v>13</v>
       </c>
       <c r="BU23" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="BV23" s="13" t="s">
         <v>13</v>
@@ -5768,13 +5776,13 @@
         <v>13</v>
       </c>
       <c r="CF23" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CG23" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CH23" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CI23" s="13"/>
       <c r="CJ23" s="13"/>
@@ -5846,7 +5854,7 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I24" s="34">
         <v>45807</v>
@@ -5942,13 +5950,13 @@
         <v>13</v>
       </c>
       <c r="BX24" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="BY24" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="BZ24" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CA24" s="13" t="s">
         <v>13</v>
@@ -6054,7 +6062,7 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I25" s="34">
         <v>45802</v>
@@ -6159,10 +6167,10 @@
         <v>13</v>
       </c>
       <c r="CA25" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CB25" s="29" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CC25" s="26" t="s">
         <v>13</v>
@@ -6262,7 +6270,7 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -6369,25 +6377,25 @@
         <v>13</v>
       </c>
       <c r="CC26" s="27" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CD26" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CE26" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CF26" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CG26" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CH26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="CI26" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CJ26" s="13" t="s">
         <v>13</v>
@@ -6466,9 +6474,9 @@
       <c r="G27" s="6">
         <v>45790</v>
       </c>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>Not Started</v>
+        <v>16</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
@@ -6580,22 +6588,22 @@
         <v>13</v>
       </c>
       <c r="CJ27" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CK27" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CL27" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CM27" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CN27" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CO27" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CP27" s="12"/>
       <c r="CQ27" s="12"/>
@@ -7012,7 +7020,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7304,7 +7312,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -9025,6 +9033,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:AX3"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="DW7:EC7"/>
     <mergeCell ref="AX7:BD7"/>
@@ -9041,39 +9082,6 @@
     <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:AX3"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasdalessandro/Desktop/UOC-2025-01/zz_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6574292C-CB68-4575-86E9-1187AE46322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB46D8D-6AC5-A743-82F6-42ED607DE3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="67">
   <si>
     <t>Start date</t>
   </si>
@@ -844,39 +844,6 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,8 +862,41 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,36 +1266,36 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="CC8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DB21" sqref="DB21"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="3"/>
-    <col min="2" max="2" width="32.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="75" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="76" max="133" width="3.81640625" style="9" customWidth="1"/>
-    <col min="134" max="16384" width="8.54296875" style="3"/>
+    <col min="1" max="1" width="8.5" style="3"/>
+    <col min="2" max="2" width="32.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="80" width="3.83203125" style="9" hidden="1" customWidth="1"/>
+    <col min="81" max="133" width="3.83203125" style="9" customWidth="1"/>
+    <col min="134" max="16384" width="8.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1328,337 +1328,337 @@
       <c r="AW2" s="19"/>
       <c r="AX2" s="19"/>
     </row>
-    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="J3" s="49" t="s">
+    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="J3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="42" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="42" t="s">
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="42" t="s">
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="43"/>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="43"/>
-      <c r="CS3" s="43"/>
-      <c r="CT3" s="43"/>
-      <c r="CU3" s="43"/>
-      <c r="CV3" s="43"/>
-      <c r="CW3" s="43"/>
-      <c r="CX3" s="43"/>
-      <c r="CY3" s="43"/>
-      <c r="CZ3" s="43"/>
-      <c r="DA3" s="43"/>
-      <c r="DB3" s="43"/>
-      <c r="DC3" s="43"/>
-      <c r="DD3" s="43"/>
-      <c r="DE3" s="43"/>
-      <c r="DF3" s="44"/>
-      <c r="DG3" s="45" t="s">
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="42"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="42"/>
+      <c r="CU3" s="42"/>
+      <c r="CV3" s="42"/>
+      <c r="CW3" s="42"/>
+      <c r="CX3" s="42"/>
+      <c r="CY3" s="42"/>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="42"/>
+      <c r="DB3" s="42"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="43"/>
-      <c r="DI3" s="43"/>
-      <c r="DJ3" s="43"/>
-      <c r="DK3" s="43"/>
-      <c r="DL3" s="43"/>
-      <c r="DM3" s="43"/>
-      <c r="DN3" s="43"/>
-      <c r="DO3" s="43"/>
-      <c r="DP3" s="43"/>
-      <c r="DQ3" s="43"/>
-      <c r="DR3" s="43"/>
-      <c r="DS3" s="43"/>
-      <c r="DT3" s="43"/>
-      <c r="DU3" s="43"/>
-      <c r="DV3" s="43"/>
-      <c r="DW3" s="43"/>
-      <c r="DX3" s="43"/>
-      <c r="DY3" s="43"/>
-      <c r="DZ3" s="43"/>
-      <c r="EA3" s="43"/>
-      <c r="EB3" s="43"/>
-      <c r="EC3" s="43"/>
+      <c r="DH3" s="42"/>
+      <c r="DI3" s="42"/>
+      <c r="DJ3" s="42"/>
+      <c r="DK3" s="42"/>
+      <c r="DL3" s="42"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="42"/>
+      <c r="DS3" s="42"/>
+      <c r="DT3" s="42"/>
+      <c r="DU3" s="42"/>
+      <c r="DV3" s="42"/>
+      <c r="DW3" s="42"/>
+      <c r="DX3" s="42"/>
+      <c r="DY3" s="42"/>
+      <c r="DZ3" s="42"/>
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="42"/>
+      <c r="EC3" s="42"/>
     </row>
-    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="J4" s="41" t="s">
+    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41" t="s">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41" t="s">
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41" t="s">
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41" t="s">
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41" t="s">
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41" t="s">
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="48"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="48"/>
+      <c r="BS4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41" t="s">
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41" t="s">
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="48"/>
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="48"/>
+      <c r="CG4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41" t="s">
+      <c r="CH4" s="48"/>
+      <c r="CI4" s="48"/>
+      <c r="CJ4" s="48"/>
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="48"/>
+      <c r="CM4" s="48"/>
+      <c r="CN4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41" t="s">
+      <c r="CO4" s="48"/>
+      <c r="CP4" s="48"/>
+      <c r="CQ4" s="48"/>
+      <c r="CR4" s="48"/>
+      <c r="CS4" s="48"/>
+      <c r="CT4" s="48"/>
+      <c r="CU4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41" t="s">
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
+      <c r="CX4" s="48"/>
+      <c r="CY4" s="48"/>
+      <c r="CZ4" s="48"/>
+      <c r="DA4" s="48"/>
+      <c r="DB4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41"/>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41" t="s">
+      <c r="DC4" s="48"/>
+      <c r="DD4" s="48"/>
+      <c r="DE4" s="48"/>
+      <c r="DF4" s="48"/>
+      <c r="DG4" s="48"/>
+      <c r="DH4" s="48"/>
+      <c r="DI4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41" t="s">
+      <c r="DJ4" s="48"/>
+      <c r="DK4" s="48"/>
+      <c r="DL4" s="48"/>
+      <c r="DM4" s="48"/>
+      <c r="DN4" s="48"/>
+      <c r="DO4" s="48"/>
+      <c r="DP4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41"/>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41" t="s">
+      <c r="DQ4" s="48"/>
+      <c r="DR4" s="48"/>
+      <c r="DS4" s="48"/>
+      <c r="DT4" s="48"/>
+      <c r="DU4" s="48"/>
+      <c r="DV4" s="48"/>
+      <c r="DW4" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
+      <c r="DX4" s="48"/>
+      <c r="DY4" s="48"/>
+      <c r="DZ4" s="48"/>
+      <c r="EA4" s="48"/>
+      <c r="EB4" s="48"/>
+      <c r="EC4" s="48"/>
       <c r="ED4" s="2"/>
     </row>
-    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2041,13 +2041,13 @@
       </c>
       <c r="ED5" s="7"/>
     </row>
-    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2550,198 +2550,198 @@
       </c>
       <c r="ED6" s="2"/>
     </row>
-    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="46" t="s">
+    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="38">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="44">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="38">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="44">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="38">
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="44">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="38">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="44">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="38">
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="44">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="38">
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="44">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="38">
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="44">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="38">
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="44">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="40"/>
-      <c r="BS7" s="38">
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BR7" s="46"/>
+      <c r="BS7" s="44">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>56</v>
       </c>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="40"/>
-      <c r="BZ7" s="38">
+      <c r="BT7" s="45"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="45"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="45"/>
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="44">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>48</v>
       </c>
-      <c r="CA7" s="39"/>
-      <c r="CB7" s="39"/>
-      <c r="CC7" s="39"/>
-      <c r="CD7" s="39"/>
-      <c r="CE7" s="39"/>
-      <c r="CF7" s="40"/>
-      <c r="CG7" s="38">
+      <c r="CA7" s="45"/>
+      <c r="CB7" s="45"/>
+      <c r="CC7" s="45"/>
+      <c r="CD7" s="45"/>
+      <c r="CE7" s="45"/>
+      <c r="CF7" s="46"/>
+      <c r="CG7" s="44">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>41</v>
       </c>
-      <c r="CH7" s="39"/>
-      <c r="CI7" s="39"/>
-      <c r="CJ7" s="39"/>
-      <c r="CK7" s="39"/>
-      <c r="CL7" s="39"/>
-      <c r="CM7" s="40"/>
-      <c r="CN7" s="38">
+      <c r="CH7" s="45"/>
+      <c r="CI7" s="45"/>
+      <c r="CJ7" s="45"/>
+      <c r="CK7" s="45"/>
+      <c r="CL7" s="45"/>
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="44">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>57</v>
       </c>
-      <c r="CO7" s="39"/>
-      <c r="CP7" s="39"/>
-      <c r="CQ7" s="39"/>
-      <c r="CR7" s="39"/>
-      <c r="CS7" s="39"/>
-      <c r="CT7" s="40"/>
-      <c r="CU7" s="38">
+      <c r="CO7" s="45"/>
+      <c r="CP7" s="45"/>
+      <c r="CQ7" s="45"/>
+      <c r="CR7" s="45"/>
+      <c r="CS7" s="45"/>
+      <c r="CT7" s="46"/>
+      <c r="CU7" s="44">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="39"/>
-      <c r="CW7" s="39"/>
-      <c r="CX7" s="39"/>
-      <c r="CY7" s="39"/>
-      <c r="CZ7" s="39"/>
-      <c r="DA7" s="40"/>
-      <c r="DB7" s="38">
+      <c r="CV7" s="45"/>
+      <c r="CW7" s="45"/>
+      <c r="CX7" s="45"/>
+      <c r="CY7" s="45"/>
+      <c r="CZ7" s="45"/>
+      <c r="DA7" s="46"/>
+      <c r="DB7" s="44">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="39"/>
-      <c r="DD7" s="39"/>
-      <c r="DE7" s="39"/>
-      <c r="DF7" s="39"/>
-      <c r="DG7" s="39"/>
-      <c r="DH7" s="40"/>
-      <c r="DI7" s="38">
+      <c r="DC7" s="45"/>
+      <c r="DD7" s="45"/>
+      <c r="DE7" s="45"/>
+      <c r="DF7" s="45"/>
+      <c r="DG7" s="45"/>
+      <c r="DH7" s="46"/>
+      <c r="DI7" s="44">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="39"/>
-      <c r="DK7" s="39"/>
-      <c r="DL7" s="39"/>
-      <c r="DM7" s="39"/>
-      <c r="DN7" s="39"/>
-      <c r="DO7" s="40"/>
-      <c r="DP7" s="38">
+      <c r="DJ7" s="45"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="46"/>
+      <c r="DP7" s="44">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="39"/>
-      <c r="DR7" s="39"/>
-      <c r="DS7" s="39"/>
-      <c r="DT7" s="39"/>
-      <c r="DU7" s="39"/>
-      <c r="DV7" s="40"/>
-      <c r="DW7" s="38">
+      <c r="DQ7" s="45"/>
+      <c r="DR7" s="45"/>
+      <c r="DS7" s="45"/>
+      <c r="DT7" s="45"/>
+      <c r="DU7" s="45"/>
+      <c r="DV7" s="46"/>
+      <c r="DW7" s="44">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="39"/>
-      <c r="DY7" s="39"/>
-      <c r="DZ7" s="39"/>
-      <c r="EA7" s="39"/>
-      <c r="EB7" s="39"/>
-      <c r="EC7" s="40"/>
+      <c r="DX7" s="45"/>
+      <c r="DY7" s="45"/>
+      <c r="DZ7" s="45"/>
+      <c r="EA7" s="45"/>
+      <c r="EB7" s="45"/>
+      <c r="EC7" s="46"/>
       <c r="ED7" s="2"/>
     </row>
-    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="EC8" s="11"/>
       <c r="ED8" s="2"/>
     </row>
-    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="EC9" s="12"/>
       <c r="ED9" s="2"/>
     </row>
-    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="EC10" s="12"/>
       <c r="ED10" s="2"/>
     </row>
-    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="EC11" s="13"/>
       <c r="ED11" s="2"/>
     </row>
-    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
         <v>27</v>
@@ -3683,7 +3683,7 @@
       <c r="EC12" s="13"/>
       <c r="ED12" s="2"/>
     </row>
-    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>14</v>
@@ -3865,7 +3865,7 @@
       <c r="EC13" s="12"/>
       <c r="ED13" s="2"/>
     </row>
-    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
         <v>19</v>
@@ -4059,7 +4059,7 @@
       <c r="EC14" s="13"/>
       <c r="ED14" s="2"/>
     </row>
-    <row r="15" spans="1:134" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:134" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -4233,7 +4233,7 @@
       <c r="EC15" s="12"/>
       <c r="ED15" s="2"/>
     </row>
-    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
         <v>33</v>
@@ -4439,7 +4439,7 @@
       <c r="EC16" s="13"/>
       <c r="ED16" s="2"/>
     </row>
-    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
@@ -4649,7 +4649,7 @@
       <c r="EC17" s="12"/>
       <c r="ED17" s="2"/>
     </row>
-    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
         <v>27</v>
@@ -4845,7 +4845,7 @@
       <c r="EC18" s="12"/>
       <c r="ED18" s="2"/>
     </row>
-    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="18" t="s">
         <v>8</v>
@@ -5051,7 +5051,7 @@
       <c r="EC19" s="13"/>
       <c r="ED19" s="2"/>
     </row>
-    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>19</v>
@@ -5259,7 +5259,7 @@
       <c r="EC20" s="12"/>
       <c r="ED20" s="2"/>
     </row>
-    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>24</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="H21" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Due Today</v>
+        <v>Finished</v>
       </c>
       <c r="I21" s="34">
         <v>45788</v>
@@ -5433,7 +5433,7 @@
       <c r="EC21" s="13"/>
       <c r="ED21" s="2"/>
     </row>
-    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>14</v>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I22" s="34">
         <v>45789</v>
@@ -5613,7 +5613,7 @@
       <c r="EC22" s="12"/>
       <c r="ED22" s="2"/>
     </row>
-    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
         <v>33</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5833,7 +5833,7 @@
       <c r="EC23" s="13"/>
       <c r="ED23" s="2"/>
     </row>
-    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
         <v>27</v>
@@ -5841,7 +5841,9 @@
       <c r="C24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E24" s="16" t="str">
         <f>B24&amp;" - "&amp;C24</f>
         <v>Mobile app development - CAA4</v>
@@ -5854,7 +5856,7 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I24" s="34">
         <v>45807</v>
@@ -6041,7 +6043,7 @@
       <c r="EC24" s="13"/>
       <c r="ED24" s="2"/>
     </row>
-    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="18" t="s">
         <v>24</v>
@@ -6049,7 +6051,9 @@
       <c r="C25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E25" s="15" t="str">
         <f t="shared" si="20"/>
         <v>Networks and Internet Applications - PR3</v>
@@ -6062,7 +6066,7 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I25" s="34">
         <v>45802</v>
@@ -6249,7 +6253,7 @@
       <c r="EC25" s="12"/>
       <c r="ED25" s="2"/>
     </row>
-    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -6270,7 +6274,7 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -6455,7 +6459,7 @@
       <c r="EC26" s="13"/>
       <c r="ED26" s="2"/>
     </row>
-    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -6476,7 +6480,7 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
@@ -6647,7 +6651,7 @@
       <c r="EC27" s="12"/>
       <c r="ED27" s="2"/>
     </row>
-    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
         <v>14</v>
@@ -6827,7 +6831,7 @@
       <c r="EC28" s="13"/>
       <c r="ED28" s="2"/>
     </row>
-    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="17" t="s">
         <v>24</v>
@@ -6999,7 +7003,7 @@
       <c r="EC29" s="12"/>
       <c r="ED29" s="2"/>
     </row>
-    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="17" t="s">
         <v>14</v>
@@ -7020,7 +7024,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7291,7 +7295,7 @@
       <c r="EC30" s="13"/>
       <c r="ED30" s="2"/>
     </row>
-    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
@@ -7312,7 +7316,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -7569,7 +7573,7 @@
       <c r="EC31" s="12"/>
       <c r="ED31" s="2"/>
     </row>
-    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>27</v>
@@ -7763,7 +7767,7 @@
       <c r="EC32" s="12"/>
       <c r="ED32" s="2"/>
     </row>
-    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="17" t="s">
         <v>33</v>
@@ -7969,7 +7973,7 @@
       <c r="EC33" s="13"/>
       <c r="ED33" s="2"/>
     </row>
-    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
         <v>24</v>
@@ -8177,7 +8181,7 @@
       <c r="EC34" s="12"/>
       <c r="ED34" s="2"/>
     </row>
-    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
@@ -8383,7 +8387,7 @@
       <c r="EC35" s="13"/>
       <c r="ED35" s="2"/>
     </row>
-    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>19</v>
@@ -8587,7 +8591,7 @@
       <c r="EC36" s="12"/>
       <c r="ED36" s="2"/>
     </row>
-    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
         <v>33</v>
@@ -8749,7 +8753,7 @@
       <c r="EC37" s="13"/>
       <c r="ED37" s="2"/>
     </row>
-    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
         <v>33</v>
@@ -8901,7 +8905,7 @@
       <c r="EC38" s="13"/>
       <c r="ED38" s="2"/>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:134" x14ac:dyDescent="0.2">
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -9033,6 +9037,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="DW7:EC7"/>
+    <mergeCell ref="AX7:BD7"/>
+    <mergeCell ref="BE7:BK7"/>
+    <mergeCell ref="BL7:BR7"/>
+    <mergeCell ref="BS7:BY7"/>
+    <mergeCell ref="BZ7:CF7"/>
+    <mergeCell ref="CG7:CM7"/>
+    <mergeCell ref="CN7:CT7"/>
+    <mergeCell ref="CU7:DA7"/>
+    <mergeCell ref="DB7:DH7"/>
+    <mergeCell ref="DI7:DO7"/>
+    <mergeCell ref="DP7:DV7"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -9049,39 +9086,6 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="DW7:EC7"/>
-    <mergeCell ref="AX7:BD7"/>
-    <mergeCell ref="BE7:BK7"/>
-    <mergeCell ref="BL7:BR7"/>
-    <mergeCell ref="BS7:BY7"/>
-    <mergeCell ref="BZ7:CF7"/>
-    <mergeCell ref="CG7:CM7"/>
-    <mergeCell ref="CN7:CT7"/>
-    <mergeCell ref="CU7:DA7"/>
-    <mergeCell ref="DB7:DH7"/>
-    <mergeCell ref="DI7:DO7"/>
-    <mergeCell ref="DP7:DV7"/>
-    <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="DB4:DH4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasdalessandro/Desktop/UOC-2025-01/zz_utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB46D8D-6AC5-A743-82F6-42ED607DE3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F9A42-B2AD-4A07-9977-46924C2626B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37260" yWindow="1140" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -844,6 +844,39 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,41 +895,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,36 +1266,36 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="CC8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="CC19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5:E7"/>
+      <selection pane="bottomRight" activeCell="CR29" sqref="CR29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="3"/>
-    <col min="2" max="2" width="32.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="80" width="3.83203125" style="9" hidden="1" customWidth="1"/>
-    <col min="81" max="133" width="3.83203125" style="9" customWidth="1"/>
-    <col min="134" max="16384" width="8.5" style="3"/>
+    <col min="1" max="1" width="8.453125" style="3"/>
+    <col min="2" max="2" width="32.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="83" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="84" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="134" max="16384" width="8.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1328,337 +1328,337 @@
       <c r="AW2" s="19"/>
       <c r="AX2" s="19"/>
     </row>
-    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="J3" s="38" t="s">
+    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="41" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="41" t="s">
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="42"/>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="42"/>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42"/>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42"/>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="42"/>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="42"/>
-      <c r="CU3" s="42"/>
-      <c r="CV3" s="42"/>
-      <c r="CW3" s="42"/>
-      <c r="CX3" s="42"/>
-      <c r="CY3" s="42"/>
-      <c r="CZ3" s="42"/>
-      <c r="DA3" s="42"/>
-      <c r="DB3" s="42"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="43"/>
-      <c r="DG3" s="49" t="s">
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="43"/>
+      <c r="CW3" s="43"/>
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="42"/>
-      <c r="DI3" s="42"/>
-      <c r="DJ3" s="42"/>
-      <c r="DK3" s="42"/>
-      <c r="DL3" s="42"/>
-      <c r="DM3" s="42"/>
-      <c r="DN3" s="42"/>
-      <c r="DO3" s="42"/>
-      <c r="DP3" s="42"/>
-      <c r="DQ3" s="42"/>
-      <c r="DR3" s="42"/>
-      <c r="DS3" s="42"/>
-      <c r="DT3" s="42"/>
-      <c r="DU3" s="42"/>
-      <c r="DV3" s="42"/>
-      <c r="DW3" s="42"/>
-      <c r="DX3" s="42"/>
-      <c r="DY3" s="42"/>
-      <c r="DZ3" s="42"/>
-      <c r="EA3" s="42"/>
-      <c r="EB3" s="42"/>
-      <c r="EC3" s="42"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="43"/>
+      <c r="DK3" s="43"/>
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="43"/>
+      <c r="DS3" s="43"/>
+      <c r="DT3" s="43"/>
+      <c r="DU3" s="43"/>
+      <c r="DV3" s="43"/>
+      <c r="DW3" s="43"/>
+      <c r="DX3" s="43"/>
+      <c r="DY3" s="43"/>
+      <c r="DZ3" s="43"/>
+      <c r="EA3" s="43"/>
+      <c r="EB3" s="43"/>
+      <c r="EC3" s="43"/>
     </row>
-    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="J4" s="48" t="s">
+    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="J4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48" t="s">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48" t="s">
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48" t="s">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48" t="s">
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="48" t="s">
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="48" t="s">
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="48"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="48"/>
-      <c r="BP4" s="48"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="48"/>
-      <c r="BS4" s="48" t="s">
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="48"/>
-      <c r="BV4" s="48"/>
-      <c r="BW4" s="48"/>
-      <c r="BX4" s="48"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="48" t="s">
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="48"/>
-      <c r="CB4" s="48"/>
-      <c r="CC4" s="48"/>
-      <c r="CD4" s="48"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="48"/>
-      <c r="CG4" s="48" t="s">
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="48"/>
-      <c r="CI4" s="48"/>
-      <c r="CJ4" s="48"/>
-      <c r="CK4" s="48"/>
-      <c r="CL4" s="48"/>
-      <c r="CM4" s="48"/>
-      <c r="CN4" s="48" t="s">
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="48"/>
-      <c r="CP4" s="48"/>
-      <c r="CQ4" s="48"/>
-      <c r="CR4" s="48"/>
-      <c r="CS4" s="48"/>
-      <c r="CT4" s="48"/>
-      <c r="CU4" s="48" t="s">
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="48"/>
-      <c r="CW4" s="48"/>
-      <c r="CX4" s="48"/>
-      <c r="CY4" s="48"/>
-      <c r="CZ4" s="48"/>
-      <c r="DA4" s="48"/>
-      <c r="DB4" s="48" t="s">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="48"/>
-      <c r="DD4" s="48"/>
-      <c r="DE4" s="48"/>
-      <c r="DF4" s="48"/>
-      <c r="DG4" s="48"/>
-      <c r="DH4" s="48"/>
-      <c r="DI4" s="48" t="s">
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41"/>
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="48"/>
-      <c r="DK4" s="48"/>
-      <c r="DL4" s="48"/>
-      <c r="DM4" s="48"/>
-      <c r="DN4" s="48"/>
-      <c r="DO4" s="48"/>
-      <c r="DP4" s="48" t="s">
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="48"/>
-      <c r="DR4" s="48"/>
-      <c r="DS4" s="48"/>
-      <c r="DT4" s="48"/>
-      <c r="DU4" s="48"/>
-      <c r="DV4" s="48"/>
-      <c r="DW4" s="48" t="s">
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41"/>
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="48"/>
-      <c r="DY4" s="48"/>
-      <c r="DZ4" s="48"/>
-      <c r="EA4" s="48"/>
-      <c r="EB4" s="48"/>
-      <c r="EC4" s="48"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
       <c r="ED4" s="2"/>
     </row>
-    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2041,13 +2041,13 @@
       </c>
       <c r="ED5" s="7"/>
     </row>
-    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2550,198 +2550,198 @@
       </c>
       <c r="ED6" s="2"/>
     </row>
-    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="35" t="s">
+    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="44">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="38">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="44">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="38">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="44">
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="44">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="38">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="44">
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="38">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="44">
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="38">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="44">
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="38">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="45"/>
-      <c r="BG7" s="45"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="44">
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="38">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="45"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="46"/>
-      <c r="BS7" s="44">
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="38">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>56</v>
       </c>
-      <c r="BT7" s="45"/>
-      <c r="BU7" s="45"/>
-      <c r="BV7" s="45"/>
-      <c r="BW7" s="45"/>
-      <c r="BX7" s="45"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="44">
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="38">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>48</v>
       </c>
-      <c r="CA7" s="45"/>
-      <c r="CB7" s="45"/>
-      <c r="CC7" s="45"/>
-      <c r="CD7" s="45"/>
-      <c r="CE7" s="45"/>
-      <c r="CF7" s="46"/>
-      <c r="CG7" s="44">
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="39"/>
+      <c r="CC7" s="39"/>
+      <c r="CD7" s="39"/>
+      <c r="CE7" s="39"/>
+      <c r="CF7" s="40"/>
+      <c r="CG7" s="38">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>41</v>
       </c>
-      <c r="CH7" s="45"/>
-      <c r="CI7" s="45"/>
-      <c r="CJ7" s="45"/>
-      <c r="CK7" s="45"/>
-      <c r="CL7" s="45"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="44">
+      <c r="CH7" s="39"/>
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="39"/>
+      <c r="CK7" s="39"/>
+      <c r="CL7" s="39"/>
+      <c r="CM7" s="40"/>
+      <c r="CN7" s="38">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>57</v>
       </c>
-      <c r="CO7" s="45"/>
-      <c r="CP7" s="45"/>
-      <c r="CQ7" s="45"/>
-      <c r="CR7" s="45"/>
-      <c r="CS7" s="45"/>
-      <c r="CT7" s="46"/>
-      <c r="CU7" s="44">
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="39"/>
+      <c r="CQ7" s="39"/>
+      <c r="CR7" s="39"/>
+      <c r="CS7" s="39"/>
+      <c r="CT7" s="40"/>
+      <c r="CU7" s="38">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="45"/>
-      <c r="CW7" s="45"/>
-      <c r="CX7" s="45"/>
-      <c r="CY7" s="45"/>
-      <c r="CZ7" s="45"/>
-      <c r="DA7" s="46"/>
-      <c r="DB7" s="44">
+      <c r="CV7" s="39"/>
+      <c r="CW7" s="39"/>
+      <c r="CX7" s="39"/>
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="39"/>
+      <c r="DA7" s="40"/>
+      <c r="DB7" s="38">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="45"/>
-      <c r="DD7" s="45"/>
-      <c r="DE7" s="45"/>
-      <c r="DF7" s="45"/>
-      <c r="DG7" s="45"/>
-      <c r="DH7" s="46"/>
-      <c r="DI7" s="44">
+      <c r="DC7" s="39"/>
+      <c r="DD7" s="39"/>
+      <c r="DE7" s="39"/>
+      <c r="DF7" s="39"/>
+      <c r="DG7" s="39"/>
+      <c r="DH7" s="40"/>
+      <c r="DI7" s="38">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="45"/>
-      <c r="DK7" s="45"/>
-      <c r="DL7" s="45"/>
-      <c r="DM7" s="45"/>
-      <c r="DN7" s="45"/>
-      <c r="DO7" s="46"/>
-      <c r="DP7" s="44">
+      <c r="DJ7" s="39"/>
+      <c r="DK7" s="39"/>
+      <c r="DL7" s="39"/>
+      <c r="DM7" s="39"/>
+      <c r="DN7" s="39"/>
+      <c r="DO7" s="40"/>
+      <c r="DP7" s="38">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="45"/>
-      <c r="DR7" s="45"/>
-      <c r="DS7" s="45"/>
-      <c r="DT7" s="45"/>
-      <c r="DU7" s="45"/>
-      <c r="DV7" s="46"/>
-      <c r="DW7" s="44">
+      <c r="DQ7" s="39"/>
+      <c r="DR7" s="39"/>
+      <c r="DS7" s="39"/>
+      <c r="DT7" s="39"/>
+      <c r="DU7" s="39"/>
+      <c r="DV7" s="40"/>
+      <c r="DW7" s="38">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="45"/>
-      <c r="DY7" s="45"/>
-      <c r="DZ7" s="45"/>
-      <c r="EA7" s="45"/>
-      <c r="EB7" s="45"/>
-      <c r="EC7" s="46"/>
+      <c r="DX7" s="39"/>
+      <c r="DY7" s="39"/>
+      <c r="DZ7" s="39"/>
+      <c r="EA7" s="39"/>
+      <c r="EB7" s="39"/>
+      <c r="EC7" s="40"/>
       <c r="ED7" s="2"/>
     </row>
-    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="EC8" s="11"/>
       <c r="ED8" s="2"/>
     </row>
-    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="EC9" s="12"/>
       <c r="ED9" s="2"/>
     </row>
-    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="EC10" s="12"/>
       <c r="ED10" s="2"/>
     </row>
-    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="EC11" s="13"/>
       <c r="ED11" s="2"/>
     </row>
-    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
         <v>27</v>
@@ -3683,7 +3683,7 @@
       <c r="EC12" s="13"/>
       <c r="ED12" s="2"/>
     </row>
-    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>14</v>
@@ -3865,7 +3865,7 @@
       <c r="EC13" s="12"/>
       <c r="ED13" s="2"/>
     </row>
-    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
         <v>19</v>
@@ -4059,7 +4059,7 @@
       <c r="EC14" s="13"/>
       <c r="ED14" s="2"/>
     </row>
-    <row r="15" spans="1:134" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:134" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -4233,7 +4233,7 @@
       <c r="EC15" s="12"/>
       <c r="ED15" s="2"/>
     </row>
-    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
         <v>33</v>
@@ -4439,7 +4439,7 @@
       <c r="EC16" s="13"/>
       <c r="ED16" s="2"/>
     </row>
-    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
         <v>24</v>
@@ -4649,7 +4649,7 @@
       <c r="EC17" s="12"/>
       <c r="ED17" s="2"/>
     </row>
-    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
         <v>27</v>
@@ -4845,7 +4845,7 @@
       <c r="EC18" s="12"/>
       <c r="ED18" s="2"/>
     </row>
-    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="18" t="s">
         <v>8</v>
@@ -5051,7 +5051,7 @@
       <c r="EC19" s="13"/>
       <c r="ED19" s="2"/>
     </row>
-    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>19</v>
@@ -5259,7 +5259,7 @@
       <c r="EC20" s="12"/>
       <c r="ED20" s="2"/>
     </row>
-    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>24</v>
@@ -5433,7 +5433,7 @@
       <c r="EC21" s="13"/>
       <c r="ED21" s="2"/>
     </row>
-    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>14</v>
@@ -5452,9 +5452,9 @@
       <c r="G22" s="10">
         <v>45781</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>Due Today</v>
       </c>
       <c r="I22" s="34">
         <v>45789</v>
@@ -5613,7 +5613,7 @@
       <c r="EC22" s="12"/>
       <c r="ED22" s="2"/>
     </row>
-    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
         <v>33</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5833,7 +5833,7 @@
       <c r="EC23" s="13"/>
       <c r="ED23" s="2"/>
     </row>
-    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
         <v>27</v>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I24" s="34">
         <v>45807</v>
@@ -6043,7 +6043,7 @@
       <c r="EC24" s="13"/>
       <c r="ED24" s="2"/>
     </row>
-    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="18" t="s">
         <v>24</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I25" s="34">
         <v>45802</v>
@@ -6253,7 +6253,7 @@
       <c r="EC25" s="12"/>
       <c r="ED25" s="2"/>
     </row>
-    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -6459,7 +6459,7 @@
       <c r="EC26" s="13"/>
       <c r="ED26" s="2"/>
     </row>
-    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
@@ -6651,7 +6651,7 @@
       <c r="EC27" s="12"/>
       <c r="ED27" s="2"/>
     </row>
-    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
         <v>14</v>
@@ -6831,7 +6831,7 @@
       <c r="EC28" s="13"/>
       <c r="ED28" s="2"/>
     </row>
-    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="17" t="s">
         <v>24</v>
@@ -7003,7 +7003,7 @@
       <c r="EC29" s="12"/>
       <c r="ED29" s="2"/>
     </row>
-    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="17" t="s">
         <v>14</v>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7295,7 +7295,7 @@
       <c r="EC30" s="13"/>
       <c r="ED30" s="2"/>
     </row>
-    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="18" t="s">
         <v>14</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -7573,7 +7573,7 @@
       <c r="EC31" s="12"/>
       <c r="ED31" s="2"/>
     </row>
-    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>27</v>
@@ -7767,7 +7767,7 @@
       <c r="EC32" s="12"/>
       <c r="ED32" s="2"/>
     </row>
-    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="17" t="s">
         <v>33</v>
@@ -7973,7 +7973,7 @@
       <c r="EC33" s="13"/>
       <c r="ED33" s="2"/>
     </row>
-    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
         <v>24</v>
@@ -8181,7 +8181,7 @@
       <c r="EC34" s="12"/>
       <c r="ED34" s="2"/>
     </row>
-    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
@@ -8387,7 +8387,7 @@
       <c r="EC35" s="13"/>
       <c r="ED35" s="2"/>
     </row>
-    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>19</v>
@@ -8591,7 +8591,7 @@
       <c r="EC36" s="12"/>
       <c r="ED36" s="2"/>
     </row>
-    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
         <v>33</v>
@@ -8753,7 +8753,7 @@
       <c r="EC37" s="13"/>
       <c r="ED37" s="2"/>
     </row>
-    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
         <v>33</v>
@@ -8905,7 +8905,7 @@
       <c r="EC38" s="13"/>
       <c r="ED38" s="2"/>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:134" x14ac:dyDescent="0.35">
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -9037,6 +9037,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:AX3"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="DW7:EC7"/>
     <mergeCell ref="AX7:BD7"/>
@@ -9053,39 +9086,6 @@
     <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:AX3"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F9A42-B2AD-4A07-9977-46924C2626B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F2C3B9-80B0-484C-83FF-6287BD1C5B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37260" yWindow="1140" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="67">
   <si>
     <t>Start date</t>
   </si>
@@ -844,39 +844,6 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,8 +862,41 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,10 +1266,10 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="CC19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="BT8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CR29" sqref="CR29"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,21 +1281,21 @@
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="83" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="84" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="10" max="84" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="85" max="133" width="3.81640625" style="9" customWidth="1"/>
     <col min="134" max="16384" width="8.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1329,336 +1329,336 @@
       <c r="AX2" s="19"/>
     </row>
     <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="J3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="J3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="42" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="42" t="s">
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="42" t="s">
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="43"/>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="43"/>
-      <c r="CS3" s="43"/>
-      <c r="CT3" s="43"/>
-      <c r="CU3" s="43"/>
-      <c r="CV3" s="43"/>
-      <c r="CW3" s="43"/>
-      <c r="CX3" s="43"/>
-      <c r="CY3" s="43"/>
-      <c r="CZ3" s="43"/>
-      <c r="DA3" s="43"/>
-      <c r="DB3" s="43"/>
-      <c r="DC3" s="43"/>
-      <c r="DD3" s="43"/>
-      <c r="DE3" s="43"/>
-      <c r="DF3" s="44"/>
-      <c r="DG3" s="45" t="s">
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="42"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="42"/>
+      <c r="CU3" s="42"/>
+      <c r="CV3" s="42"/>
+      <c r="CW3" s="42"/>
+      <c r="CX3" s="42"/>
+      <c r="CY3" s="42"/>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="42"/>
+      <c r="DB3" s="42"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="43"/>
-      <c r="DI3" s="43"/>
-      <c r="DJ3" s="43"/>
-      <c r="DK3" s="43"/>
-      <c r="DL3" s="43"/>
-      <c r="DM3" s="43"/>
-      <c r="DN3" s="43"/>
-      <c r="DO3" s="43"/>
-      <c r="DP3" s="43"/>
-      <c r="DQ3" s="43"/>
-      <c r="DR3" s="43"/>
-      <c r="DS3" s="43"/>
-      <c r="DT3" s="43"/>
-      <c r="DU3" s="43"/>
-      <c r="DV3" s="43"/>
-      <c r="DW3" s="43"/>
-      <c r="DX3" s="43"/>
-      <c r="DY3" s="43"/>
-      <c r="DZ3" s="43"/>
-      <c r="EA3" s="43"/>
-      <c r="EB3" s="43"/>
-      <c r="EC3" s="43"/>
+      <c r="DH3" s="42"/>
+      <c r="DI3" s="42"/>
+      <c r="DJ3" s="42"/>
+      <c r="DK3" s="42"/>
+      <c r="DL3" s="42"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="42"/>
+      <c r="DS3" s="42"/>
+      <c r="DT3" s="42"/>
+      <c r="DU3" s="42"/>
+      <c r="DV3" s="42"/>
+      <c r="DW3" s="42"/>
+      <c r="DX3" s="42"/>
+      <c r="DY3" s="42"/>
+      <c r="DZ3" s="42"/>
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="42"/>
+      <c r="EC3" s="42"/>
     </row>
     <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="J4" s="41" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41" t="s">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41" t="s">
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41" t="s">
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41" t="s">
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41" t="s">
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41" t="s">
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="48"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="48"/>
+      <c r="BS4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41" t="s">
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41" t="s">
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="48"/>
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="48"/>
+      <c r="CG4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41" t="s">
+      <c r="CH4" s="48"/>
+      <c r="CI4" s="48"/>
+      <c r="CJ4" s="48"/>
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="48"/>
+      <c r="CM4" s="48"/>
+      <c r="CN4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41" t="s">
+      <c r="CO4" s="48"/>
+      <c r="CP4" s="48"/>
+      <c r="CQ4" s="48"/>
+      <c r="CR4" s="48"/>
+      <c r="CS4" s="48"/>
+      <c r="CT4" s="48"/>
+      <c r="CU4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41" t="s">
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
+      <c r="CX4" s="48"/>
+      <c r="CY4" s="48"/>
+      <c r="CZ4" s="48"/>
+      <c r="DA4" s="48"/>
+      <c r="DB4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41"/>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41" t="s">
+      <c r="DC4" s="48"/>
+      <c r="DD4" s="48"/>
+      <c r="DE4" s="48"/>
+      <c r="DF4" s="48"/>
+      <c r="DG4" s="48"/>
+      <c r="DH4" s="48"/>
+      <c r="DI4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41" t="s">
+      <c r="DJ4" s="48"/>
+      <c r="DK4" s="48"/>
+      <c r="DL4" s="48"/>
+      <c r="DM4" s="48"/>
+      <c r="DN4" s="48"/>
+      <c r="DO4" s="48"/>
+      <c r="DP4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41"/>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41" t="s">
+      <c r="DQ4" s="48"/>
+      <c r="DR4" s="48"/>
+      <c r="DS4" s="48"/>
+      <c r="DT4" s="48"/>
+      <c r="DU4" s="48"/>
+      <c r="DV4" s="48"/>
+      <c r="DW4" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
+      <c r="DX4" s="48"/>
+      <c r="DY4" s="48"/>
+      <c r="DZ4" s="48"/>
+      <c r="EA4" s="48"/>
+      <c r="EB4" s="48"/>
+      <c r="EC4" s="48"/>
       <c r="ED4" s="2"/>
     </row>
     <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2042,12 +2042,12 @@
       <c r="ED5" s="7"/>
     </row>
     <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2551,194 +2551,194 @@
       <c r="ED6" s="2"/>
     </row>
     <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="46" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="38">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="44">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="38">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="44">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="38">
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="44">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="38">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="44">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="38">
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="44">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="38">
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="44">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="38">
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="44">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="38">
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="44">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="40"/>
-      <c r="BS7" s="38">
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="45"/>
+      <c r="BO7" s="45"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BR7" s="46"/>
+      <c r="BS7" s="44">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>56</v>
       </c>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="40"/>
-      <c r="BZ7" s="38">
+      <c r="BT7" s="45"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="45"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="45"/>
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="44">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>48</v>
       </c>
-      <c r="CA7" s="39"/>
-      <c r="CB7" s="39"/>
-      <c r="CC7" s="39"/>
-      <c r="CD7" s="39"/>
-      <c r="CE7" s="39"/>
-      <c r="CF7" s="40"/>
-      <c r="CG7" s="38">
+      <c r="CA7" s="45"/>
+      <c r="CB7" s="45"/>
+      <c r="CC7" s="45"/>
+      <c r="CD7" s="45"/>
+      <c r="CE7" s="45"/>
+      <c r="CF7" s="46"/>
+      <c r="CG7" s="44">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>41</v>
       </c>
-      <c r="CH7" s="39"/>
-      <c r="CI7" s="39"/>
-      <c r="CJ7" s="39"/>
-      <c r="CK7" s="39"/>
-      <c r="CL7" s="39"/>
-      <c r="CM7" s="40"/>
-      <c r="CN7" s="38">
+      <c r="CH7" s="45"/>
+      <c r="CI7" s="45"/>
+      <c r="CJ7" s="45"/>
+      <c r="CK7" s="45"/>
+      <c r="CL7" s="45"/>
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="44">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>57</v>
       </c>
-      <c r="CO7" s="39"/>
-      <c r="CP7" s="39"/>
-      <c r="CQ7" s="39"/>
-      <c r="CR7" s="39"/>
-      <c r="CS7" s="39"/>
-      <c r="CT7" s="40"/>
-      <c r="CU7" s="38">
+      <c r="CO7" s="45"/>
+      <c r="CP7" s="45"/>
+      <c r="CQ7" s="45"/>
+      <c r="CR7" s="45"/>
+      <c r="CS7" s="45"/>
+      <c r="CT7" s="46"/>
+      <c r="CU7" s="44">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="39"/>
-      <c r="CW7" s="39"/>
-      <c r="CX7" s="39"/>
-      <c r="CY7" s="39"/>
-      <c r="CZ7" s="39"/>
-      <c r="DA7" s="40"/>
-      <c r="DB7" s="38">
+      <c r="CV7" s="45"/>
+      <c r="CW7" s="45"/>
+      <c r="CX7" s="45"/>
+      <c r="CY7" s="45"/>
+      <c r="CZ7" s="45"/>
+      <c r="DA7" s="46"/>
+      <c r="DB7" s="44">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="39"/>
-      <c r="DD7" s="39"/>
-      <c r="DE7" s="39"/>
-      <c r="DF7" s="39"/>
-      <c r="DG7" s="39"/>
-      <c r="DH7" s="40"/>
-      <c r="DI7" s="38">
+      <c r="DC7" s="45"/>
+      <c r="DD7" s="45"/>
+      <c r="DE7" s="45"/>
+      <c r="DF7" s="45"/>
+      <c r="DG7" s="45"/>
+      <c r="DH7" s="46"/>
+      <c r="DI7" s="44">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="39"/>
-      <c r="DK7" s="39"/>
-      <c r="DL7" s="39"/>
-      <c r="DM7" s="39"/>
-      <c r="DN7" s="39"/>
-      <c r="DO7" s="40"/>
-      <c r="DP7" s="38">
+      <c r="DJ7" s="45"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="46"/>
+      <c r="DP7" s="44">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="39"/>
-      <c r="DR7" s="39"/>
-      <c r="DS7" s="39"/>
-      <c r="DT7" s="39"/>
-      <c r="DU7" s="39"/>
-      <c r="DV7" s="40"/>
-      <c r="DW7" s="38">
+      <c r="DQ7" s="45"/>
+      <c r="DR7" s="45"/>
+      <c r="DS7" s="45"/>
+      <c r="DT7" s="45"/>
+      <c r="DU7" s="45"/>
+      <c r="DV7" s="46"/>
+      <c r="DW7" s="44">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="39"/>
-      <c r="DY7" s="39"/>
-      <c r="DZ7" s="39"/>
-      <c r="EA7" s="39"/>
-      <c r="EB7" s="39"/>
-      <c r="EC7" s="40"/>
+      <c r="DX7" s="45"/>
+      <c r="DY7" s="45"/>
+      <c r="DZ7" s="45"/>
+      <c r="EA7" s="45"/>
+      <c r="EB7" s="45"/>
+      <c r="EC7" s="46"/>
       <c r="ED7" s="2"/>
     </row>
     <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -5441,7 +5441,9 @@
       <c r="C22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E22" s="16" t="str">
         <f t="shared" si="20"/>
         <v>Network and System administration - CA2</v>
@@ -5454,7 +5456,7 @@
       </c>
       <c r="H22" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Due Today</v>
+        <v>Finished</v>
       </c>
       <c r="I22" s="34">
         <v>45789</v>
@@ -5634,7 +5636,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5856,7 +5858,7 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="34">
         <v>45807</v>
@@ -6066,7 +6068,7 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="34">
         <v>45802</v>
@@ -6274,7 +6276,7 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -6480,7 +6482,7 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
@@ -7024,7 +7026,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7316,7 +7318,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -9037,6 +9039,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="DW7:EC7"/>
+    <mergeCell ref="AX7:BD7"/>
+    <mergeCell ref="BE7:BK7"/>
+    <mergeCell ref="BL7:BR7"/>
+    <mergeCell ref="BS7:BY7"/>
+    <mergeCell ref="BZ7:CF7"/>
+    <mergeCell ref="CG7:CM7"/>
+    <mergeCell ref="CN7:CT7"/>
+    <mergeCell ref="CU7:DA7"/>
+    <mergeCell ref="DB7:DH7"/>
+    <mergeCell ref="DI7:DO7"/>
+    <mergeCell ref="DP7:DV7"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -9053,39 +9088,6 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="DW7:EC7"/>
-    <mergeCell ref="AX7:BD7"/>
-    <mergeCell ref="BE7:BK7"/>
-    <mergeCell ref="BL7:BR7"/>
-    <mergeCell ref="BS7:BY7"/>
-    <mergeCell ref="BZ7:CF7"/>
-    <mergeCell ref="CG7:CM7"/>
-    <mergeCell ref="CN7:CT7"/>
-    <mergeCell ref="CU7:DA7"/>
-    <mergeCell ref="DB7:DH7"/>
-    <mergeCell ref="DI7:DO7"/>
-    <mergeCell ref="DP7:DV7"/>
-    <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="DB4:DH4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F2C3B9-80B0-484C-83FF-6287BD1C5B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3804F320-31C9-4374-A91E-C736EBC77290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="67">
   <si>
     <t>Start date</t>
   </si>
@@ -1281,8 +1281,8 @@
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="84" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="85" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="10" max="86" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="87" max="133" width="3.81640625" style="9" customWidth="1"/>
     <col min="134" max="16384" width="8.453125" style="3"/>
   </cols>
   <sheetData>
@@ -5623,7 +5623,9 @@
       <c r="C23" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E23" s="15" t="str">
         <f t="shared" si="20"/>
         <v>TFG-Localization Based Systems and Intelligent Space - CAT3</v>
@@ -5634,9 +5636,9 @@
       <c r="G23" s="6">
         <v>45783</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>Due Today</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5858,7 +5860,7 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="34">
         <v>45807</v>
@@ -6068,7 +6070,7 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" s="34">
         <v>45802</v>
@@ -6276,7 +6278,7 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -6482,7 +6484,7 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
@@ -7026,7 +7028,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7318,7 +7320,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3804F320-31C9-4374-A91E-C736EBC77290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA34E0A-D98E-4D6B-B77D-F3D721DA3585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,6 +844,39 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,41 +895,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,21 +1281,21 @@
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="86" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="87" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="10" max="90" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="91" max="133" width="3.81640625" style="9" customWidth="1"/>
     <col min="134" max="16384" width="8.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1329,336 +1329,336 @@
       <c r="AX2" s="19"/>
     </row>
     <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="J3" s="38" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="41" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="41" t="s">
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="42"/>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="42"/>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42"/>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42"/>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="42"/>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="42"/>
-      <c r="CU3" s="42"/>
-      <c r="CV3" s="42"/>
-      <c r="CW3" s="42"/>
-      <c r="CX3" s="42"/>
-      <c r="CY3" s="42"/>
-      <c r="CZ3" s="42"/>
-      <c r="DA3" s="42"/>
-      <c r="DB3" s="42"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="43"/>
-      <c r="DG3" s="49" t="s">
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="43"/>
+      <c r="CW3" s="43"/>
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="DH3" s="42"/>
-      <c r="DI3" s="42"/>
-      <c r="DJ3" s="42"/>
-      <c r="DK3" s="42"/>
-      <c r="DL3" s="42"/>
-      <c r="DM3" s="42"/>
-      <c r="DN3" s="42"/>
-      <c r="DO3" s="42"/>
-      <c r="DP3" s="42"/>
-      <c r="DQ3" s="42"/>
-      <c r="DR3" s="42"/>
-      <c r="DS3" s="42"/>
-      <c r="DT3" s="42"/>
-      <c r="DU3" s="42"/>
-      <c r="DV3" s="42"/>
-      <c r="DW3" s="42"/>
-      <c r="DX3" s="42"/>
-      <c r="DY3" s="42"/>
-      <c r="DZ3" s="42"/>
-      <c r="EA3" s="42"/>
-      <c r="EB3" s="42"/>
-      <c r="EC3" s="42"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="43"/>
+      <c r="DK3" s="43"/>
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="43"/>
+      <c r="DS3" s="43"/>
+      <c r="DT3" s="43"/>
+      <c r="DU3" s="43"/>
+      <c r="DV3" s="43"/>
+      <c r="DW3" s="43"/>
+      <c r="DX3" s="43"/>
+      <c r="DY3" s="43"/>
+      <c r="DZ3" s="43"/>
+      <c r="EA3" s="43"/>
+      <c r="EB3" s="43"/>
+      <c r="EC3" s="43"/>
     </row>
     <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="J4" s="48" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="J4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48" t="s">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48" t="s">
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48" t="s">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48" t="s">
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="48" t="s">
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="48" t="s">
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="48"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="48"/>
-      <c r="BP4" s="48"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="48"/>
-      <c r="BS4" s="48" t="s">
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="48"/>
-      <c r="BV4" s="48"/>
-      <c r="BW4" s="48"/>
-      <c r="BX4" s="48"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="48" t="s">
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="48"/>
-      <c r="CB4" s="48"/>
-      <c r="CC4" s="48"/>
-      <c r="CD4" s="48"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="48"/>
-      <c r="CG4" s="48" t="s">
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="48"/>
-      <c r="CI4" s="48"/>
-      <c r="CJ4" s="48"/>
-      <c r="CK4" s="48"/>
-      <c r="CL4" s="48"/>
-      <c r="CM4" s="48"/>
-      <c r="CN4" s="48" t="s">
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="48"/>
-      <c r="CP4" s="48"/>
-      <c r="CQ4" s="48"/>
-      <c r="CR4" s="48"/>
-      <c r="CS4" s="48"/>
-      <c r="CT4" s="48"/>
-      <c r="CU4" s="48" t="s">
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="CV4" s="48"/>
-      <c r="CW4" s="48"/>
-      <c r="CX4" s="48"/>
-      <c r="CY4" s="48"/>
-      <c r="CZ4" s="48"/>
-      <c r="DA4" s="48"/>
-      <c r="DB4" s="48" t="s">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="DC4" s="48"/>
-      <c r="DD4" s="48"/>
-      <c r="DE4" s="48"/>
-      <c r="DF4" s="48"/>
-      <c r="DG4" s="48"/>
-      <c r="DH4" s="48"/>
-      <c r="DI4" s="48" t="s">
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41"/>
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="DJ4" s="48"/>
-      <c r="DK4" s="48"/>
-      <c r="DL4" s="48"/>
-      <c r="DM4" s="48"/>
-      <c r="DN4" s="48"/>
-      <c r="DO4" s="48"/>
-      <c r="DP4" s="48" t="s">
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="48"/>
-      <c r="DR4" s="48"/>
-      <c r="DS4" s="48"/>
-      <c r="DT4" s="48"/>
-      <c r="DU4" s="48"/>
-      <c r="DV4" s="48"/>
-      <c r="DW4" s="48" t="s">
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41"/>
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="DX4" s="48"/>
-      <c r="DY4" s="48"/>
-      <c r="DZ4" s="48"/>
-      <c r="EA4" s="48"/>
-      <c r="EB4" s="48"/>
-      <c r="EC4" s="48"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
       <c r="ED4" s="2"/>
     </row>
     <row r="5" spans="1:134" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="52" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2042,12 +2042,12 @@
       <c r="ED5" s="7"/>
     </row>
     <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
@@ -2551,194 +2551,194 @@
       <c r="ED6" s="2"/>
     </row>
     <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="35" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48">
         <f>SUM(J6:N6)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="44">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="38">
         <f>+SUM(O6:U6)</f>
         <v>28</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="44">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="38">
         <f t="shared" ref="V7" si="4">+SUM(V6:AB6)</f>
         <v>33</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="44">
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="38">
         <f t="shared" ref="AC7" si="5">+SUM(AC6:AI6)</f>
         <v>42</v>
       </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="44">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="38">
         <f t="shared" ref="AJ7" si="6">+SUM(AJ6:AP6)</f>
         <v>45</v>
       </c>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="44">
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="38">
         <f t="shared" ref="AQ7" si="7">+SUM(AQ6:AW6)</f>
         <v>49</v>
       </c>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="44">
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="38">
         <f t="shared" ref="AX7" si="8">+SUM(AX6:BD6)</f>
         <v>48</v>
       </c>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="44">
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="38">
         <f t="shared" ref="BE7" si="9">+SUM(BE6:BK6)</f>
         <v>49</v>
       </c>
-      <c r="BF7" s="45"/>
-      <c r="BG7" s="45"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="44">
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="38">
         <f t="shared" ref="BL7" si="10">+SUM(BL6:BR6)</f>
         <v>51</v>
       </c>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="45"/>
-      <c r="BO7" s="45"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="46"/>
-      <c r="BS7" s="44">
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="38">
         <f t="shared" ref="BS7" si="11">+SUM(BS6:BY6)</f>
         <v>56</v>
       </c>
-      <c r="BT7" s="45"/>
-      <c r="BU7" s="45"/>
-      <c r="BV7" s="45"/>
-      <c r="BW7" s="45"/>
-      <c r="BX7" s="45"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="44">
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="38">
         <f t="shared" ref="BZ7" si="12">+SUM(BZ6:CF6)</f>
         <v>48</v>
       </c>
-      <c r="CA7" s="45"/>
-      <c r="CB7" s="45"/>
-      <c r="CC7" s="45"/>
-      <c r="CD7" s="45"/>
-      <c r="CE7" s="45"/>
-      <c r="CF7" s="46"/>
-      <c r="CG7" s="44">
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="39"/>
+      <c r="CC7" s="39"/>
+      <c r="CD7" s="39"/>
+      <c r="CE7" s="39"/>
+      <c r="CF7" s="40"/>
+      <c r="CG7" s="38">
         <f t="shared" ref="CG7" si="13">+SUM(CG6:CM6)</f>
         <v>41</v>
       </c>
-      <c r="CH7" s="45"/>
-      <c r="CI7" s="45"/>
-      <c r="CJ7" s="45"/>
-      <c r="CK7" s="45"/>
-      <c r="CL7" s="45"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="44">
+      <c r="CH7" s="39"/>
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="39"/>
+      <c r="CK7" s="39"/>
+      <c r="CL7" s="39"/>
+      <c r="CM7" s="40"/>
+      <c r="CN7" s="38">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
         <v>57</v>
       </c>
-      <c r="CO7" s="45"/>
-      <c r="CP7" s="45"/>
-      <c r="CQ7" s="45"/>
-      <c r="CR7" s="45"/>
-      <c r="CS7" s="45"/>
-      <c r="CT7" s="46"/>
-      <c r="CU7" s="44">
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="39"/>
+      <c r="CQ7" s="39"/>
+      <c r="CR7" s="39"/>
+      <c r="CS7" s="39"/>
+      <c r="CT7" s="40"/>
+      <c r="CU7" s="38">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
         <v>63</v>
       </c>
-      <c r="CV7" s="45"/>
-      <c r="CW7" s="45"/>
-      <c r="CX7" s="45"/>
-      <c r="CY7" s="45"/>
-      <c r="CZ7" s="45"/>
-      <c r="DA7" s="46"/>
-      <c r="DB7" s="44">
+      <c r="CV7" s="39"/>
+      <c r="CW7" s="39"/>
+      <c r="CX7" s="39"/>
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="39"/>
+      <c r="DA7" s="40"/>
+      <c r="DB7" s="38">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
         <v>49</v>
       </c>
-      <c r="DC7" s="45"/>
-      <c r="DD7" s="45"/>
-      <c r="DE7" s="45"/>
-      <c r="DF7" s="45"/>
-      <c r="DG7" s="45"/>
-      <c r="DH7" s="46"/>
-      <c r="DI7" s="44">
+      <c r="DC7" s="39"/>
+      <c r="DD7" s="39"/>
+      <c r="DE7" s="39"/>
+      <c r="DF7" s="39"/>
+      <c r="DG7" s="39"/>
+      <c r="DH7" s="40"/>
+      <c r="DI7" s="38">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
         <v>28</v>
       </c>
-      <c r="DJ7" s="45"/>
-      <c r="DK7" s="45"/>
-      <c r="DL7" s="45"/>
-      <c r="DM7" s="45"/>
-      <c r="DN7" s="45"/>
-      <c r="DO7" s="46"/>
-      <c r="DP7" s="44">
+      <c r="DJ7" s="39"/>
+      <c r="DK7" s="39"/>
+      <c r="DL7" s="39"/>
+      <c r="DM7" s="39"/>
+      <c r="DN7" s="39"/>
+      <c r="DO7" s="40"/>
+      <c r="DP7" s="38">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
         <v>3</v>
       </c>
-      <c r="DQ7" s="45"/>
-      <c r="DR7" s="45"/>
-      <c r="DS7" s="45"/>
-      <c r="DT7" s="45"/>
-      <c r="DU7" s="45"/>
-      <c r="DV7" s="46"/>
-      <c r="DW7" s="44">
+      <c r="DQ7" s="39"/>
+      <c r="DR7" s="39"/>
+      <c r="DS7" s="39"/>
+      <c r="DT7" s="39"/>
+      <c r="DU7" s="39"/>
+      <c r="DV7" s="40"/>
+      <c r="DW7" s="38">
         <f t="shared" ref="DW7" si="19">+SUM(DW6:EC6)</f>
         <v>1</v>
       </c>
-      <c r="DX7" s="45"/>
-      <c r="DY7" s="45"/>
-      <c r="DZ7" s="45"/>
-      <c r="EA7" s="45"/>
-      <c r="EB7" s="45"/>
-      <c r="EC7" s="46"/>
+      <c r="DX7" s="39"/>
+      <c r="DY7" s="39"/>
+      <c r="DZ7" s="39"/>
+      <c r="EA7" s="39"/>
+      <c r="EB7" s="39"/>
+      <c r="EC7" s="40"/>
       <c r="ED7" s="2"/>
     </row>
     <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="H23" s="14" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Due Today</v>
+        <v>Finished</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" s="34">
         <v>45807</v>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25" s="34">
         <v>45802</v>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -7790,9 +7790,9 @@
       <c r="G33" s="6">
         <v>45811</v>
       </c>
-      <c r="H33" s="14" t="str">
+      <c r="H33" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>Not Started</v>
+        <v>24</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="13"/>
@@ -9041,6 +9041,39 @@
     <sortCondition ref="F8:F37"/>
   </sortState>
   <mergeCells count="49">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:AX3"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AY3:CB3"/>
+    <mergeCell ref="CC3:DF3"/>
+    <mergeCell ref="DG3:EC3"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="DW7:EC7"/>
     <mergeCell ref="AX7:BD7"/>
@@ -9057,39 +9090,6 @@
     <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="AY3:CB3"/>
-    <mergeCell ref="CC3:DF3"/>
-    <mergeCell ref="DG3:EC3"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:AX3"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:I38">

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA34E0A-D98E-4D6B-B77D-F3D721DA3585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDDFFD2-E502-4A3D-981F-49359B59DE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="67">
   <si>
     <t>Start date</t>
   </si>
@@ -1281,8 +1281,8 @@
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="90" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="91" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="10" max="91" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="92" max="133" width="3.81640625" style="9" customWidth="1"/>
     <col min="134" max="16384" width="8.453125" style="3"/>
   </cols>
   <sheetData>
@@ -2386,91 +2386,91 @@
       </c>
       <c r="CO6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CP6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CQ6" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CS6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CV6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CW6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CX6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CY6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CZ6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DA6" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DB6" s="21">
         <f t="shared" ref="DB6:EC6" si="3">COUNTIF(DB8:DB38, ".")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DC6" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DD6" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DE6" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DF6" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DG6" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DH6" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DI6" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DJ6" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DK6" s="21">
         <f t="shared" si="3"/>
@@ -2478,23 +2478,23 @@
       </c>
       <c r="DL6" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DM6" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DN6" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DO6" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DP6" s="21">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DQ6" s="21">
         <f t="shared" si="3"/>
@@ -2681,7 +2681,7 @@
       <c r="CM7" s="40"/>
       <c r="CN7" s="38">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="CO7" s="39"/>
       <c r="CP7" s="39"/>
@@ -2691,7 +2691,7 @@
       <c r="CT7" s="40"/>
       <c r="CU7" s="38">
         <f t="shared" ref="CU7" si="15">+SUM(CU6:DA6)</f>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="CV7" s="39"/>
       <c r="CW7" s="39"/>
@@ -2701,7 +2701,7 @@
       <c r="DA7" s="40"/>
       <c r="DB7" s="38">
         <f t="shared" ref="DB7" si="16">+SUM(DB6:DH6)</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="DC7" s="39"/>
       <c r="DD7" s="39"/>
@@ -2711,7 +2711,7 @@
       <c r="DH7" s="40"/>
       <c r="DI7" s="38">
         <f t="shared" ref="DI7" si="17">+SUM(DI6:DO6)</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="DJ7" s="39"/>
       <c r="DK7" s="39"/>
@@ -2721,7 +2721,7 @@
       <c r="DO7" s="40"/>
       <c r="DP7" s="38">
         <f t="shared" ref="DP7" si="18">+SUM(DP6:DV6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DQ7" s="39"/>
       <c r="DR7" s="39"/>
@@ -5858,9 +5858,9 @@
       <c r="G24" s="10">
         <v>45788</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="14" t="str">
         <f t="shared" ref="H24" ca="1" si="22">IF(F24&gt;TODAY(), "Not Started", IF(TODAY()&gt;G24, "Finished", IF(G24=TODAY(), "Due Today", G24-TODAY())))</f>
-        <v>1</v>
+        <v>Finished</v>
       </c>
       <c r="I24" s="34">
         <v>45807</v>
@@ -6068,9 +6068,9 @@
       <c r="G25" s="6">
         <v>45788</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="14" t="str">
         <f t="shared" ref="H25:H33" ca="1" si="23">IF(F25&gt;TODAY(), "Not Started", IF(TODAY()&gt;G25, "Finished", IF(G25=TODAY(), "Due Today", G25-TODAY())))</f>
-        <v>1</v>
+        <v>Finished</v>
       </c>
       <c r="I25" s="34">
         <v>45802</v>
@@ -6265,7 +6265,9 @@
       <c r="C26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E26" s="16" t="str">
         <f t="shared" si="20"/>
         <v>Human-Computer Interaction - C3</v>
@@ -6276,9 +6278,9 @@
       <c r="G26" s="10">
         <v>45789</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="14" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>Due Today</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -6471,7 +6473,9 @@
       <c r="C27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E27" s="15" t="str">
         <f t="shared" si="20"/>
         <v>Software Design Patterns - CAT2</v>
@@ -6484,7 +6488,7 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
@@ -6611,7 +6615,7 @@
         <v>65</v>
       </c>
       <c r="CO27" s="12" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="CP27" s="12"/>
       <c r="CQ27" s="12"/>
@@ -6674,9 +6678,9 @@
       <c r="G28" s="10">
         <v>45802</v>
       </c>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>Not Started</v>
+        <v>13</v>
       </c>
       <c r="I28" s="34">
         <v>45810</v>
@@ -6767,10 +6771,10 @@
         <v>13</v>
       </c>
       <c r="CO28" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CP28" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CQ28" s="13" t="s">
         <v>13</v>
@@ -6951,10 +6955,10 @@
         <v>13</v>
       </c>
       <c r="CS29" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CT29" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CU29" s="12" t="s">
         <v>13</v>
@@ -7028,7 +7032,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7320,7 +7324,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -7596,9 +7600,9 @@
       <c r="G32" s="10">
         <v>45809</v>
       </c>
-      <c r="H32" s="14" t="str">
+      <c r="H32" s="14">
         <f ca="1">IF(F32&gt;TODAY(), "Not Started", IF(TODAY()&gt;G32, "Finished", IF(G32=TODAY(), "Due Today", G32-TODAY())))</f>
-        <v>Not Started</v>
+        <v>20</v>
       </c>
       <c r="I32" s="34">
         <v>45818</v>
@@ -7689,10 +7693,10 @@
         <v>13</v>
       </c>
       <c r="CO32" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CP32" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CQ32" s="12" t="s">
         <v>13</v>
@@ -7792,7 +7796,7 @@
       </c>
       <c r="H33" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="13"/>
@@ -7909,52 +7913,52 @@
         <v>13</v>
       </c>
       <c r="CU33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CV33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CW33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CX33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CY33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CZ33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DA33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DB33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DC33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DD33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DE33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DF33" s="30" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DG33" s="27" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DH33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DI33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DJ33" s="13" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DK33" s="13"/>
       <c r="DL33" s="13"/>
@@ -7996,9 +8000,9 @@
       <c r="G34" s="10">
         <v>45816</v>
       </c>
-      <c r="H34" s="14" t="str">
+      <c r="H34" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>27</v>
       </c>
       <c r="I34" s="34">
         <v>45830</v>
@@ -8095,10 +8099,10 @@
         <v>13</v>
       </c>
       <c r="CQ34" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CR34" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="CS34" s="12" t="s">
         <v>13</v>
@@ -8566,19 +8570,19 @@
         <v>13</v>
       </c>
       <c r="DL36" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DM36" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DN36" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DO36" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DP36" s="12" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="DQ36" s="12"/>
       <c r="DR36" s="12"/>

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDDFFD2-E502-4A3D-981F-49359B59DE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E4AD41-42FA-4D85-81D2-FA88B29546C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="67">
   <si>
     <t>Start date</t>
   </si>
@@ -1266,7 +1266,7 @@
   <dimension ref="A2:ED39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="BT8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="CP8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:H4"/>
@@ -1281,8 +1281,8 @@
     <col min="5" max="5" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="91" width="3.81640625" style="9" hidden="1" customWidth="1"/>
-    <col min="92" max="133" width="3.81640625" style="9" customWidth="1"/>
+    <col min="10" max="93" width="3.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="94" max="133" width="3.81640625" style="9" customWidth="1"/>
     <col min="134" max="16384" width="8.453125" style="3"/>
   </cols>
   <sheetData>
@@ -2390,11 +2390,11 @@
       </c>
       <c r="CP6" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CQ6" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CR6" s="21">
         <f t="shared" si="2"/>
@@ -2681,7 +2681,7 @@
       <c r="CM7" s="40"/>
       <c r="CN7" s="38">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CO7" s="39"/>
       <c r="CP7" s="39"/>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="H26" s="14" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Due Today</v>
+        <v>Finished</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -6486,9 +6486,9 @@
       <c r="G27" s="6">
         <v>45790</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="14" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>Finished</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="H28" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I28" s="34">
         <v>45810</v>
@@ -6949,8 +6949,12 @@
       <c r="CM29" s="12"/>
       <c r="CN29" s="12"/>
       <c r="CO29" s="12"/>
-      <c r="CP29" s="12"/>
-      <c r="CQ29" s="12"/>
+      <c r="CP29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="CQ29" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="CR29" s="12" t="s">
         <v>13</v>
       </c>
@@ -7032,7 +7036,7 @@
       </c>
       <c r="H30" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I30" s="34">
         <v>45817</v>
@@ -7324,7 +7328,7 @@
       </c>
       <c r="H31" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I31" s="34">
         <v>45817</v>
@@ -7589,7 +7593,9 @@
       <c r="C32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="E32" s="16" t="str">
         <f>B32&amp;" - "&amp;C32</f>
         <v>Mobile app development - CAA5</v>
@@ -7602,7 +7608,7 @@
       </c>
       <c r="H32" s="14">
         <f ca="1">IF(F32&gt;TODAY(), "Not Started", IF(TODAY()&gt;G32, "Finished", IF(G32=TODAY(), "Due Today", G32-TODAY())))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I32" s="34">
         <v>45818</v>
@@ -7696,7 +7702,7 @@
         <v>66</v>
       </c>
       <c r="CP32" s="12" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="CQ32" s="12" t="s">
         <v>13</v>
@@ -7796,7 +7802,7 @@
       </c>
       <c r="H33" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="13"/>
@@ -8002,7 +8008,7 @@
       </c>
       <c r="H34" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I34" s="34">
         <v>45830</v>
@@ -8096,7 +8102,7 @@
         <v>13</v>
       </c>
       <c r="CP34" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CQ34" s="12" t="s">
         <v>66</v>
@@ -8208,9 +8214,9 @@
       <c r="G35" s="6">
         <v>45817</v>
       </c>
-      <c r="H35" s="14" t="str">
+      <c r="H35" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>Not Started</v>
+        <v>26</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="13"/>
@@ -8414,9 +8420,9 @@
       <c r="G36" s="10">
         <v>45818</v>
       </c>
-      <c r="H36" s="14" t="str">
+      <c r="H36" s="14">
         <f t="shared" ref="H36:H37" ca="1" si="24">IF(F36&gt;TODAY(), "Not Started", IF(TODAY()&gt;G36, "Finished", IF(G36=TODAY(), "Due Today", G36-TODAY())))</f>
-        <v>Not Started</v>
+        <v>27</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="12"/>

--- a/zz_utils/pendings.xlsx
+++ b/zz_utils/pendings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasdalessandro/Desktop/UOC-2025-01/zz_utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoD'Alessandro\Documents\Studies\UOC\UOC-2025-01\zz_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E854FACF-C3E7-4F4C-987B-C67CF4575287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D01AB8D-AB16-49EC-BBC6-254D9695623D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UOC-202402" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="67">
   <si>
     <t>Start date</t>
   </si>
@@ -1256,21 +1256,21 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="2"/>
-    <col min="2" max="2" width="32.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="57.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="94" width="3.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="95" max="133" width="3.83203125" style="8" customWidth="1"/>
-    <col min="134" max="16384" width="8.5" style="2"/>
+    <col min="1" max="1" width="8.453125" style="2"/>
+    <col min="2" max="2" width="32.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="95" width="3.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="96" max="133" width="3.81640625" style="8" customWidth="1"/>
+    <col min="134" max="16384" width="8.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="AW2" s="18"/>
       <c r="AX2" s="18"/>
     </row>
-    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -1455,7 +1455,7 @@
       <c r="EB3" s="41"/>
       <c r="EC3" s="41"/>
     </row>
-    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -1625,7 +1625,7 @@
       <c r="EC4" s="47"/>
       <c r="ED4" s="1"/>
     </row>
-    <row r="5" spans="1:134" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:134" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="36" t="s">
         <v>2</v>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="ED5" s="6"/>
     </row>
-    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:134" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="46"/>
@@ -2382,15 +2382,15 @@
       </c>
       <c r="CR6" s="20">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CS6" s="20">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT6" s="20">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU6" s="20">
         <f t="shared" si="2"/>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="ED6" s="1"/>
     </row>
-    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:134" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="46"/>
@@ -2665,7 +2665,7 @@
       <c r="CM7" s="45"/>
       <c r="CN7" s="43">
         <f t="shared" ref="CN7" si="14">+SUM(CN6:CT6)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CO7" s="44"/>
       <c r="CP7" s="44"/>
@@ -2725,7 +2725,7 @@
       <c r="EC7" s="45"/>
       <c r="ED7" s="1"/>
     </row>
-    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>33</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="EC8" s="10"/>
       <c r="ED8" s="1"/>
     </row>
-    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="EC9" s="11"/>
       <c r="ED9" s="1"/>
     </row>
-    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="EC10" s="11"/>
       <c r="ED10" s="1"/>
     </row>
-    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="EC11" s="12"/>
       <c r="ED11" s="1"/>
     </row>
-    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
         <v>27</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="EC12" s="11"/>
       <c r="ED12" s="1"/>
     </row>
-    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="EC13" s="12"/>
       <c r="ED13" s="1"/>
     </row>
-    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>19</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="EC14" s="11"/>
       <c r="ED14" s="1"/>
     </row>
-    <row r="15" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="EC15" s="12"/>
       <c r="ED15" s="1"/>
     </row>
-    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
         <v>33</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="EC16" s="11"/>
       <c r="ED16" s="1"/>
     </row>
-    <row r="17" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="EC17" s="12"/>
       <c r="ED17" s="1"/>
     </row>
-    <row r="18" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="EC18" s="11"/>
       <c r="ED18" s="1"/>
     </row>
-    <row r="19" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>8</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="EC19" s="12"/>
       <c r="ED19" s="1"/>
     </row>
-    <row r="20" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
         <v>19</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="EC20" s="11"/>
       <c r="ED20" s="1"/>
     </row>
-    <row r="21" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>24</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="EC21" s="12"/>
       <c r="ED21" s="1"/>
     </row>
-    <row r="22" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
         <v>14</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="EC22" s="11"/>
       <c r="ED22" s="1"/>
     </row>
-    <row r="23" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>33</v>
       </c>
@@ -5809,7 +5809,7 @@
       <c r="EC23" s="12"/>
       <c r="ED23" s="1"/>
     </row>
-    <row r="24" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17" t="s">
         <v>27</v>
       </c>
@@ -6018,7 +6018,7 @@
       <c r="EC24" s="11"/>
       <c r="ED24" s="1"/>
     </row>
-    <row r="25" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
         <v>24</v>
       </c>
@@ -6227,7 +6227,7 @@
       <c r="EC25" s="12"/>
       <c r="ED25" s="1"/>
     </row>
-    <row r="26" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17" t="s">
         <v>8</v>
       </c>
@@ -6434,7 +6434,7 @@
       <c r="EC26" s="11"/>
       <c r="ED26" s="1"/>
     </row>
-    <row r="27" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="EC27" s="12"/>
       <c r="ED27" s="1"/>
     </row>
-    <row r="28" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17" t="s">
         <v>14</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="H28" s="13">
         <f t="shared" ca="1" si="23"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" s="33">
         <v>45810</v>
@@ -6806,7 +6806,7 @@
       <c r="EC28" s="11"/>
       <c r="ED28" s="1"/>
     </row>
-    <row r="29" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
@@ -6824,9 +6824,9 @@
       <c r="G29" s="5">
         <v>45802</v>
       </c>
-      <c r="H29" s="13" t="str">
+      <c r="H29" s="13">
         <f t="shared" ca="1" si="23"/>
-        <v>Not Started</v>
+        <v>9</v>
       </c>
       <c r="I29" s="13">
         <v>45816</v>
@@ -6922,13 +6922,13 @@
         <v>13</v>
       </c>
       <c r="CR29" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CS29" s="12" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="CT29" s="12" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="CU29" s="12" t="s">
         <v>13</v>
@@ -6981,7 +6981,7 @@
       <c r="EC29" s="12"/>
       <c r="ED29" s="1"/>
     </row>
-    <row r="30" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="17" t="s">
         <v>14</v>
       </c>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H30" s="13">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="33">
         <v>45817</v>
@@ -7272,7 +7272,7 @@
       <c r="EC30" s="11"/>
       <c r="ED30" s="1"/>
     </row>
-    <row r="31" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>14</v>
       </c>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="H31" s="13">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="13">
         <v>45817</v>
@@ -7549,7 +7549,7 @@
       <c r="EC31" s="12"/>
       <c r="ED31" s="1"/>
     </row>
-    <row r="32" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="17" t="s">
         <v>27</v>
       </c>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="H32" s="13">
         <f ca="1">IF(F32&gt;TODAY(), "Not Started", IF(TODAY()&gt;G32, "Finished", IF(G32=TODAY(), "Due Today", G32-TODAY())))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="33">
         <v>45818</v>
@@ -7744,7 +7744,7 @@
       <c r="EC32" s="11"/>
       <c r="ED32" s="1"/>
     </row>
-    <row r="33" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>33</v>
       </c>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H33" s="13">
         <f t="shared" ca="1" si="23"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="12"/>
@@ -7949,14 +7949,16 @@
       <c r="EC33" s="12"/>
       <c r="ED33" s="1"/>
     </row>
-    <row r="34" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E34" s="15" t="str">
         <f t="shared" si="20"/>
         <v>Networks and Internet Applications - PR4</v>
@@ -7969,7 +7971,7 @@
       </c>
       <c r="H34" s="13">
         <f t="shared" ca="1" si="21"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="33">
         <v>45830</v>
@@ -8156,7 +8158,7 @@
       <c r="EC34" s="11"/>
       <c r="ED34" s="1"/>
     </row>
-    <row r="35" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="s">
         <v>8</v>
       </c>
@@ -8176,7 +8178,7 @@
       </c>
       <c r="H35" s="13">
         <f t="shared" ca="1" si="21"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="12"/>
@@ -8361,7 +8363,7 @@
       <c r="EC35" s="12"/>
       <c r="ED35" s="1"/>
     </row>
-    <row r="36" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="17" t="s">
         <v>19</v>
       </c>
@@ -8381,7 +8383,7 @@
       </c>
       <c r="H36" s="13">
         <f t="shared" ref="H36:H37" ca="1" si="24">IF(F36&gt;TODAY(), "Not Started", IF(TODAY()&gt;G36, "Finished", IF(G36=TODAY(), "Due Today", G36-TODAY())))</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I36" s="33"/>
       <c r="J36" s="11"/>
@@ -8564,7 +8566,7 @@
       <c r="EC36" s="11"/>
       <c r="ED36" s="1"/>
     </row>
-    <row r="37" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
         <v>33</v>
       </c>
@@ -8725,7 +8727,7 @@
       <c r="EC37" s="12"/>
       <c r="ED37" s="1"/>
     </row>
-    <row r="38" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:134" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="17" t="s">
         <v>33</v>
       </c>
@@ -8876,7 +8878,7 @@
       <c r="EC38" s="11"/>
       <c r="ED38" s="1"/>
     </row>
-    <row r="39" spans="2:134" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:134" x14ac:dyDescent="0.35">
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
